--- a/tables/crop_classifications/DE_BRB_crop_classification_final.xlsx
+++ b/tables/crop_classifications/DE_BRB_crop_classification_final.xlsx
@@ -1,28 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\Europe-LAND\data\tables\Copy_classifications_corrected\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\Europe-LAND\data\tables\crop_classifications\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6222817-B7DA-4AE4-A608-8C0864E8E6AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28185" windowHeight="5670"/>
+    <workbookView xWindow="-46188" yWindow="-108" windowWidth="38616" windowHeight="21216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$550</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$557</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2860" uniqueCount="1208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2345" uniqueCount="1219">
   <si>
     <t>crop_code</t>
   </si>
@@ -3640,22 +3641,55 @@
     <t>tarragon</t>
   </si>
   <si>
-    <t>DE_BB</t>
-  </si>
-  <si>
     <t>other_mushrooms_energy_crops_genetically_modified_crops</t>
   </si>
   <si>
     <t>chard</t>
   </si>
   <si>
-    <t>country_code</t>
+    <t>Feldvogelinseln AUKM</t>
+  </si>
+  <si>
+    <t>Dauerkulturen aus der Erzeugung genommen</t>
+  </si>
+  <si>
+    <t>Wildäsungsfläche</t>
+  </si>
+  <si>
+    <t>Nicht lw. Fl., förderf. §11 (1) Nr. 3a/aa/cc GAPDZV Nat.2000</t>
+  </si>
+  <si>
+    <t>Sommerlauch (Speise-Zwiebel, Schalotte, Lauch, Knoblauch, Schnittlauch, Bärlauch)</t>
+  </si>
+  <si>
+    <t>Nicht lw. Fl., förderf. §11 (1) Nr. 3a/bb GAPDZV WasserRRL</t>
+  </si>
+  <si>
+    <t>Field bird islands AUKM</t>
+  </si>
+  <si>
+    <t>Permanent crops taken out of production</t>
+  </si>
+  <si>
+    <t>Game grazing area</t>
+  </si>
+  <si>
+    <t>Non-agric. areas</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> eligible for funding under §11 (1) No. 3a/aa/cc GAPDZV Nat.2000</t>
+  </si>
+  <si>
+    <t>Summer leeks(edible onione, shallots, leeks, garlic, chives, wild garlic)</t>
+  </si>
+  <si>
+    <t>Non-agric. areas, eligible for funding, §11 (1) No. 3a/bb GAPDZV Water Framework Directive</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3718,7 +3752,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -4017,20 +4051,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H550"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G557"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A161" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H1" sqref="H1"/>
+      <pane ySplit="1" topLeftCell="A524" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C561" sqref="C561"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="7" width="30.28515625" customWidth="1"/>
+    <col min="1" max="7" width="30.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4052,11 +4086,8 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>1207</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>144</v>
       </c>
@@ -4078,11 +4109,8 @@
       <c r="G2" s="3">
         <v>3301011502</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>145</v>
       </c>
@@ -4104,11 +4132,8 @@
       <c r="G3" s="3">
         <v>3301011502</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>710</v>
       </c>
@@ -4122,11 +4147,8 @@
       <c r="G4" s="3">
         <v>3399000000</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>0</v>
       </c>
@@ -4140,11 +4162,8 @@
       <c r="G5" s="3">
         <v>3399000000</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>996</v>
       </c>
@@ -4158,11 +4177,8 @@
       <c r="G6" s="3">
         <v>3399000000</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>994</v>
       </c>
@@ -4176,11 +4192,8 @@
       <c r="G7" s="3">
         <v>3399000000</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>140</v>
       </c>
@@ -4194,11 +4207,8 @@
       <c r="G8" s="3">
         <v>3399000000</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>155</v>
       </c>
@@ -4212,11 +4222,8 @@
       <c r="G9" s="3">
         <v>3399000000</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>559</v>
       </c>
@@ -4230,11 +4237,8 @@
       <c r="G10" s="3">
         <v>3399000000</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>591</v>
       </c>
@@ -4254,11 +4258,8 @@
       <c r="G11" s="3">
         <v>3308000000</v>
       </c>
-      <c r="H11" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>992</v>
       </c>
@@ -4278,11 +4279,8 @@
       <c r="G12" s="3">
         <v>3308000000</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>220</v>
       </c>
@@ -4302,11 +4300,8 @@
       <c r="G13" s="3">
         <v>3301020100</v>
       </c>
-      <c r="H13" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>220</v>
       </c>
@@ -4326,11 +4321,8 @@
       <c r="G14" s="3">
         <v>3301020100</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>220</v>
       </c>
@@ -4352,11 +4344,8 @@
       <c r="G15" s="3">
         <v>3301020100</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>424</v>
       </c>
@@ -4378,11 +4367,8 @@
       <c r="G16" s="3">
         <v>3302000000</v>
       </c>
-      <c r="H16" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>999</v>
       </c>
@@ -4404,11 +4390,8 @@
       <c r="G17" s="3">
         <v>3301990000</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>999</v>
       </c>
@@ -4428,11 +4411,8 @@
       <c r="G18" s="3">
         <v>3301990000</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>999</v>
       </c>
@@ -4452,11 +4432,8 @@
       <c r="G19" s="3">
         <v>3301990000</v>
       </c>
-      <c r="H19" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>591</v>
       </c>
@@ -4478,11 +4455,8 @@
       <c r="G20" s="3">
         <v>3308000000</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>591</v>
       </c>
@@ -4502,11 +4476,8 @@
       <c r="G21" s="3">
         <v>3308000000</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>12</v>
       </c>
@@ -4526,11 +4497,8 @@
       <c r="G22" s="3">
         <v>3399000000</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>836</v>
       </c>
@@ -4550,11 +4518,8 @@
       <c r="G23" s="3">
         <v>3303010200</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>827</v>
       </c>
@@ -4574,11 +4539,8 @@
       <c r="G24" s="3">
         <v>3303010200</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>827</v>
       </c>
@@ -4598,11 +4560,8 @@
       <c r="G25" s="3">
         <v>3303010200</v>
       </c>
-      <c r="H25" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="3"/>
       <c r="B26" s="3" t="s">
         <v>43</v>
@@ -4618,11 +4577,8 @@
       <c r="G26" s="3">
         <v>3399000000</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>459</v>
       </c>
@@ -4642,11 +4598,8 @@
       <c r="G27" s="3">
         <v>3399000000</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>990</v>
       </c>
@@ -4666,11 +4619,8 @@
       <c r="G28" s="3">
         <v>3399000000</v>
       </c>
-      <c r="H28" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>990</v>
       </c>
@@ -4690,11 +4640,8 @@
       <c r="G29" s="3">
         <v>3399000000</v>
       </c>
-      <c r="H29" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>990</v>
       </c>
@@ -4716,11 +4663,8 @@
       <c r="G30" s="3">
         <v>3399000000</v>
       </c>
-      <c r="H30" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>429</v>
       </c>
@@ -4740,11 +4684,8 @@
       <c r="G31" s="3">
         <v>3301990000</v>
       </c>
-      <c r="H31" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>190</v>
       </c>
@@ -4764,11 +4705,8 @@
       <c r="G32" s="3">
         <v>3301010000</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>690</v>
       </c>
@@ -4788,11 +4726,8 @@
       <c r="G33" s="3">
         <v>3301990000</v>
       </c>
-      <c r="H33" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>790</v>
       </c>
@@ -4812,11 +4747,8 @@
       <c r="G34" s="3">
         <v>3301990000</v>
       </c>
-      <c r="H34" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>290</v>
       </c>
@@ -4836,11 +4768,8 @@
       <c r="G35" s="3">
         <v>3301020000</v>
       </c>
-      <c r="H35" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>636</v>
       </c>
@@ -4860,11 +4789,8 @@
       <c r="G36" s="3">
         <v>3301220000</v>
       </c>
-      <c r="H36" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>633</v>
       </c>
@@ -4884,11 +4810,8 @@
       <c r="G37" s="3">
         <v>3301220000</v>
       </c>
-      <c r="H37" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>633</v>
       </c>
@@ -4908,11 +4831,8 @@
       <c r="G38" s="3">
         <v>3301220000</v>
       </c>
-      <c r="H38" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>186</v>
       </c>
@@ -4932,11 +4852,8 @@
       <c r="G39" s="3">
         <v>3301150100</v>
       </c>
-      <c r="H39" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>186</v>
       </c>
@@ -4958,11 +4875,8 @@
       <c r="G40" s="3">
         <v>3301150100</v>
       </c>
-      <c r="H40" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>632</v>
       </c>
@@ -4982,11 +4896,8 @@
       <c r="G41" s="3">
         <v>3301070000</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>632</v>
       </c>
@@ -5006,11 +4917,8 @@
       <c r="G42" s="3">
         <v>3301070000</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>390</v>
       </c>
@@ -5030,11 +4938,8 @@
       <c r="G43" s="3">
         <v>3301060800</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>651</v>
       </c>
@@ -5054,11 +4959,8 @@
       <c r="G44" s="3">
         <v>3301061200</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>491</v>
       </c>
@@ -5078,11 +4980,8 @@
       <c r="G45" s="3">
         <v>3302000000</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>649</v>
       </c>
@@ -5102,11 +5001,8 @@
       <c r="G46" s="3">
         <v>3301180000</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>999</v>
       </c>
@@ -5126,11 +5022,8 @@
       <c r="G47" s="3">
         <v>3308000000</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>556</v>
       </c>
@@ -5150,11 +5043,8 @@
       <c r="G48" s="3">
         <v>3306010000</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>2</v>
       </c>
@@ -5176,11 +5066,8 @@
       <c r="G49" s="3">
         <v>3306000000</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <v>839</v>
       </c>
@@ -5200,11 +5087,8 @@
       <c r="G50" s="3">
         <v>3303020000</v>
       </c>
-      <c r="H50" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
         <v>830</v>
       </c>
@@ -5224,11 +5108,8 @@
       <c r="G51" s="3">
         <v>3303070000</v>
       </c>
-      <c r="H51" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
         <v>838</v>
       </c>
@@ -5248,11 +5129,8 @@
       <c r="G52" s="3">
         <v>3303070000</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>838</v>
       </c>
@@ -5274,11 +5152,8 @@
       <c r="G53" s="3">
         <v>3303070000</v>
       </c>
-      <c r="H53" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
         <v>831</v>
       </c>
@@ -5298,11 +5173,8 @@
       <c r="G54" s="3">
         <v>3303020000</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
         <v>839</v>
       </c>
@@ -5322,11 +5194,8 @@
       <c r="G55" s="3">
         <v>3303020000</v>
       </c>
-      <c r="H55" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
         <v>827</v>
       </c>
@@ -5348,11 +5217,8 @@
       <c r="G56" s="3">
         <v>3303020000</v>
       </c>
-      <c r="H56" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
         <v>817</v>
       </c>
@@ -5374,11 +5240,8 @@
       <c r="G57" s="3">
         <v>3303020000</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
         <v>817</v>
       </c>
@@ -5398,11 +5261,8 @@
       <c r="G58" s="3">
         <v>3303020000</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
         <v>842</v>
       </c>
@@ -5422,11 +5282,8 @@
       <c r="G59" s="3">
         <v>3303060000</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
         <v>492</v>
       </c>
@@ -5446,11 +5303,8 @@
       <c r="G60" s="3">
         <v>3302000000</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
         <v>492</v>
       </c>
@@ -5470,11 +5324,8 @@
       <c r="G61" s="3">
         <v>3302000000</v>
       </c>
-      <c r="H61" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
         <v>492</v>
       </c>
@@ -5494,11 +5345,8 @@
       <c r="G62" s="3">
         <v>3302000000</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
         <v>930</v>
       </c>
@@ -5518,11 +5366,8 @@
       <c r="G63" s="3">
         <v>3399000000</v>
       </c>
-      <c r="H63" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
         <v>924</v>
       </c>
@@ -5542,11 +5387,8 @@
       <c r="G64" s="3">
         <v>3399000000</v>
       </c>
-      <c r="H64" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
         <v>823</v>
       </c>
@@ -5568,11 +5410,8 @@
       <c r="G65" s="3">
         <v>3303011200</v>
       </c>
-      <c r="H65" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="3">
         <v>813</v>
       </c>
@@ -5594,11 +5433,8 @@
       <c r="G66" s="3">
         <v>3303011200</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
         <v>732</v>
       </c>
@@ -5618,11 +5454,8 @@
       <c r="G67" s="3">
         <v>3301080000</v>
       </c>
-      <c r="H67" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="3">
         <v>732</v>
       </c>
@@ -5642,11 +5475,8 @@
       <c r="G68" s="3">
         <v>3301080000</v>
       </c>
-      <c r="H68" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="3">
         <v>722</v>
       </c>
@@ -5666,11 +5496,8 @@
       <c r="G69" s="3">
         <v>3301080000</v>
       </c>
-      <c r="H69" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
         <v>712</v>
       </c>
@@ -5690,11 +5517,8 @@
       <c r="G70" s="3">
         <v>3301210204</v>
       </c>
-      <c r="H70" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="3">
         <v>426</v>
       </c>
@@ -5714,11 +5538,8 @@
       <c r="G71" s="3">
         <v>3301090303</v>
       </c>
-      <c r="H71" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="3">
         <v>590</v>
       </c>
@@ -5738,11 +5559,8 @@
       <c r="G72" s="3">
         <v>3301110000</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="3">
         <v>590</v>
       </c>
@@ -5762,11 +5580,8 @@
       <c r="G73" s="3">
         <v>3301110000</v>
       </c>
-      <c r="H73" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="3">
         <v>590</v>
       </c>
@@ -5786,11 +5601,8 @@
       <c r="G74" s="3">
         <v>3301110000</v>
       </c>
-      <c r="H74" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="3">
         <v>62</v>
       </c>
@@ -5810,11 +5622,8 @@
       <c r="G75" s="3">
         <v>3301110000</v>
       </c>
-      <c r="H75" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="3">
         <v>62</v>
       </c>
@@ -5834,11 +5643,8 @@
       <c r="G76" s="3">
         <v>3301110000</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="3">
         <v>614</v>
       </c>
@@ -5858,11 +5664,8 @@
       <c r="G77" s="3">
         <v>3301210100</v>
       </c>
-      <c r="H77" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="3">
         <v>614</v>
       </c>
@@ -5882,11 +5685,8 @@
       <c r="G78" s="3">
         <v>3301210100</v>
       </c>
-      <c r="H78" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="3">
         <v>614</v>
       </c>
@@ -5906,11 +5706,8 @@
       <c r="G79" s="3">
         <v>3301210100</v>
       </c>
-      <c r="H79" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="3">
         <v>182</v>
       </c>
@@ -5932,11 +5729,8 @@
       <c r="G80" s="3">
         <v>3301150200</v>
       </c>
-      <c r="H80" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="3">
         <v>9</v>
       </c>
@@ -5956,11 +5750,8 @@
       <c r="G81" s="3">
         <v>3399000000</v>
       </c>
-      <c r="H81" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="3">
         <v>852</v>
       </c>
@@ -5980,11 +5771,8 @@
       <c r="G82" s="3">
         <v>3301083000</v>
       </c>
-      <c r="H82" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="3">
         <v>896</v>
       </c>
@@ -6004,11 +5792,8 @@
       <c r="G83" s="3">
         <v>3301083000</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="3">
         <v>852</v>
       </c>
@@ -6030,11 +5815,8 @@
       <c r="G84" s="3">
         <v>3301083000</v>
       </c>
-      <c r="H84" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="3">
         <v>172</v>
       </c>
@@ -6054,11 +5836,8 @@
       <c r="G85" s="3">
         <v>3301010600</v>
       </c>
-      <c r="H85" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="3">
         <v>444</v>
       </c>
@@ -6078,11 +5857,8 @@
       <c r="G86" s="3">
         <v>3301990000</v>
       </c>
-      <c r="H86" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="3">
         <v>444</v>
       </c>
@@ -6104,11 +5880,8 @@
       <c r="G87" s="3">
         <v>3301990000</v>
       </c>
-      <c r="H87" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="3">
         <v>592</v>
       </c>
@@ -6128,11 +5901,8 @@
       <c r="G88" s="3">
         <v>3302000000</v>
       </c>
-      <c r="H88" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="3">
         <v>492</v>
       </c>
@@ -6154,11 +5924,8 @@
       <c r="G89" s="3">
         <v>3302000000</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="3">
         <v>592</v>
       </c>
@@ -6178,11 +5945,8 @@
       <c r="G90" s="3">
         <v>3302000000</v>
       </c>
-      <c r="H90" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="3">
         <v>592</v>
       </c>
@@ -6202,11 +5966,8 @@
       <c r="G91" s="3">
         <v>3302000000</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="3"/>
       <c r="B92" s="3" t="s">
         <v>174</v>
@@ -6222,11 +5983,8 @@
       <c r="G92" s="3">
         <v>3302000000</v>
       </c>
-      <c r="H92" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="3">
         <v>592</v>
       </c>
@@ -6246,11 +6004,8 @@
       <c r="G93" s="3">
         <v>3302000000</v>
       </c>
-      <c r="H93" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="3">
         <v>855</v>
       </c>
@@ -6270,11 +6025,8 @@
       <c r="G94" s="3">
         <v>3301990000</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="3">
         <v>651</v>
       </c>
@@ -6296,11 +6048,8 @@
       <c r="G95" s="3">
         <v>3301061203</v>
       </c>
-      <c r="H95" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="3">
         <v>114</v>
       </c>
@@ -6320,11 +6069,8 @@
       <c r="G96" s="3">
         <v>3301011000</v>
       </c>
-      <c r="H96" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="3">
         <v>9</v>
       </c>
@@ -6344,11 +6090,8 @@
       <c r="G97" s="3">
         <v>3399000000</v>
       </c>
-      <c r="H97" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="3">
         <v>10</v>
       </c>
@@ -6368,11 +6111,8 @@
       <c r="G98" s="3">
         <v>3301080000</v>
       </c>
-      <c r="H98" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="3">
         <v>5</v>
       </c>
@@ -6392,11 +6132,8 @@
       <c r="G99" s="3">
         <v>3306000000</v>
       </c>
-      <c r="H99" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="3">
         <v>801</v>
       </c>
@@ -6416,11 +6153,8 @@
       <c r="G100" s="3">
         <v>3301990000</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="3">
         <v>210</v>
       </c>
@@ -6440,11 +6174,8 @@
       <c r="G101" s="3">
         <v>3301020600</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="3">
         <v>210</v>
       </c>
@@ -6466,11 +6197,8 @@
       <c r="G102" s="3">
         <v>3301020600</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="3">
         <v>210</v>
       </c>
@@ -6490,11 +6218,8 @@
       <c r="G103" s="3">
         <v>3301020600</v>
       </c>
-      <c r="H103" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="3">
         <v>210</v>
       </c>
@@ -6514,11 +6239,8 @@
       <c r="G104" s="3">
         <v>3301020600</v>
       </c>
-      <c r="H104" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="3">
         <v>240</v>
       </c>
@@ -6540,11 +6262,8 @@
       <c r="G105" s="3">
         <v>3301020000</v>
       </c>
-      <c r="H105" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="3">
         <v>240</v>
       </c>
@@ -6564,11 +6283,8 @@
       <c r="G106" s="3">
         <v>3301020000</v>
       </c>
-      <c r="H106" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="3">
         <v>707</v>
       </c>
@@ -6590,11 +6306,8 @@
       <c r="G107" s="3">
         <v>3301130000</v>
       </c>
-      <c r="H107" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" s="3">
         <v>723</v>
       </c>
@@ -6614,11 +6327,8 @@
       <c r="G108" s="3">
         <v>3301130000</v>
       </c>
-      <c r="H108" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" s="3">
         <v>429</v>
       </c>
@@ -6640,11 +6350,8 @@
       <c r="G109" s="3">
         <v>3301020300</v>
       </c>
-      <c r="H109" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" s="3">
         <v>703</v>
       </c>
@@ -6664,11 +6371,8 @@
       <c r="G110" s="2">
         <v>3301082400</v>
       </c>
-      <c r="H110" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" s="3">
         <v>710</v>
       </c>
@@ -6688,11 +6392,8 @@
       <c r="G111" s="2">
         <v>3301061231</v>
       </c>
-      <c r="H111" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" s="3">
         <v>342</v>
       </c>
@@ -6712,11 +6413,8 @@
       <c r="G112" s="3">
         <v>3301060700</v>
       </c>
-      <c r="H112" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" s="3">
         <v>701</v>
       </c>
@@ -6736,11 +6434,8 @@
       <c r="G113" s="3">
         <v>3301061000</v>
       </c>
-      <c r="H113" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" s="3">
         <v>3</v>
       </c>
@@ -6762,11 +6457,8 @@
       <c r="G114" s="3">
         <v>3306000000</v>
       </c>
-      <c r="H114" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" s="3">
         <v>13</v>
       </c>
@@ -6788,11 +6480,8 @@
       <c r="G115" s="3">
         <v>3399000000</v>
       </c>
-      <c r="H115" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" s="3">
         <v>58</v>
       </c>
@@ -6812,11 +6501,8 @@
       <c r="G116" s="3">
         <v>3302000000</v>
       </c>
-      <c r="H116" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" s="3">
         <v>57</v>
       </c>
@@ -6836,11 +6522,8 @@
       <c r="G117" s="3">
         <v>3302000000</v>
       </c>
-      <c r="H117" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" s="3">
         <v>58</v>
       </c>
@@ -6860,11 +6543,8 @@
       <c r="G118" s="3">
         <v>3399000000</v>
       </c>
-      <c r="H118" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" s="3">
         <v>58</v>
       </c>
@@ -6884,11 +6564,8 @@
       <c r="G119" s="3">
         <v>3399000000</v>
       </c>
-      <c r="H119" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" s="3">
         <v>636</v>
       </c>
@@ -6908,11 +6585,8 @@
       <c r="G120" s="3">
         <v>3301310000</v>
       </c>
-      <c r="H120" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" s="3">
         <v>636</v>
       </c>
@@ -6932,11 +6606,8 @@
       <c r="G121" s="3">
         <v>3301310000</v>
       </c>
-      <c r="H121" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" s="3">
         <v>12</v>
       </c>
@@ -6958,11 +6629,8 @@
       <c r="G122" s="3">
         <v>3399000000</v>
       </c>
-      <c r="H122" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" s="3">
         <v>648</v>
       </c>
@@ -6982,11 +6650,8 @@
       <c r="G123" s="3">
         <v>3301170000</v>
       </c>
-      <c r="H123" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" s="3">
         <v>648</v>
       </c>
@@ -7008,11 +6673,8 @@
       <c r="G124" s="3">
         <v>3301170000</v>
       </c>
-      <c r="H124" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" s="3">
         <v>648</v>
       </c>
@@ -7032,11 +6694,8 @@
       <c r="G125" s="3">
         <v>3301170000</v>
       </c>
-      <c r="H125" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" s="3">
         <v>6</v>
       </c>
@@ -7056,11 +6715,8 @@
       <c r="G126" s="3">
         <v>3302000000</v>
       </c>
-      <c r="H126" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" s="3">
         <v>4</v>
       </c>
@@ -7082,11 +6738,8 @@
       <c r="G127" s="3">
         <v>3399000000</v>
       </c>
-      <c r="H127" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" s="3">
         <v>711</v>
       </c>
@@ -7106,11 +6759,8 @@
       <c r="G128" s="3">
         <v>3301020600</v>
       </c>
-      <c r="H128" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" s="3">
         <v>611</v>
       </c>
@@ -7130,11 +6780,8 @@
       <c r="G129" s="3">
         <v>3301030000</v>
       </c>
-      <c r="H129" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" s="3">
         <v>412</v>
       </c>
@@ -7154,11 +6801,8 @@
       <c r="G130" s="3">
         <v>3301030000</v>
       </c>
-      <c r="H130" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" s="3">
         <v>614</v>
       </c>
@@ -7178,11 +6822,8 @@
       <c r="G131" s="3">
         <v>3301030000</v>
       </c>
-      <c r="H131" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" s="3">
         <v>429</v>
       </c>
@@ -7202,11 +6843,8 @@
       <c r="G132" s="3">
         <v>3301990000</v>
       </c>
-      <c r="H132" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" s="3">
         <v>430</v>
       </c>
@@ -7226,11 +6864,8 @@
       <c r="G133" s="3">
         <v>3301990000</v>
       </c>
-      <c r="H133" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" s="3">
         <v>413</v>
       </c>
@@ -7250,11 +6885,8 @@
       <c r="G134" s="3">
         <v>3301290400</v>
       </c>
-      <c r="H134" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" s="3">
         <v>413</v>
       </c>
@@ -7276,11 +6908,8 @@
       <c r="G135" s="3">
         <v>3301290400</v>
       </c>
-      <c r="H135" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" s="3"/>
       <c r="B136" s="3" t="s">
         <v>277</v>
@@ -7296,11 +6925,8 @@
       <c r="G136" s="3">
         <v>3301083900</v>
       </c>
-      <c r="H136" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" s="3"/>
       <c r="B137" s="3" t="s">
         <v>280</v>
@@ -7316,11 +6942,8 @@
       <c r="G137" s="3">
         <v>3301061231</v>
       </c>
-      <c r="H137" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" s="3">
         <v>792</v>
       </c>
@@ -7340,11 +6963,8 @@
       <c r="G138" s="3">
         <v>3301990000</v>
       </c>
-      <c r="H138" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" s="3">
         <v>791</v>
       </c>
@@ -7364,11 +6984,8 @@
       <c r="G139" s="3">
         <v>3301080000</v>
       </c>
-      <c r="H139" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" s="3">
         <v>635</v>
       </c>
@@ -7390,11 +7007,8 @@
       <c r="G140" s="3">
         <v>3301020100</v>
       </c>
-      <c r="H140" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" s="3">
         <v>635</v>
       </c>
@@ -7414,11 +7028,8 @@
       <c r="G141" s="3">
         <v>3301020100</v>
       </c>
-      <c r="H141" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" s="3">
         <v>635</v>
       </c>
@@ -7438,11 +7049,8 @@
       <c r="G142" s="3">
         <v>3301020100</v>
       </c>
-      <c r="H142" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" s="3">
         <v>617</v>
       </c>
@@ -7464,11 +7072,8 @@
       <c r="G143" s="3">
         <v>3301210300</v>
       </c>
-      <c r="H143" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" s="3">
         <v>630</v>
       </c>
@@ -7488,11 +7093,8 @@
       <c r="G144" s="3">
         <v>3301140400</v>
       </c>
-      <c r="H144" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" s="3">
         <v>630</v>
       </c>
@@ -7514,11 +7116,8 @@
       <c r="G145" s="3">
         <v>3301140400</v>
       </c>
-      <c r="H145" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" s="3">
         <v>630</v>
       </c>
@@ -7538,11 +7137,8 @@
       <c r="G146" s="3">
         <v>3301140400</v>
       </c>
-      <c r="H146" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" s="3">
         <v>618</v>
       </c>
@@ -7562,11 +7158,8 @@
       <c r="G147" s="3">
         <v>3301290600</v>
       </c>
-      <c r="H147" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" s="3">
         <v>618</v>
       </c>
@@ -7586,11 +7179,8 @@
       <c r="G148" s="3">
         <v>3301290600</v>
       </c>
-      <c r="H148" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" s="3">
         <v>618</v>
       </c>
@@ -7610,11 +7200,8 @@
       <c r="G149" s="3">
         <v>3301290600</v>
       </c>
-      <c r="H149" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" s="3">
         <v>618</v>
       </c>
@@ -7636,11 +7223,8 @@
       <c r="G150" s="3">
         <v>3301290600</v>
       </c>
-      <c r="H150" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" s="3">
         <v>250</v>
       </c>
@@ -7660,11 +7244,8 @@
       <c r="G151" s="3">
         <v>3301020000</v>
       </c>
-      <c r="H151" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" s="3"/>
       <c r="B152" s="3" t="s">
         <v>316</v>
@@ -7680,11 +7261,8 @@
       <c r="G152" s="3">
         <v>3301020000</v>
       </c>
-      <c r="H152" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" s="3"/>
       <c r="B153" s="3" t="s">
         <v>318</v>
@@ -7700,11 +7278,8 @@
       <c r="G153" s="3">
         <v>3301020000</v>
       </c>
-      <c r="H153" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154" s="3">
         <v>250</v>
       </c>
@@ -7724,11 +7299,8 @@
       <c r="G154" s="3">
         <v>3301020000</v>
       </c>
-      <c r="H154" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" s="3">
         <v>250</v>
       </c>
@@ -7748,11 +7320,8 @@
       <c r="G155" s="3">
         <v>3301020000</v>
       </c>
-      <c r="H155" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" s="3">
         <v>610</v>
       </c>
@@ -7772,11 +7341,8 @@
       <c r="G156" s="3">
         <v>3301070000</v>
       </c>
-      <c r="H156" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157" s="3">
         <v>710</v>
       </c>
@@ -7796,11 +7362,8 @@
       <c r="G157" s="3">
         <v>3301070000</v>
       </c>
-      <c r="H157" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158" s="3">
         <v>731</v>
       </c>
@@ -7815,16 +7378,13 @@
       </c>
       <c r="E158" s="3"/>
       <c r="F158" s="3" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="G158" s="3">
         <v>3304990000</v>
       </c>
-      <c r="H158" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" s="3">
         <v>611</v>
       </c>
@@ -7844,11 +7404,8 @@
       <c r="G159" s="3">
         <v>3301070000</v>
       </c>
-      <c r="H159" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160" s="3">
         <v>626</v>
       </c>
@@ -7868,11 +7425,8 @@
       <c r="G160" s="3">
         <v>3301210200</v>
       </c>
-      <c r="H160" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161" s="3">
         <v>621</v>
       </c>
@@ -7892,11 +7446,8 @@
       <c r="G161" s="3">
         <v>3301070000</v>
       </c>
-      <c r="H161" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" s="3">
         <v>211</v>
       </c>
@@ -7916,11 +7467,8 @@
       <c r="G162" s="3">
         <v>3301020600</v>
       </c>
-      <c r="H162" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163" s="3">
         <v>613</v>
       </c>
@@ -7940,11 +7488,8 @@
       <c r="G163" s="3">
         <v>3301210200</v>
       </c>
-      <c r="H163" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164" s="3">
         <v>613</v>
       </c>
@@ -7964,11 +7509,8 @@
       <c r="G164" s="3">
         <v>3301210200</v>
       </c>
-      <c r="H164" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165" s="3">
         <v>612</v>
       </c>
@@ -7988,11 +7530,8 @@
       <c r="G165" s="2">
         <v>3301290800</v>
       </c>
-      <c r="H165" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166" s="3">
         <v>649</v>
       </c>
@@ -8012,11 +7551,8 @@
       <c r="G166" s="2">
         <v>3301290800</v>
       </c>
-      <c r="H166" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167" s="3">
         <v>610</v>
       </c>
@@ -8036,11 +7572,8 @@
       <c r="G167" s="3">
         <v>3301070000</v>
       </c>
-      <c r="H167" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168" s="3">
         <v>611</v>
       </c>
@@ -8060,11 +7593,8 @@
       <c r="G168" s="3">
         <v>3301070000</v>
       </c>
-      <c r="H168" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169" s="3">
         <v>626</v>
       </c>
@@ -8084,11 +7614,8 @@
       <c r="G169" s="3">
         <v>3301210200</v>
       </c>
-      <c r="H169" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170" s="3">
         <v>621</v>
       </c>
@@ -8108,11 +7635,8 @@
       <c r="G170" s="3">
         <v>3301070000</v>
       </c>
-      <c r="H170" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171" s="3">
         <v>211</v>
       </c>
@@ -8134,11 +7658,8 @@
       <c r="G171" s="3">
         <v>3301020600</v>
       </c>
-      <c r="H171" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172" s="3">
         <v>613</v>
       </c>
@@ -8160,11 +7681,8 @@
       <c r="G172" s="3">
         <v>3301210200</v>
       </c>
-      <c r="H172" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173" s="3">
         <v>613</v>
       </c>
@@ -8184,11 +7702,8 @@
       <c r="G173" s="3">
         <v>3301210200</v>
       </c>
-      <c r="H173" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174" s="3"/>
       <c r="B174" s="3" t="s">
         <v>360</v>
@@ -8204,11 +7719,8 @@
       <c r="G174" s="3">
         <v>3301290800</v>
       </c>
-      <c r="H174" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175" s="3">
         <v>649</v>
       </c>
@@ -8228,11 +7740,8 @@
       <c r="G175" s="3">
         <v>3301290800</v>
       </c>
-      <c r="H175" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176" s="3">
         <v>1</v>
       </c>
@@ -8252,11 +7761,8 @@
       <c r="G176" s="3">
         <v>3399000000</v>
       </c>
-      <c r="H176" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177" s="3">
         <v>190</v>
       </c>
@@ -8276,11 +7782,8 @@
       <c r="G177" s="3">
         <v>3301010000</v>
       </c>
-      <c r="H177" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178" s="3">
         <v>651</v>
       </c>
@@ -8300,11 +7803,8 @@
       <c r="G178" s="3">
         <v>3301061200</v>
       </c>
-      <c r="H178" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179" s="3"/>
       <c r="B179" s="3" t="s">
         <v>371</v>
@@ -8320,11 +7820,8 @@
       <c r="G179" s="3">
         <v>3399000000</v>
       </c>
-      <c r="H179" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180" s="3"/>
       <c r="B180" s="3" t="s">
         <v>373</v>
@@ -8340,11 +7837,8 @@
       <c r="G180" s="3">
         <v>3301020000</v>
       </c>
-      <c r="H180" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181" s="3">
         <v>912</v>
       </c>
@@ -8366,11 +7860,8 @@
       <c r="G181" s="3">
         <v>3302000000</v>
       </c>
-      <c r="H181" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182" s="3">
         <v>941</v>
       </c>
@@ -8390,11 +7881,8 @@
       <c r="G182" s="2">
         <v>3399000000</v>
       </c>
-      <c r="H182" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183" s="3">
         <v>941</v>
       </c>
@@ -8414,11 +7902,8 @@
       <c r="G183" s="2">
         <v>3399000000</v>
       </c>
-      <c r="H183" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184" s="3">
         <v>941</v>
       </c>
@@ -8438,11 +7923,8 @@
       <c r="G184" s="2">
         <v>3399000000</v>
       </c>
-      <c r="H184" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185" s="3">
         <v>923</v>
       </c>
@@ -8462,11 +7944,8 @@
       <c r="G185" s="3">
         <v>3302000000</v>
       </c>
-      <c r="H185" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186" s="3">
         <v>923</v>
       </c>
@@ -8486,11 +7965,8 @@
       <c r="G186" s="2">
         <v>3399000000</v>
       </c>
-      <c r="H186" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187" s="3"/>
       <c r="B187" s="3" t="s">
         <v>387</v>
@@ -8506,11 +7982,8 @@
       <c r="G187" s="3">
         <v>3399000000</v>
       </c>
-      <c r="H187" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188" s="3">
         <v>941</v>
       </c>
@@ -8530,11 +8003,8 @@
       <c r="G188" s="3">
         <v>3399000000</v>
       </c>
-      <c r="H188" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189" s="3">
         <v>941</v>
       </c>
@@ -8554,11 +8024,8 @@
       <c r="G189" s="3">
         <v>3399000000</v>
       </c>
-      <c r="H189" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190" s="3">
         <v>459</v>
       </c>
@@ -8580,11 +8047,8 @@
       <c r="G190" s="3">
         <v>3302000000</v>
       </c>
-      <c r="H190" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191" s="3">
         <v>627</v>
       </c>
@@ -8606,11 +8070,8 @@
       <c r="G191" s="3">
         <v>3301140100</v>
       </c>
-      <c r="H191" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192" s="3">
         <v>140</v>
       </c>
@@ -8630,11 +8091,8 @@
       <c r="G192" s="3">
         <v>3301010500</v>
       </c>
-      <c r="H192" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193" s="3">
         <v>793</v>
       </c>
@@ -8656,11 +8114,8 @@
       <c r="G193" s="3">
         <v>3301061000</v>
       </c>
-      <c r="H193" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194" s="3">
         <v>701</v>
       </c>
@@ -8682,11 +8137,8 @@
       <c r="G194" s="3">
         <v>3301061000</v>
       </c>
-      <c r="H194" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195" s="3">
         <v>113</v>
       </c>
@@ -8706,11 +8158,8 @@
       <c r="G195" s="3">
         <v>3301010200</v>
       </c>
-      <c r="H195" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196" s="3">
         <v>824</v>
       </c>
@@ -8730,11 +8179,8 @@
       <c r="G196" s="3">
         <v>3303030200</v>
       </c>
-      <c r="H196" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197" s="3">
         <v>833</v>
       </c>
@@ -8754,11 +8200,8 @@
       <c r="G197" s="3">
         <v>3303030200</v>
       </c>
-      <c r="H197" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198" s="3">
         <v>833</v>
       </c>
@@ -8780,11 +8223,8 @@
       <c r="G198" s="3">
         <v>3303030200</v>
       </c>
-      <c r="H198" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199" s="3">
         <v>1</v>
       </c>
@@ -8806,11 +8246,8 @@
       <c r="G199" s="3">
         <v>3399000000</v>
       </c>
-      <c r="H199" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200" s="3">
         <v>770</v>
       </c>
@@ -8830,11 +8267,8 @@
       <c r="G200" s="3">
         <v>3301061200</v>
       </c>
-      <c r="H200" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201" s="3">
         <v>181</v>
       </c>
@@ -8854,11 +8288,8 @@
       <c r="G201" s="3">
         <v>3301010900</v>
       </c>
-      <c r="H201" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202" s="3">
         <v>181</v>
       </c>
@@ -8878,11 +8309,8 @@
       <c r="G202" s="3">
         <v>3301010900</v>
       </c>
-      <c r="H202" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A203" s="3">
         <v>991</v>
       </c>
@@ -8902,11 +8330,8 @@
       <c r="G203" s="3">
         <v>3399000000</v>
       </c>
-      <c r="H203" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A204" s="3">
         <v>594</v>
       </c>
@@ -8926,11 +8351,8 @@
       <c r="G204" s="2">
         <v>3301110000</v>
       </c>
-      <c r="H204" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205" s="3">
         <v>595</v>
       </c>
@@ -8950,11 +8372,8 @@
       <c r="G205" s="2">
         <v>3301110000</v>
       </c>
-      <c r="H205" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A206" s="3">
         <v>595</v>
       </c>
@@ -8974,11 +8393,8 @@
       <c r="G206" s="2">
         <v>3301110000</v>
       </c>
-      <c r="H206" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207" s="3">
         <v>594</v>
       </c>
@@ -8998,11 +8414,8 @@
       <c r="G207" s="2">
         <v>3301110000</v>
       </c>
-      <c r="H207" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208" s="3">
         <v>427</v>
       </c>
@@ -9022,11 +8435,8 @@
       <c r="G208" s="3">
         <v>3301090303</v>
       </c>
-      <c r="H208" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209" s="3">
         <v>290</v>
       </c>
@@ -9046,11 +8456,8 @@
       <c r="G209" s="3">
         <v>3301020000</v>
       </c>
-      <c r="H209" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210" s="3">
         <v>454</v>
       </c>
@@ -9072,11 +8479,8 @@
       <c r="G210" s="3">
         <v>3302000000</v>
       </c>
-      <c r="H210" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211" s="3">
         <v>512</v>
       </c>
@@ -9096,11 +8500,8 @@
       <c r="G211" s="3">
         <v>3301060800</v>
       </c>
-      <c r="H211" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212" s="3">
         <v>613</v>
       </c>
@@ -9120,11 +8521,8 @@
       <c r="G212" s="3">
         <v>3301030000</v>
       </c>
-      <c r="H212" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213" s="3">
         <v>613</v>
       </c>
@@ -9144,11 +8542,8 @@
       <c r="G213" s="3">
         <v>3301030000</v>
       </c>
-      <c r="H213" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214" s="3">
         <v>841</v>
       </c>
@@ -9168,11 +8563,8 @@
       <c r="G214" s="2">
         <v>3399000000</v>
       </c>
-      <c r="H214" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215" s="3">
         <v>841</v>
       </c>
@@ -9192,11 +8584,8 @@
       <c r="G215" s="2">
         <v>3399000000</v>
       </c>
-      <c r="H215" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216" s="3"/>
       <c r="B216" s="3" t="s">
         <v>444</v>
@@ -9212,11 +8601,8 @@
       <c r="G216" s="3">
         <v>3303990000</v>
       </c>
-      <c r="H216" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217" s="3">
         <v>677</v>
       </c>
@@ -9238,11 +8624,8 @@
       <c r="G217" s="3">
         <v>3301061213</v>
       </c>
-      <c r="H217" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218" s="3">
         <v>704</v>
       </c>
@@ -9262,11 +8645,8 @@
       <c r="G218" s="3">
         <v>3301011400</v>
       </c>
-      <c r="H218" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219" s="3">
         <v>602</v>
       </c>
@@ -9288,11 +8668,8 @@
       <c r="G219" s="3">
         <v>3301030000</v>
       </c>
-      <c r="H219" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220" s="3">
         <v>5</v>
       </c>
@@ -9314,11 +8691,8 @@
       <c r="G220" s="3">
         <v>3399000000</v>
       </c>
-      <c r="H220" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221" s="3">
         <v>0</v>
       </c>
@@ -9338,11 +8712,8 @@
       <c r="G221" s="3">
         <v>3399000000</v>
       </c>
-      <c r="H221" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A222" s="3">
         <v>815</v>
       </c>
@@ -9362,11 +8733,8 @@
       <c r="G222" s="3">
         <v>3303010000</v>
       </c>
-      <c r="H222" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223" s="3"/>
       <c r="B223" s="3" t="s">
         <v>464</v>
@@ -9382,11 +8750,8 @@
       <c r="G223" s="3">
         <v>3303010000</v>
       </c>
-      <c r="H223" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A224" s="3">
         <v>825</v>
       </c>
@@ -9406,11 +8771,8 @@
       <c r="G224" s="3">
         <v>3303010000</v>
       </c>
-      <c r="H224" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A225" s="3">
         <v>645</v>
       </c>
@@ -9432,11 +8794,8 @@
       <c r="G225" s="3">
         <v>3301020200</v>
       </c>
-      <c r="H225" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226" s="3">
         <v>822</v>
       </c>
@@ -9458,11 +8817,8 @@
       <c r="G226" s="3">
         <v>3303010400</v>
       </c>
-      <c r="H226" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227" s="3">
         <v>831</v>
       </c>
@@ -9484,11 +8840,8 @@
       <c r="G227" s="3">
         <v>3303010400</v>
       </c>
-      <c r="H227" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228" s="3">
         <v>421</v>
       </c>
@@ -9508,11 +8861,8 @@
       <c r="G228" s="3">
         <v>3301090303</v>
       </c>
-      <c r="H228" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A229" s="3">
         <v>421</v>
       </c>
@@ -9532,11 +8882,8 @@
       <c r="G229" s="3">
         <v>3301090303</v>
       </c>
-      <c r="H229" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A230" s="3">
         <v>421</v>
       </c>
@@ -9556,11 +8903,8 @@
       <c r="G230" s="3">
         <v>3301090303</v>
       </c>
-      <c r="H230" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A231" s="3">
         <v>426</v>
       </c>
@@ -9580,11 +8924,8 @@
       <c r="G231" s="3">
         <v>3301090303</v>
       </c>
-      <c r="H231" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A232" s="3">
         <v>421</v>
       </c>
@@ -9604,11 +8945,8 @@
       <c r="G232" s="3">
         <v>3301090303</v>
       </c>
-      <c r="H232" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A233" s="3">
         <v>913</v>
       </c>
@@ -9628,11 +8966,8 @@
       <c r="G233" s="3">
         <v>3301090303</v>
       </c>
-      <c r="H233" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A234" s="3">
         <v>425</v>
       </c>
@@ -9654,11 +8989,8 @@
       <c r="G234" s="3">
         <v>3301090303</v>
       </c>
-      <c r="H234" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A235" s="3">
         <v>421</v>
       </c>
@@ -9680,11 +9012,8 @@
       <c r="G235" s="3">
         <v>3301090303</v>
       </c>
-      <c r="H235" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A236" s="3">
         <v>422</v>
       </c>
@@ -9706,11 +9035,8 @@
       <c r="G236" s="3">
         <v>3301090303</v>
       </c>
-      <c r="H236" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A237" s="3">
         <v>432</v>
       </c>
@@ -9732,11 +9058,8 @@
       <c r="G237" s="3">
         <v>3301090303</v>
       </c>
-      <c r="H237" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A238" s="3">
         <v>171</v>
       </c>
@@ -9756,11 +9079,8 @@
       <c r="G238" s="3">
         <v>3301010600</v>
       </c>
-      <c r="H238" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A239" s="3">
         <v>171</v>
       </c>
@@ -9780,11 +9100,8 @@
       <c r="G239" s="3">
         <v>3301010600</v>
       </c>
-      <c r="H239" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A240" s="3">
         <v>183</v>
       </c>
@@ -9804,11 +9121,8 @@
       <c r="G240" s="3">
         <v>3301010900</v>
       </c>
-      <c r="H240" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A241" s="3">
         <v>414</v>
       </c>
@@ -9828,11 +9142,8 @@
       <c r="G241" s="3">
         <v>3301210500</v>
       </c>
-      <c r="H241" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A242" s="3">
         <v>414</v>
       </c>
@@ -9852,11 +9163,8 @@
       <c r="G242" s="3">
         <v>3301210500</v>
       </c>
-      <c r="H242" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A243" s="3">
         <v>184</v>
       </c>
@@ -9878,11 +9186,8 @@
       <c r="G243" s="3">
         <v>3301010900</v>
       </c>
-      <c r="H243" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A244" s="3">
         <v>845</v>
       </c>
@@ -9902,11 +9207,8 @@
       <c r="G244" s="2">
         <v>3306080000</v>
       </c>
-      <c r="H244" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A245" s="3"/>
       <c r="B245" s="3" t="s">
         <v>514</v>
@@ -9922,11 +9224,8 @@
       <c r="G245" s="3">
         <v>3301061215</v>
       </c>
-      <c r="H245" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A246" s="3"/>
       <c r="B246" s="3" t="s">
         <v>516</v>
@@ -9942,11 +9241,8 @@
       <c r="G246" s="3">
         <v>3301081000</v>
       </c>
-      <c r="H246" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A247" s="3">
         <v>655</v>
       </c>
@@ -9968,11 +9264,8 @@
       <c r="G247" s="3">
         <v>3301061200</v>
       </c>
-      <c r="H247" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A248" s="3">
         <v>655</v>
       </c>
@@ -9992,11 +9285,8 @@
       <c r="G248" s="3">
         <v>3301061200</v>
       </c>
-      <c r="H248" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A249" s="3">
         <v>771</v>
       </c>
@@ -10016,11 +9306,8 @@
       <c r="G249" s="3">
         <v>3301061200</v>
       </c>
-      <c r="H249" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A250" s="3">
         <v>650</v>
       </c>
@@ -10040,11 +9327,8 @@
       <c r="G250" s="3">
         <v>3301061200</v>
       </c>
-      <c r="H250" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A251" s="3">
         <v>654</v>
       </c>
@@ -10064,11 +9348,8 @@
       <c r="G251" s="3">
         <v>3301061200</v>
       </c>
-      <c r="H251" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A252" s="3">
         <v>650</v>
       </c>
@@ -10088,11 +9369,8 @@
       <c r="G252" s="3">
         <v>3301061200</v>
       </c>
-      <c r="H252" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A253" s="3">
         <v>650</v>
       </c>
@@ -10112,11 +9390,8 @@
       <c r="G253" s="3">
         <v>3301061200</v>
       </c>
-      <c r="H253" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A254" s="3">
         <v>654</v>
       </c>
@@ -10138,11 +9413,8 @@
       <c r="G254" s="3">
         <v>3301061211</v>
       </c>
-      <c r="H254" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A255" s="3">
         <v>654</v>
       </c>
@@ -10162,11 +9434,8 @@
       <c r="G255" s="3">
         <v>3301061211</v>
       </c>
-      <c r="H255" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A256" s="3">
         <v>637</v>
       </c>
@@ -10188,11 +9457,8 @@
       <c r="G256" s="3">
         <v>3301310000</v>
       </c>
-      <c r="H256" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A257" s="3">
         <v>637</v>
       </c>
@@ -10212,11 +9478,8 @@
       <c r="G257" s="3">
         <v>3301310000</v>
       </c>
-      <c r="H257" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A258" s="3">
         <v>637</v>
       </c>
@@ -10236,11 +9499,8 @@
       <c r="G258" s="3">
         <v>3301310000</v>
       </c>
-      <c r="H258" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A259" s="3">
         <v>633</v>
       </c>
@@ -10262,11 +9522,8 @@
       <c r="G259" s="3">
         <v>3301220000</v>
       </c>
-      <c r="H259" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A260" s="3"/>
       <c r="B260" s="3" t="s">
         <v>548</v>
@@ -10282,11 +9539,8 @@
       <c r="G260" s="3">
         <v>3301061219</v>
       </c>
-      <c r="H260" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A261" s="3">
         <v>913</v>
       </c>
@@ -10306,11 +9560,8 @@
       <c r="G261" s="3">
         <v>3301020000</v>
       </c>
-      <c r="H261" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A262" s="3">
         <v>341</v>
       </c>
@@ -10330,11 +9581,8 @@
       <c r="G262" s="4">
         <v>3301060701</v>
       </c>
-      <c r="H262" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A263" s="3">
         <v>341</v>
       </c>
@@ -10356,11 +9604,8 @@
       <c r="G263" s="4">
         <v>3301060701</v>
       </c>
-      <c r="H263" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A264" s="3">
         <v>393</v>
       </c>
@@ -10382,11 +9627,8 @@
       <c r="G264" s="3">
         <v>3301061500</v>
       </c>
-      <c r="H264" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A265" s="3">
         <v>292</v>
       </c>
@@ -10408,11 +9650,8 @@
       <c r="G265" s="3">
         <v>3301020500</v>
       </c>
-      <c r="H265" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A266" s="3">
         <v>292</v>
       </c>
@@ -10432,11 +9671,8 @@
       <c r="G266" s="3">
         <v>3301020500</v>
       </c>
-      <c r="H266" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A267" s="3">
         <v>230</v>
       </c>
@@ -10456,11 +9692,8 @@
       <c r="G267" s="3">
         <v>3301020700</v>
       </c>
-      <c r="H267" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A268" s="3">
         <v>230</v>
       </c>
@@ -10480,11 +9713,8 @@
       <c r="G268" s="3">
         <v>3301020700</v>
       </c>
-      <c r="H268" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A269" s="3">
         <v>230</v>
       </c>
@@ -10506,11 +9736,8 @@
       <c r="G269" s="3">
         <v>3301020700</v>
       </c>
-      <c r="H269" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A270" s="3">
         <v>230</v>
       </c>
@@ -10530,11 +9757,8 @@
       <c r="G270" s="3">
         <v>3301020700</v>
       </c>
-      <c r="H270" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A271" s="3">
         <v>423</v>
       </c>
@@ -10554,11 +9778,8 @@
       <c r="G271" s="3">
         <v>3301090301</v>
       </c>
-      <c r="H271" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A272" s="3">
         <v>423</v>
       </c>
@@ -10580,11 +9801,8 @@
       <c r="G272" s="3">
         <v>3301090301</v>
       </c>
-      <c r="H272" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A273" s="3">
         <v>433</v>
       </c>
@@ -10606,11 +9824,8 @@
       <c r="G273" s="3">
         <v>3301090301</v>
       </c>
-      <c r="H273" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A274" s="3">
         <v>452</v>
       </c>
@@ -10630,11 +9845,8 @@
       <c r="G274" s="3">
         <v>3302000000</v>
       </c>
-      <c r="H274" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A275" s="3">
         <v>172</v>
       </c>
@@ -10654,11 +9866,8 @@
       <c r="G275" s="3">
         <v>3301010600</v>
       </c>
-      <c r="H275" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A276" s="3">
         <v>171</v>
       </c>
@@ -10680,11 +9889,8 @@
       <c r="G276" s="3">
         <v>3301010600</v>
       </c>
-      <c r="H276" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A277" s="3">
         <v>172</v>
       </c>
@@ -10704,11 +9910,8 @@
       <c r="G277" s="3">
         <v>3301010600</v>
       </c>
-      <c r="H277" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A278" s="3">
         <v>177</v>
       </c>
@@ -10728,11 +9931,8 @@
       <c r="G278" s="3">
         <v>3301010600</v>
       </c>
-      <c r="H278" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A279" s="3">
         <v>176</v>
       </c>
@@ -10752,11 +9952,8 @@
       <c r="G279" s="3">
         <v>3301010600</v>
       </c>
-      <c r="H279" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A280" s="3">
         <v>177</v>
       </c>
@@ -10776,11 +9973,8 @@
       <c r="G280" s="3">
         <v>3301010600</v>
       </c>
-      <c r="H280" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A281" s="3">
         <v>177</v>
       </c>
@@ -10800,11 +9994,8 @@
       <c r="G281" s="3">
         <v>3301010600</v>
       </c>
-      <c r="H281" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A282" s="3">
         <v>639</v>
       </c>
@@ -10824,11 +10015,8 @@
       <c r="G282" s="3">
         <v>3301290200</v>
       </c>
-      <c r="H282" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A283" s="3">
         <v>639</v>
       </c>
@@ -10845,16 +10033,13 @@
         <v>602</v>
       </c>
       <c r="F283" s="3" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="G283" s="3">
         <v>3301310100</v>
       </c>
-      <c r="H283" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A284" s="3">
         <v>646</v>
       </c>
@@ -10874,11 +10059,8 @@
       <c r="G284" s="3">
         <v>3301210400</v>
       </c>
-      <c r="H284" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A285" s="3">
         <v>646</v>
       </c>
@@ -10900,11 +10082,8 @@
       <c r="G285" s="3">
         <v>3301210400</v>
       </c>
-      <c r="H285" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A286" s="3">
         <v>11</v>
       </c>
@@ -10924,11 +10103,8 @@
       <c r="G286" s="3">
         <v>3303000000</v>
       </c>
-      <c r="H286" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A287" s="3">
         <v>631</v>
       </c>
@@ -10948,11 +10124,8 @@
       <c r="G287" s="3">
         <v>3301140500</v>
       </c>
-      <c r="H287" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A288" s="3">
         <v>631</v>
       </c>
@@ -10974,11 +10147,8 @@
       <c r="G288" s="3">
         <v>3301140500</v>
       </c>
-      <c r="H288" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A289" s="3">
         <v>175</v>
       </c>
@@ -10998,11 +10168,8 @@
       <c r="G289" s="3">
         <v>3301990000</v>
       </c>
-      <c r="H289" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A290" s="3"/>
       <c r="B290" s="3" t="s">
         <v>618</v>
@@ -11018,11 +10185,8 @@
       <c r="G290" s="3">
         <v>3301990000</v>
       </c>
-      <c r="H290" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A291" s="3">
         <v>51</v>
       </c>
@@ -11042,11 +10206,8 @@
       <c r="G291" s="3">
         <v>3301990000</v>
       </c>
-      <c r="H291" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A292" s="3">
         <v>51</v>
       </c>
@@ -11066,11 +10227,8 @@
       <c r="G292" s="3">
         <v>3301990000</v>
       </c>
-      <c r="H292" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A293" s="3">
         <v>50</v>
       </c>
@@ -11090,11 +10248,8 @@
       <c r="G293" s="3">
         <v>3301990000</v>
       </c>
-      <c r="H293" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A294" s="3">
         <v>50</v>
       </c>
@@ -11114,11 +10269,8 @@
       <c r="G294" s="3">
         <v>3301990000</v>
       </c>
-      <c r="H294" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A295" s="3">
         <v>634</v>
       </c>
@@ -11138,11 +10290,8 @@
       <c r="G295" s="3">
         <v>3301290300</v>
       </c>
-      <c r="H295" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A296" s="3">
         <v>706</v>
       </c>
@@ -11164,11 +10313,8 @@
       <c r="G296" s="3">
         <v>3301060600</v>
       </c>
-      <c r="H296" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A297" s="3">
         <v>183</v>
       </c>
@@ -11190,11 +10336,8 @@
       <c r="G297" s="3">
         <v>3301010900</v>
       </c>
-      <c r="H297" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A298" s="3">
         <v>183</v>
       </c>
@@ -11214,11 +10357,8 @@
       <c r="G298" s="3">
         <v>3301010900</v>
       </c>
-      <c r="H298" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A299" s="3">
         <v>452</v>
       </c>
@@ -11240,11 +10380,8 @@
       <c r="G299" s="3">
         <v>3302000000</v>
       </c>
-      <c r="H299" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A300" s="3">
         <v>634</v>
       </c>
@@ -11266,11 +10403,8 @@
       <c r="G300" s="3">
         <v>3301290300</v>
       </c>
-      <c r="H300" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A301" s="3">
         <v>563</v>
       </c>
@@ -11290,11 +10424,8 @@
       <c r="G301" s="3">
         <v>3308000000</v>
       </c>
-      <c r="H301" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A302" s="3">
         <v>564</v>
       </c>
@@ -11314,11 +10445,8 @@
       <c r="G302" s="3">
         <v>3306010000</v>
       </c>
-      <c r="H302" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="303" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A303" s="3"/>
       <c r="B303" s="3" t="s">
         <v>645</v>
@@ -11334,11 +10462,8 @@
       <c r="G303" s="3">
         <v>3301083500</v>
       </c>
-      <c r="H303" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="304" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A304" s="3">
         <v>583</v>
       </c>
@@ -11358,11 +10483,8 @@
       <c r="G304" s="3">
         <v>3399000000</v>
       </c>
-      <c r="H304" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="305" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A305" s="3">
         <v>11</v>
       </c>
@@ -11384,11 +10506,8 @@
       <c r="G305" s="3">
         <v>3399000000</v>
       </c>
-      <c r="H305" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="306" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A306" s="3">
         <v>4</v>
       </c>
@@ -11408,11 +10527,8 @@
       <c r="G306" s="3">
         <v>3399000000</v>
       </c>
-      <c r="H306" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="307" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A307" s="3">
         <v>992</v>
       </c>
@@ -11432,11 +10548,8 @@
       <c r="G307" s="3">
         <v>3399000000</v>
       </c>
-      <c r="H307" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="308" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A308" s="3"/>
       <c r="B308" s="3" t="s">
         <v>656</v>
@@ -11452,11 +10565,8 @@
       <c r="G308" s="3">
         <v>3399000000</v>
       </c>
-      <c r="H308" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="309" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A309" s="3">
         <v>583</v>
       </c>
@@ -11476,11 +10586,8 @@
       <c r="G309" s="3">
         <v>3399000000</v>
       </c>
-      <c r="H309" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="310" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A310" s="3">
         <v>583</v>
       </c>
@@ -11500,11 +10607,8 @@
       <c r="G310" s="3">
         <v>3399000000</v>
       </c>
-      <c r="H310" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="311" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A311" s="3">
         <v>583</v>
       </c>
@@ -11524,11 +10628,8 @@
       <c r="G311" s="3">
         <v>3399000000</v>
       </c>
-      <c r="H311" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="312" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A312" s="3">
         <v>583</v>
       </c>
@@ -11548,11 +10649,8 @@
       <c r="G312" s="3">
         <v>3399000000</v>
       </c>
-      <c r="H312" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="313" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A313" s="3"/>
       <c r="B313" s="3" t="s">
         <v>666</v>
@@ -11568,11 +10666,8 @@
       <c r="G313" s="3">
         <v>3399000000</v>
       </c>
-      <c r="H313" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="314" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A314" s="3"/>
       <c r="B314" s="3" t="s">
         <v>668</v>
@@ -11588,11 +10683,8 @@
       <c r="G314" s="3">
         <v>3399000000</v>
       </c>
-      <c r="H314" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="315" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A315" s="3">
         <v>390</v>
       </c>
@@ -11612,11 +10704,8 @@
       <c r="G315" s="3">
         <v>3301060800</v>
       </c>
-      <c r="H315" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="316" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A316" s="3">
         <v>341</v>
       </c>
@@ -11636,11 +10725,8 @@
       <c r="G316" s="3">
         <v>3301060702</v>
       </c>
-      <c r="H316" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="317" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A317" s="3">
         <v>341</v>
       </c>
@@ -11660,11 +10746,8 @@
       <c r="G317" s="3">
         <v>3301060702</v>
       </c>
-      <c r="H317" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="318" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A318" s="3">
         <v>891</v>
       </c>
@@ -11684,11 +10767,8 @@
       <c r="G318" s="3">
         <v>3306000000</v>
       </c>
-      <c r="H318" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="319" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A319" s="3">
         <v>624</v>
       </c>
@@ -11710,11 +10790,8 @@
       <c r="G319" s="3">
         <v>3301300000</v>
       </c>
-      <c r="H319" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="320" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A320" s="3">
         <v>7</v>
       </c>
@@ -11736,11 +10813,8 @@
       <c r="G320" s="3">
         <v>3399000000</v>
       </c>
-      <c r="H320" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="321" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A321" s="3">
         <v>643</v>
       </c>
@@ -11760,11 +10834,8 @@
       <c r="G321" s="3">
         <v>3301290500</v>
       </c>
-      <c r="H321" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="322" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A322" s="3">
         <v>659</v>
       </c>
@@ -11786,11 +10857,8 @@
       <c r="G322" s="3">
         <v>3301061227</v>
       </c>
-      <c r="H322" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="323" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A323" s="3">
         <v>659</v>
       </c>
@@ -11810,11 +10878,8 @@
       <c r="G323" s="3">
         <v>3301061227</v>
       </c>
-      <c r="H323" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="324" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A324" s="3">
         <v>830</v>
       </c>
@@ -11834,11 +10899,8 @@
       <c r="G324" s="3">
         <v>3303010000</v>
       </c>
-      <c r="H324" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="325" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A325" s="3">
         <v>830</v>
       </c>
@@ -11860,11 +10922,8 @@
       <c r="G325" s="3">
         <v>3303010000</v>
       </c>
-      <c r="H325" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="326" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A326" s="3">
         <v>821</v>
       </c>
@@ -11886,11 +10945,8 @@
       <c r="G326" s="3">
         <v>3303010000</v>
       </c>
-      <c r="H326" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="327" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A327" s="3">
         <v>866</v>
       </c>
@@ -11912,11 +10968,8 @@
       <c r="G327" s="3">
         <v>3301061000</v>
       </c>
-      <c r="H327" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="328" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A328" s="3">
         <v>615</v>
       </c>
@@ -11938,11 +10991,8 @@
       <c r="G328" s="3">
         <v>3301030000</v>
       </c>
-      <c r="H328" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="329" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A329" s="3">
         <v>606</v>
       </c>
@@ -11964,11 +11014,8 @@
       <c r="G329" s="3">
         <v>3301030000</v>
       </c>
-      <c r="H329" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="330" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A330" s="3">
         <v>6</v>
       </c>
@@ -11990,11 +11037,8 @@
       <c r="G330" s="3">
         <v>3301030000</v>
       </c>
-      <c r="H330" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="331" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A331" s="3">
         <v>832</v>
       </c>
@@ -12016,11 +11060,8 @@
       <c r="G331" s="3">
         <v>3303011300</v>
       </c>
-      <c r="H331" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="332" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A332" s="3">
         <v>823</v>
       </c>
@@ -12042,11 +11083,8 @@
       <c r="G332" s="3">
         <v>3303011300</v>
       </c>
-      <c r="H332" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="333" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A333" s="3">
         <v>777</v>
       </c>
@@ -12068,11 +11106,8 @@
       <c r="G333" s="3">
         <v>3301061400</v>
       </c>
-      <c r="H333" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="334" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A334" s="3">
         <v>733</v>
       </c>
@@ -12092,11 +11127,8 @@
       <c r="G334" s="3">
         <v>3304000000</v>
       </c>
-      <c r="H334" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="335" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A335" s="3">
         <v>981</v>
       </c>
@@ -12116,11 +11148,8 @@
       <c r="G335" s="3">
         <v>3304000000</v>
       </c>
-      <c r="H335" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="336" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A336" s="3">
         <v>212</v>
       </c>
@@ -12142,11 +11171,8 @@
       <c r="G336" s="3">
         <v>3301020600</v>
       </c>
-      <c r="H336" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="337" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A337" s="3">
         <v>57</v>
       </c>
@@ -12166,11 +11192,8 @@
       <c r="G337" s="3">
         <v>3302000000</v>
       </c>
-      <c r="H337" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="338" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A338" s="3">
         <v>56</v>
       </c>
@@ -12190,11 +11213,8 @@
       <c r="G338" s="3">
         <v>3302000000</v>
       </c>
-      <c r="H338" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="339" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A339" s="3">
         <v>57</v>
       </c>
@@ -12214,11 +11234,8 @@
       <c r="G339" s="3">
         <v>3302000000</v>
       </c>
-      <c r="H339" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="340" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A340" s="3">
         <v>57</v>
       </c>
@@ -12238,11 +11255,8 @@
       <c r="G340" s="3">
         <v>3302000000</v>
       </c>
-      <c r="H340" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="341" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A341" s="3">
         <v>56</v>
       </c>
@@ -12262,11 +11276,8 @@
       <c r="G341" s="3">
         <v>3302000000</v>
       </c>
-      <c r="H341" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="342" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A342" s="3">
         <v>187</v>
       </c>
@@ -12288,11 +11299,8 @@
       <c r="G342" s="3">
         <v>3301150300</v>
       </c>
-      <c r="H342" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="343" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A343" s="3">
         <v>842</v>
       </c>
@@ -12314,11 +11322,8 @@
       <c r="G343" s="3">
         <v>3303060000</v>
       </c>
-      <c r="H343" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="344" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A344" s="3">
         <v>850</v>
       </c>
@@ -12340,11 +11345,8 @@
       <c r="G344" s="3">
         <v>3303060000</v>
       </c>
-      <c r="H344" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="345" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A345" s="3">
         <v>892</v>
       </c>
@@ -12366,11 +11368,8 @@
       <c r="G345" s="3">
         <v>3301230000</v>
       </c>
-      <c r="H345" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="346" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A346" s="3">
         <v>851</v>
       </c>
@@ -12392,11 +11391,8 @@
       <c r="G346" s="3">
         <v>3301230000</v>
       </c>
-      <c r="H346" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="347" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A347" s="3">
         <v>629</v>
       </c>
@@ -12416,11 +11412,8 @@
       <c r="G347" s="3">
         <v>3301140400</v>
       </c>
-      <c r="H347" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="348" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A348" s="3">
         <v>629</v>
       </c>
@@ -12442,11 +11435,8 @@
       <c r="G348" s="3">
         <v>3301140400</v>
       </c>
-      <c r="H348" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="349" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A349" s="3">
         <v>629</v>
       </c>
@@ -12466,11 +11456,8 @@
       <c r="G349" s="3">
         <v>3301140400</v>
       </c>
-      <c r="H349" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="350" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A350" s="3">
         <v>853</v>
       </c>
@@ -12490,11 +11477,8 @@
       <c r="G350" s="3">
         <v>3301090200</v>
       </c>
-      <c r="H350" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="351" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A351" s="3">
         <v>853</v>
       </c>
@@ -12516,11 +11500,8 @@
       <c r="G351" s="3">
         <v>3301090200</v>
       </c>
-      <c r="H351" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="352" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A352" s="3">
         <v>181</v>
       </c>
@@ -12542,11 +11523,8 @@
       <c r="G352" s="3">
         <v>3301010900</v>
       </c>
-      <c r="H352" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="353" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A353" s="3">
         <v>181</v>
       </c>
@@ -12566,11 +11544,8 @@
       <c r="G353" s="3">
         <v>3301010900</v>
       </c>
-      <c r="H353" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="354" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A354" s="3">
         <v>181</v>
       </c>
@@ -12590,11 +11565,8 @@
       <c r="G354" s="3">
         <v>3301010900</v>
       </c>
-      <c r="H354" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="355" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A355" s="3">
         <v>120</v>
       </c>
@@ -12614,11 +11586,8 @@
       <c r="G355" s="3">
         <v>3301090207</v>
       </c>
-      <c r="H355" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="356" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A356" s="3">
         <v>854</v>
       </c>
@@ -12638,11 +11607,8 @@
       <c r="G356" s="3">
         <v>3301011400</v>
       </c>
-      <c r="H356" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="357" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A357" s="3">
         <v>794</v>
       </c>
@@ -12662,11 +11628,8 @@
       <c r="G357" s="3">
         <v>3301090207</v>
       </c>
-      <c r="H357" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="358" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A358" s="3">
         <v>702</v>
       </c>
@@ -12686,11 +11649,8 @@
       <c r="G358" s="3">
         <v>3301090207</v>
       </c>
-      <c r="H358" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="359" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A359" s="3">
         <v>702</v>
       </c>
@@ -12712,11 +11672,8 @@
       <c r="G359" s="3">
         <v>3301090207</v>
       </c>
-      <c r="H359" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="360" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A360" s="3">
         <v>863</v>
       </c>
@@ -12736,11 +11693,8 @@
       <c r="G360" s="3">
         <v>3301083700</v>
       </c>
-      <c r="H360" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="361" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A361" s="3">
         <v>413</v>
       </c>
@@ -12760,11 +11714,8 @@
       <c r="G361" s="2">
         <v>3301290400</v>
       </c>
-      <c r="H361" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="362" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A362" s="3">
         <v>806</v>
       </c>
@@ -12786,11 +11737,8 @@
       <c r="G362" s="3">
         <v>3301090208</v>
       </c>
-      <c r="H362" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="363" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A363" s="3">
         <v>627</v>
       </c>
@@ -12810,11 +11758,8 @@
       <c r="G363" s="3">
         <v>3301140100</v>
       </c>
-      <c r="H363" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="364" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A364" s="3"/>
       <c r="B364" s="3" t="s">
         <v>770</v>
@@ -12830,11 +11775,8 @@
       <c r="G364" s="3">
         <v>3301190000</v>
       </c>
-      <c r="H364" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="365" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A365" s="3">
         <v>828</v>
       </c>
@@ -12856,11 +11798,8 @@
       <c r="G365" s="3">
         <v>3303020800</v>
       </c>
-      <c r="H365" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="366" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A366" s="3">
         <v>818</v>
       </c>
@@ -12882,11 +11821,8 @@
       <c r="G366" s="3">
         <v>3303020800</v>
       </c>
-      <c r="H366" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="367" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A367" s="3"/>
       <c r="B367" s="3" t="s">
         <v>776</v>
@@ -12902,11 +11838,8 @@
       <c r="G367" s="3">
         <v>3301061239</v>
       </c>
-      <c r="H367" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="368" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A368" s="3">
         <v>641</v>
       </c>
@@ -12928,11 +11861,8 @@
       <c r="G368" s="3">
         <v>3301250000</v>
       </c>
-      <c r="H368" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="369" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A369" s="3">
         <v>641</v>
       </c>
@@ -12952,11 +11882,8 @@
       <c r="G369" s="3">
         <v>3301250000</v>
       </c>
-      <c r="H369" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="370" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A370" s="3">
         <v>641</v>
       </c>
@@ -12976,11 +11903,8 @@
       <c r="G370" s="3">
         <v>3301250000</v>
       </c>
-      <c r="H370" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="371" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A371" s="3">
         <v>616</v>
       </c>
@@ -13000,11 +11924,8 @@
       <c r="G371" s="3">
         <v>3301210100</v>
       </c>
-      <c r="H371" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="372" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A372" s="3">
         <v>430</v>
       </c>
@@ -13026,11 +11947,8 @@
       <c r="G372" s="3">
         <v>3301084200</v>
       </c>
-      <c r="H372" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="373" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A373" s="3">
         <v>411</v>
       </c>
@@ -13050,11 +11968,8 @@
       <c r="G373" s="3">
         <v>3301090400</v>
       </c>
-      <c r="H373" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="374" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A374" s="3">
         <v>411</v>
       </c>
@@ -13076,11 +11991,8 @@
       <c r="G374" s="3">
         <v>3301090400</v>
       </c>
-      <c r="H374" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="375" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A375" s="3">
         <v>802</v>
       </c>
@@ -13102,11 +12014,8 @@
       <c r="G375" s="3">
         <v>3301084400</v>
       </c>
-      <c r="H375" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="376" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A376" s="3">
         <v>330</v>
       </c>
@@ -13128,11 +12037,8 @@
       <c r="G376" s="3">
         <v>3301160000</v>
       </c>
-      <c r="H376" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="377" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A377" s="3">
         <v>330</v>
       </c>
@@ -13152,11 +12058,8 @@
       <c r="G377" s="3">
         <v>3301160000</v>
       </c>
-      <c r="H377" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="378" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A378" s="3">
         <v>120</v>
       </c>
@@ -13178,11 +12081,8 @@
       <c r="G378" s="3">
         <v>3301011002</v>
       </c>
-      <c r="H378" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="379" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A379" s="3">
         <v>119</v>
       </c>
@@ -13204,11 +12104,8 @@
       <c r="G379" s="3">
         <v>3301011202</v>
       </c>
-      <c r="H379" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="380" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A380" s="3"/>
       <c r="B380" s="3" t="s">
         <v>820</v>
@@ -13224,11 +12121,8 @@
       <c r="G380" s="3">
         <v>3301010202</v>
       </c>
-      <c r="H380" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="381" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A381" s="3">
         <v>132</v>
       </c>
@@ -13250,11 +12144,8 @@
       <c r="G381" s="3">
         <v>3301010402</v>
       </c>
-      <c r="H381" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="382" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A382" s="3">
         <v>143</v>
       </c>
@@ -13276,11 +12167,8 @@
       <c r="G382" s="3">
         <v>3301010502</v>
       </c>
-      <c r="H382" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="383" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A383" s="3">
         <v>113</v>
       </c>
@@ -13300,11 +12188,8 @@
       <c r="G383" s="3">
         <v>3301010201</v>
       </c>
-      <c r="H383" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="384" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A384" s="3">
         <v>312</v>
       </c>
@@ -13326,11 +12211,8 @@
       <c r="G384" s="3">
         <v>3301060403</v>
       </c>
-      <c r="H384" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="385" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A385" s="3">
         <v>312</v>
       </c>
@@ -13350,11 +12232,8 @@
       <c r="G385" s="3">
         <v>3301060403</v>
       </c>
-      <c r="H385" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="386" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A386" s="3">
         <v>122</v>
       </c>
@@ -13374,11 +12253,8 @@
       <c r="G386" s="3">
         <v>3301010302</v>
       </c>
-      <c r="H386" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="387" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A387" s="3">
         <v>122</v>
       </c>
@@ -13400,11 +12276,8 @@
       <c r="G387" s="3">
         <v>3301010302</v>
       </c>
-      <c r="H387" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="388" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A388" s="3">
         <v>316</v>
       </c>
@@ -13424,11 +12297,8 @@
       <c r="G388" s="3">
         <v>3301290800</v>
       </c>
-      <c r="H388" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="389" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A389" s="3">
         <v>316</v>
       </c>
@@ -13448,11 +12318,8 @@
       <c r="G389" s="3">
         <v>3301290800</v>
       </c>
-      <c r="H389" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="390" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A390" s="3">
         <v>316</v>
       </c>
@@ -13472,11 +12339,8 @@
       <c r="G390" s="3">
         <v>3301290800</v>
       </c>
-      <c r="H390" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="391" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A391" s="3">
         <v>157</v>
       </c>
@@ -13498,11 +12362,8 @@
       <c r="G391" s="3">
         <v>3301010802</v>
       </c>
-      <c r="H391" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="392" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A392" s="3">
         <v>116</v>
       </c>
@@ -13524,11 +12385,8 @@
       <c r="G392" s="3">
         <v>3301010102</v>
       </c>
-      <c r="H392" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="393" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A393" s="3">
         <v>116</v>
       </c>
@@ -13548,11 +12406,8 @@
       <c r="G393" s="3">
         <v>3301010102</v>
       </c>
-      <c r="H393" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="394" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A394" s="3">
         <v>116</v>
       </c>
@@ -13572,11 +12427,8 @@
       <c r="G394" s="3">
         <v>3301010102</v>
       </c>
-      <c r="H394" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="395" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A395" s="3">
         <v>320</v>
       </c>
@@ -13598,11 +12450,8 @@
       <c r="G395" s="3">
         <v>3301060500</v>
       </c>
-      <c r="H395" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="396" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A396" s="3">
         <v>320</v>
       </c>
@@ -13622,11 +12471,8 @@
       <c r="G396" s="3">
         <v>3301060500</v>
       </c>
-      <c r="H396" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="397" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A397" s="3">
         <v>814</v>
       </c>
@@ -13646,11 +12492,8 @@
       <c r="G397" s="3">
         <v>3303010000</v>
       </c>
-      <c r="H397" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="398" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A398" s="3">
         <v>814</v>
       </c>
@@ -13670,11 +12513,8 @@
       <c r="G398" s="3">
         <v>3303010000</v>
       </c>
-      <c r="H398" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="399" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A399" s="3">
         <v>828</v>
       </c>
@@ -13694,11 +12534,8 @@
       <c r="G399" s="3">
         <v>3303010000</v>
       </c>
-      <c r="H399" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="400" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="400" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A400" s="3">
         <v>890</v>
       </c>
@@ -13720,11 +12557,8 @@
       <c r="G400" s="3">
         <v>3303990000</v>
       </c>
-      <c r="H400" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="401" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="401" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A401" s="3">
         <v>850</v>
       </c>
@@ -13746,11 +12580,8 @@
       <c r="G401" s="3">
         <v>3303990000</v>
       </c>
-      <c r="H401" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="402" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A402" s="3">
         <v>982</v>
       </c>
@@ -13772,11 +12603,8 @@
       <c r="G402" s="3">
         <v>3303990000</v>
       </c>
-      <c r="H402" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="403" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A403" s="3">
         <v>619</v>
       </c>
@@ -13796,11 +12624,8 @@
       <c r="G403" s="3">
         <v>3301030000</v>
       </c>
-      <c r="H403" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="404" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="404" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A404" s="3">
         <v>819</v>
       </c>
@@ -13820,11 +12645,8 @@
       <c r="G404" s="3">
         <v>3303010000</v>
       </c>
-      <c r="H404" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="405" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="405" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A405" s="3">
         <v>612</v>
       </c>
@@ -13844,11 +12666,8 @@
       <c r="G405" s="3">
         <v>3301030000</v>
       </c>
-      <c r="H405" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="406" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="406" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A406" s="3">
         <v>183</v>
       </c>
@@ -13868,11 +12687,8 @@
       <c r="G406" s="3">
         <v>3301010900</v>
       </c>
-      <c r="H406" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="407" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="407" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A407" s="3">
         <v>624</v>
       </c>
@@ -13892,11 +12708,8 @@
       <c r="G407" s="3">
         <v>3301300000</v>
       </c>
-      <c r="H407" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="408" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="408" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A408" s="3">
         <v>715</v>
       </c>
@@ -13918,11 +12731,8 @@
       <c r="G408" s="3">
         <v>3301200000</v>
       </c>
-      <c r="H408" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="409" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="409" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A409" s="3">
         <v>860</v>
       </c>
@@ -13944,11 +12754,8 @@
       <c r="G409" s="3">
         <v>3301200000</v>
       </c>
-      <c r="H409" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="410" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="410" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A410" s="3">
         <v>8</v>
       </c>
@@ -13970,11 +12777,8 @@
       <c r="G410" s="3">
         <v>3305000000</v>
       </c>
-      <c r="H410" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="411" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="411" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A411" s="3">
         <v>8</v>
       </c>
@@ -13996,11 +12800,8 @@
       <c r="G411" s="3">
         <v>3305000000</v>
       </c>
-      <c r="H411" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="412" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="412" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A412" s="3">
         <v>602</v>
       </c>
@@ -14020,11 +12821,8 @@
       <c r="G412" s="3">
         <v>3301030000</v>
       </c>
-      <c r="H412" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="413" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="413" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A413" s="3">
         <v>638</v>
       </c>
@@ -14044,11 +12842,8 @@
       <c r="G413" s="3">
         <v>3301310800</v>
       </c>
-      <c r="H413" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="414" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="414" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A414" s="3">
         <v>601</v>
       </c>
@@ -14068,11 +12863,8 @@
       <c r="G414" s="3">
         <v>3301030000</v>
       </c>
-      <c r="H414" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="415" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="415" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A415" s="3">
         <v>641</v>
       </c>
@@ -14092,11 +12884,8 @@
       <c r="G415" s="3">
         <v>3301030000</v>
       </c>
-      <c r="H415" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="416" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="416" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A416" s="3">
         <v>640</v>
       </c>
@@ -14116,11 +12905,8 @@
       <c r="G416" s="3">
         <v>3301030000</v>
       </c>
-      <c r="H416" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="417" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="417" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A417" s="3">
         <v>616</v>
       </c>
@@ -14140,11 +12926,8 @@
       <c r="G417" s="3">
         <v>3301030000</v>
       </c>
-      <c r="H417" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="418" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="418" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A418" s="3">
         <v>642</v>
       </c>
@@ -14164,11 +12947,8 @@
       <c r="G418" s="3">
         <v>3301030000</v>
       </c>
-      <c r="H418" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="419" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="419" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A419" s="3">
         <v>641</v>
       </c>
@@ -14188,11 +12968,8 @@
       <c r="G419" s="3">
         <v>3301030000</v>
       </c>
-      <c r="H419" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="420" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="420" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A420" s="3">
         <v>620</v>
       </c>
@@ -14212,11 +12989,8 @@
       <c r="G420" s="3">
         <v>3301210500</v>
       </c>
-      <c r="H420" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="421" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="421" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A421" s="3">
         <v>620</v>
       </c>
@@ -14236,11 +13010,8 @@
       <c r="G421" s="3">
         <v>3301210500</v>
       </c>
-      <c r="H421" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="422" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="422" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A422" s="3">
         <v>620</v>
       </c>
@@ -14262,11 +13033,8 @@
       <c r="G422" s="3">
         <v>3301210500</v>
       </c>
-      <c r="H422" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="423" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="423" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A423" s="3">
         <v>431</v>
       </c>
@@ -14288,11 +13056,8 @@
       <c r="G423" s="3">
         <v>3301090303</v>
       </c>
-      <c r="H423" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="424" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="424" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A424" s="3">
         <v>816</v>
       </c>
@@ -14314,11 +13079,8 @@
       <c r="G424" s="3">
         <v>3303010000</v>
       </c>
-      <c r="H424" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="425" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="425" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A425" s="3">
         <v>826</v>
       </c>
@@ -14340,11 +13102,8 @@
       <c r="G425" s="3">
         <v>3303010000</v>
       </c>
-      <c r="H425" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="426" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="426" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A426" s="3">
         <v>516</v>
       </c>
@@ -14364,11 +13123,8 @@
       <c r="G426" s="3">
         <v>3308000000</v>
       </c>
-      <c r="H426" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="427" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="427" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A427" s="3">
         <v>517</v>
       </c>
@@ -14388,11 +13144,8 @@
       <c r="G427" s="3">
         <v>3308000000</v>
       </c>
-      <c r="H427" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="428" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="428" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A428" s="3">
         <v>545</v>
       </c>
@@ -14412,11 +13165,8 @@
       <c r="G428" s="3">
         <v>3308000000</v>
       </c>
-      <c r="H428" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="429" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="429" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A429" s="3">
         <v>545</v>
       </c>
@@ -14438,11 +13188,8 @@
       <c r="G429" s="3">
         <v>3308000000</v>
       </c>
-      <c r="H429" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="430" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="430" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A430" s="3">
         <v>511</v>
       </c>
@@ -14462,11 +13209,8 @@
       <c r="G430" s="3">
         <v>3308000000</v>
       </c>
-      <c r="H430" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="431" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="431" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A431" s="3">
         <v>54</v>
       </c>
@@ -14486,11 +13230,8 @@
       <c r="G431" s="3">
         <v>3399000000</v>
       </c>
-      <c r="H431" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="432" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="432" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A432" s="3">
         <v>54</v>
       </c>
@@ -14510,11 +13251,8 @@
       <c r="G432" s="3">
         <v>3399000000</v>
       </c>
-      <c r="H432" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="433" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="433" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A433" s="3">
         <v>54</v>
       </c>
@@ -14534,11 +13272,8 @@
       <c r="G433" s="3">
         <v>3399000000</v>
       </c>
-      <c r="H433" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="434" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="434" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A434" s="3">
         <v>812</v>
       </c>
@@ -14560,11 +13295,8 @@
       <c r="G434" s="3">
         <v>3303010000</v>
       </c>
-      <c r="H434" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="435" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="435" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A435" s="3">
         <v>822</v>
       </c>
@@ -14586,11 +13318,8 @@
       <c r="G435" s="3">
         <v>3303010000</v>
       </c>
-      <c r="H435" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="436" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="436" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A436" s="3">
         <v>480</v>
       </c>
@@ -14610,11 +13339,8 @@
       <c r="G436" s="3">
         <v>3303010000</v>
       </c>
-      <c r="H436" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="437" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="437" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A437" s="3">
         <v>480</v>
       </c>
@@ -14636,11 +13362,8 @@
       <c r="G437" s="3">
         <v>3303010000</v>
       </c>
-      <c r="H437" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="438" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="438" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A438" s="3">
         <v>458</v>
       </c>
@@ -14662,11 +13385,8 @@
       <c r="G438" s="3">
         <v>3302000000</v>
       </c>
-      <c r="H438" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="439" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="439" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A439" s="3">
         <v>601</v>
       </c>
@@ -14688,11 +13408,8 @@
       <c r="G439" s="3">
         <v>3301030000</v>
       </c>
-      <c r="H439" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="440" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="440" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A440" s="3">
         <v>980</v>
       </c>
@@ -14714,11 +13431,8 @@
       <c r="G440" s="3">
         <v>3301090200</v>
       </c>
-      <c r="H440" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="441" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="441" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A441" s="3">
         <v>803</v>
       </c>
@@ -14740,11 +13454,8 @@
       <c r="G441" s="3">
         <v>3301090200</v>
       </c>
-      <c r="H441" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="442" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="442" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A442" s="3">
         <v>980</v>
       </c>
@@ -14764,11 +13475,8 @@
       <c r="G442" s="3">
         <v>3301090200</v>
       </c>
-      <c r="H442" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="443" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="443" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A443" s="3">
         <v>605</v>
       </c>
@@ -14788,11 +13496,8 @@
       <c r="G443" s="3">
         <v>3301040000</v>
       </c>
-      <c r="H443" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="444" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="444" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A444" s="3">
         <v>230</v>
       </c>
@@ -14812,11 +13517,8 @@
       <c r="G444" s="3">
         <v>3301020700</v>
       </c>
-      <c r="H444" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="445" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="445" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A445" s="3">
         <v>605</v>
       </c>
@@ -14838,11 +13540,8 @@
       <c r="G445" s="3">
         <v>3301040000</v>
       </c>
-      <c r="H445" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="446" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="446" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A446" s="3">
         <v>605</v>
       </c>
@@ -14862,11 +13561,8 @@
       <c r="G446" s="3">
         <v>3301040000</v>
       </c>
-      <c r="H446" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="447" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="447" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A447" s="3">
         <v>760</v>
       </c>
@@ -14886,11 +13582,8 @@
       <c r="G447" s="3">
         <v>3301060100</v>
       </c>
-      <c r="H447" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="448" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="448" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A448" s="3"/>
       <c r="B448" s="3" t="s">
         <v>968</v>
@@ -14906,11 +13599,8 @@
       <c r="G448" s="3">
         <v>3301084700</v>
       </c>
-      <c r="H448" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="449" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="449" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A449" s="3"/>
       <c r="B449" s="3" t="s">
         <v>971</v>
@@ -14926,11 +13616,8 @@
       <c r="G449" s="3">
         <v>3301061237</v>
       </c>
-      <c r="H449" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="450" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="450" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A450" s="3">
         <v>622</v>
       </c>
@@ -14952,11 +13639,8 @@
       <c r="G450" s="3">
         <v>3301280000</v>
       </c>
-      <c r="H450" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="451" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="451" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A451" s="3">
         <v>713</v>
       </c>
@@ -14976,11 +13660,8 @@
       <c r="G451" s="3">
         <v>3301280000</v>
       </c>
-      <c r="H451" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="452" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="452" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A452" s="3">
         <v>630</v>
       </c>
@@ -15002,11 +13683,8 @@
       <c r="G452" s="3">
         <v>3301180000</v>
       </c>
-      <c r="H452" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="453" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="453" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A453" s="3">
         <v>604</v>
       </c>
@@ -15028,11 +13706,8 @@
       <c r="G453" s="3">
         <v>3301180000</v>
       </c>
-      <c r="H453" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="454" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="454" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A454" s="3">
         <v>155</v>
       </c>
@@ -15052,11 +13727,8 @@
       <c r="G454" s="3">
         <v>3301010800</v>
       </c>
-      <c r="H454" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="455" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="455" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A455" s="3">
         <v>55</v>
       </c>
@@ -15076,11 +13748,8 @@
       <c r="G455" s="3">
         <v>3399000000</v>
       </c>
-      <c r="H455" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="456" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="456" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A456" s="3">
         <v>55</v>
       </c>
@@ -15100,11 +13769,8 @@
       <c r="G456" s="3">
         <v>3399000000</v>
       </c>
-      <c r="H456" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="457" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="457" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A457" s="3">
         <v>55</v>
       </c>
@@ -15124,11 +13790,8 @@
       <c r="G457" s="3">
         <v>3399000000</v>
       </c>
-      <c r="H457" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="458" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="458" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A458" s="3">
         <v>996</v>
       </c>
@@ -15150,11 +13813,8 @@
       <c r="G458" s="3">
         <v>3399000000</v>
       </c>
-      <c r="H458" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="459" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="459" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A459" s="3">
         <v>994</v>
       </c>
@@ -15176,11 +13836,8 @@
       <c r="G459" s="3">
         <v>3302000000</v>
       </c>
-      <c r="H459" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="460" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="460" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A460" s="3">
         <v>996</v>
       </c>
@@ -15200,11 +13857,8 @@
       <c r="G460" s="3">
         <v>3399000000</v>
       </c>
-      <c r="H460" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="461" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="461" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A461" s="3">
         <v>994</v>
       </c>
@@ -15224,11 +13878,8 @@
       <c r="G461" s="3">
         <v>3302000000</v>
       </c>
-      <c r="H461" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="462" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="462" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A462" s="3">
         <v>994</v>
       </c>
@@ -15248,11 +13899,8 @@
       <c r="G462" s="3">
         <v>3302000000</v>
       </c>
-      <c r="H462" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="463" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="463" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A463" s="3">
         <v>996</v>
       </c>
@@ -15272,11 +13920,8 @@
       <c r="G463" s="3">
         <v>3399000000</v>
       </c>
-      <c r="H463" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="464" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="464" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A464" s="3">
         <v>994</v>
       </c>
@@ -15296,11 +13941,8 @@
       <c r="G464" s="3">
         <v>3302000000</v>
       </c>
-      <c r="H464" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="465" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="465" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A465" s="3">
         <v>966</v>
       </c>
@@ -15320,11 +13962,8 @@
       <c r="G465" s="3">
         <v>3308000000</v>
       </c>
-      <c r="H465" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="466" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="466" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A466" s="3">
         <v>966</v>
       </c>
@@ -15346,11 +13985,8 @@
       <c r="G466" s="3">
         <v>3308000000</v>
       </c>
-      <c r="H466" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="467" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="467" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A467" s="3">
         <v>914</v>
       </c>
@@ -15370,11 +14006,8 @@
       <c r="G467" s="3">
         <v>3301990000</v>
       </c>
-      <c r="H467" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="468" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="468" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A468" s="3">
         <v>914</v>
       </c>
@@ -15396,11 +14029,8 @@
       <c r="G468" s="3">
         <v>3301990000</v>
       </c>
-      <c r="H468" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="469" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="469" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A469" s="3">
         <v>804</v>
       </c>
@@ -15422,11 +14052,8 @@
       <c r="G469" s="3">
         <v>3304030000</v>
       </c>
-      <c r="H469" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="470" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="470" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A470" s="3">
         <v>705</v>
       </c>
@@ -15448,11 +14075,8 @@
       <c r="G470" s="3">
         <v>3301060100</v>
       </c>
-      <c r="H470" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="471" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="471" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A471" s="3">
         <v>825</v>
       </c>
@@ -15472,11 +14096,8 @@
       <c r="G471" s="3">
         <v>3303030600</v>
       </c>
-      <c r="H471" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="472" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="472" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A472" s="3">
         <v>834</v>
       </c>
@@ -15496,11 +14117,8 @@
       <c r="G472" s="3">
         <v>3303030600</v>
       </c>
-      <c r="H472" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="473" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="473" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A473" s="3">
         <v>834</v>
       </c>
@@ -15522,11 +14140,8 @@
       <c r="G473" s="3">
         <v>3303030600</v>
       </c>
-      <c r="H473" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="474" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="474" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A474" s="3">
         <v>453</v>
       </c>
@@ -15546,11 +14161,8 @@
       <c r="G474" s="3">
         <v>3302000000</v>
       </c>
-      <c r="H474" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="475" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="475" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A475" s="3">
         <v>453</v>
       </c>
@@ -15572,11 +14184,8 @@
       <c r="G475" s="3">
         <v>3302000000</v>
       </c>
-      <c r="H475" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="476" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="476" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A476" s="3">
         <v>846</v>
       </c>
@@ -15596,11 +14205,8 @@
       <c r="G476" s="3">
         <v>3306000000</v>
       </c>
-      <c r="H476" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="477" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="477" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A477" s="3">
         <v>983</v>
       </c>
@@ -15620,11 +14226,8 @@
       <c r="G477" s="3">
         <v>3306000000</v>
       </c>
-      <c r="H477" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="478" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="478" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A478" s="3">
         <v>983</v>
       </c>
@@ -15646,11 +14249,8 @@
       <c r="G478" s="3">
         <v>3306000000</v>
       </c>
-      <c r="H478" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="479" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="479" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A479" s="3">
         <v>619</v>
       </c>
@@ -15670,11 +14270,8 @@
       <c r="G479" s="3">
         <v>3301210100</v>
       </c>
-      <c r="H479" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="480" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="480" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A480" s="3">
         <v>619</v>
       </c>
@@ -15694,11 +14291,8 @@
       <c r="G480" s="3">
         <v>3301210100</v>
       </c>
-      <c r="H480" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="481" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="481" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A481" s="3">
         <v>619</v>
       </c>
@@ -15720,11 +14314,8 @@
       <c r="G481" s="3">
         <v>3301210100</v>
       </c>
-      <c r="H481" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="482" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="482" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A482" s="3">
         <v>673</v>
       </c>
@@ -15744,11 +14335,8 @@
       <c r="G482" s="3">
         <v>3301061236</v>
       </c>
-      <c r="H482" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="483" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="483" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A483" s="3">
         <v>673</v>
       </c>
@@ -15768,11 +14356,8 @@
       <c r="G483" s="3">
         <v>3301061236</v>
       </c>
-      <c r="H483" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="484" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="484" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A484" s="3">
         <v>221</v>
       </c>
@@ -15794,11 +14379,8 @@
       <c r="G484" s="3">
         <v>3301090305</v>
       </c>
-      <c r="H484" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="485" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="485" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A485" s="3">
         <v>221</v>
       </c>
@@ -15818,11 +14400,8 @@
       <c r="G485" s="3">
         <v>3301090305</v>
       </c>
-      <c r="H485" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="486" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="486" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A486" s="3">
         <v>291</v>
       </c>
@@ -15842,11 +14421,8 @@
       <c r="G486" s="3">
         <v>3301090305</v>
       </c>
-      <c r="H486" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="487" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="487" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A487" s="3">
         <v>451</v>
       </c>
@@ -15868,11 +14444,8 @@
       <c r="G487" s="3">
         <v>3302000000</v>
       </c>
-      <c r="H487" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="488" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="488" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A488" s="3">
         <v>441</v>
       </c>
@@ -15892,11 +14465,8 @@
       <c r="G488" s="3">
         <v>3302000000</v>
       </c>
-      <c r="H488" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="489" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="489" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A489" s="3">
         <v>441</v>
       </c>
@@ -15916,11 +14486,8 @@
       <c r="G489" s="3">
         <v>3302000000</v>
       </c>
-      <c r="H489" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="490" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="490" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A490" s="3">
         <v>441</v>
       </c>
@@ -15942,11 +14509,8 @@
       <c r="G490" s="3">
         <v>3302000000</v>
       </c>
-      <c r="H490" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="491" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="491" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A491" s="3">
         <v>114</v>
       </c>
@@ -15968,11 +14532,8 @@
       <c r="G491" s="3">
         <v>3301011001</v>
       </c>
-      <c r="H491" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="492" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="492" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A492" s="3">
         <v>118</v>
       </c>
@@ -15992,11 +14553,8 @@
       <c r="G492" s="3">
         <v>3301011201</v>
       </c>
-      <c r="H492" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="493" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="493" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A493" s="3">
         <v>118</v>
       </c>
@@ -16018,11 +14576,8 @@
       <c r="G493" s="3">
         <v>3301011201</v>
       </c>
-      <c r="H493" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="494" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="494" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A494" s="3"/>
       <c r="B494" s="3" t="s">
         <v>1065</v>
@@ -16038,11 +14593,8 @@
       <c r="G494" s="3">
         <v>3301010201</v>
       </c>
-      <c r="H494" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="495" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="495" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A495" s="3">
         <v>131</v>
       </c>
@@ -16064,11 +14616,8 @@
       <c r="G495" s="3">
         <v>3301010401</v>
       </c>
-      <c r="H495" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="496" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="496" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A496" s="3">
         <v>142</v>
       </c>
@@ -16090,11 +14639,8 @@
       <c r="G496" s="3">
         <v>3301010501</v>
       </c>
-      <c r="H496" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="497" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="497" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A497" s="3">
         <v>112</v>
       </c>
@@ -16114,11 +14660,8 @@
       <c r="G497" s="3">
         <v>3301010201</v>
       </c>
-      <c r="H497" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="498" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="498" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A498" s="3">
         <v>311</v>
       </c>
@@ -16140,11 +14683,8 @@
       <c r="G498" s="3">
         <v>3301060401</v>
       </c>
-      <c r="H498" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="499" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="499" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A499" s="3">
         <v>311</v>
       </c>
@@ -16164,11 +14704,8 @@
       <c r="G499" s="3">
         <v>3301060401</v>
       </c>
-      <c r="H499" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="500" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="500" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A500" s="3">
         <v>121</v>
       </c>
@@ -16188,11 +14725,8 @@
       <c r="G500" s="3">
         <v>3301010301</v>
       </c>
-      <c r="H500" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="501" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="501" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A501" s="3">
         <v>121</v>
       </c>
@@ -16214,11 +14748,8 @@
       <c r="G501" s="3">
         <v>3301010301</v>
       </c>
-      <c r="H501" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="502" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="502" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A502" s="3">
         <v>315</v>
       </c>
@@ -16238,11 +14769,8 @@
       <c r="G502" s="3">
         <v>3301060401</v>
       </c>
-      <c r="H502" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="503" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="503" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A503" s="3">
         <v>315</v>
       </c>
@@ -16262,11 +14790,8 @@
       <c r="G503" s="3">
         <v>3301060401</v>
       </c>
-      <c r="H503" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="504" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="504" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A504" s="3">
         <v>315</v>
       </c>
@@ -16288,11 +14813,8 @@
       <c r="G504" s="3">
         <v>3301060401</v>
       </c>
-      <c r="H504" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="505" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="505" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A505" s="3">
         <v>156</v>
       </c>
@@ -16314,11 +14836,8 @@
       <c r="G505" s="3">
         <v>3301010801</v>
       </c>
-      <c r="H505" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="506" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="506" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A506" s="3">
         <v>115</v>
       </c>
@@ -16340,11 +14859,8 @@
       <c r="G506" s="3">
         <v>3301010101</v>
       </c>
-      <c r="H506" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="507" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="507" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A507" s="3">
         <v>115</v>
       </c>
@@ -16364,11 +14880,8 @@
       <c r="G507" s="3">
         <v>3301010101</v>
       </c>
-      <c r="H507" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="508" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="508" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A508" s="3">
         <v>115</v>
       </c>
@@ -16388,11 +14901,8 @@
       <c r="G508" s="3">
         <v>3301010101</v>
       </c>
-      <c r="H508" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="509" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="509" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A509" s="3">
         <v>644</v>
       </c>
@@ -16412,11 +14922,8 @@
       <c r="G509" s="3">
         <v>3301310200</v>
       </c>
-      <c r="H509" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="510" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="510" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A510" s="3">
         <v>644</v>
       </c>
@@ -16436,11 +14943,8 @@
       <c r="G510" s="3">
         <v>3301310200</v>
       </c>
-      <c r="H510" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="511" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="511" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A511" s="3">
         <v>644</v>
       </c>
@@ -16462,11 +14966,8 @@
       <c r="G511" s="3">
         <v>3301310200</v>
       </c>
-      <c r="H511" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="512" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="512" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A512" s="3">
         <v>720</v>
       </c>
@@ -16486,11 +14987,8 @@
       <c r="G512" s="3">
         <v>3301080000</v>
       </c>
-      <c r="H512" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="513" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="513" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A513" s="3">
         <v>174</v>
       </c>
@@ -16510,11 +15008,8 @@
       <c r="G513" s="3">
         <v>3301010600</v>
       </c>
-      <c r="H513" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="514" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="514" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A514" s="3">
         <v>620</v>
       </c>
@@ -16534,11 +15029,8 @@
       <c r="G514" s="3">
         <v>3301290700</v>
       </c>
-      <c r="H514" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="515" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="515" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A515" s="3">
         <v>603</v>
       </c>
@@ -16558,11 +15050,8 @@
       <c r="G515" s="3">
         <v>3301290700</v>
       </c>
-      <c r="H515" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="516" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="516" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A516" s="3">
         <v>603</v>
       </c>
@@ -16584,11 +15073,8 @@
       <c r="G516" s="3">
         <v>3301290700</v>
       </c>
-      <c r="H516" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="517" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="517" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A517" s="3">
         <v>940</v>
       </c>
@@ -16608,11 +15094,8 @@
       <c r="G517" s="3">
         <v>3399000000</v>
       </c>
-      <c r="H517" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="518" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="518" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A518" s="3">
         <v>459</v>
       </c>
@@ -16632,11 +15115,8 @@
       <c r="G518" s="3">
         <v>3302000000</v>
       </c>
-      <c r="H518" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="519" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="519" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A519" s="3">
         <v>459</v>
       </c>
@@ -16656,11 +15136,8 @@
       <c r="G519" s="3">
         <v>3302000000</v>
       </c>
-      <c r="H519" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="520" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="520" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A520" s="3">
         <v>790</v>
       </c>
@@ -16680,11 +15157,8 @@
       <c r="G520" s="3">
         <v>3399000000</v>
       </c>
-      <c r="H520" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="521" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="521" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A521" s="3"/>
       <c r="B521" s="3" t="s">
         <v>1135</v>
@@ -16700,11 +15174,8 @@
       <c r="G521" s="3">
         <v>3301070000</v>
       </c>
-      <c r="H521" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="522" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="522" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A522" s="3"/>
       <c r="B522" s="3" t="s">
         <v>1138</v>
@@ -16720,11 +15191,8 @@
       <c r="G522" s="3">
         <v>3301061200</v>
       </c>
-      <c r="H522" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="523" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="523" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A523" s="3">
         <v>564</v>
       </c>
@@ -16744,11 +15212,8 @@
       <c r="G523" s="3">
         <v>3306010000</v>
       </c>
-      <c r="H523" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="524" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="524" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A524" s="3">
         <v>564</v>
       </c>
@@ -16768,11 +15233,8 @@
       <c r="G524" s="3">
         <v>3306010000</v>
       </c>
-      <c r="H524" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="525" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="525" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A525" s="3">
         <v>564</v>
       </c>
@@ -16794,11 +15256,8 @@
       <c r="G525" s="3">
         <v>3306010000</v>
       </c>
-      <c r="H525" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="526" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="526" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A526" s="3">
         <v>0</v>
       </c>
@@ -16818,11 +15277,8 @@
       <c r="G526" s="3">
         <v>3399000000</v>
       </c>
-      <c r="H526" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="527" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="527" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A527" s="3">
         <v>145</v>
       </c>
@@ -16842,11 +15298,8 @@
       <c r="G527" s="3">
         <v>3399000000</v>
       </c>
-      <c r="H527" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="528" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="528" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A528" s="3">
         <v>829</v>
       </c>
@@ -16866,11 +15319,8 @@
       <c r="G528" s="3">
         <v>3399000000</v>
       </c>
-      <c r="H528" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="529" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="529" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A529" s="3">
         <v>824</v>
       </c>
@@ -16892,11 +15342,8 @@
       <c r="G529" s="3">
         <v>3303010000</v>
       </c>
-      <c r="H529" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="530" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="530" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A530" s="3">
         <v>824</v>
       </c>
@@ -16916,11 +15363,8 @@
       <c r="G530" s="3">
         <v>3303010000</v>
       </c>
-      <c r="H530" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="531" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="531" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A531" s="3">
         <v>824</v>
       </c>
@@ -16940,11 +15384,8 @@
       <c r="G531" s="3">
         <v>3303010000</v>
       </c>
-      <c r="H531" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="532" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="532" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A532" s="3">
         <v>837</v>
       </c>
@@ -16964,11 +15405,8 @@
       <c r="G532" s="3">
         <v>3303010000</v>
       </c>
-      <c r="H532" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="533" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="533" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A533" s="3">
         <v>837</v>
       </c>
@@ -16990,11 +15428,8 @@
       <c r="G533" s="3">
         <v>3303010000</v>
       </c>
-      <c r="H533" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="534" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="534" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A534" s="3">
         <v>996</v>
       </c>
@@ -17014,11 +15449,8 @@
       <c r="G534" s="3">
         <v>3399000000</v>
       </c>
-      <c r="H534" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="535" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="535" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A535" s="3">
         <v>994</v>
       </c>
@@ -17038,11 +15470,8 @@
       <c r="G535" s="3">
         <v>3302000000</v>
       </c>
-      <c r="H535" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="536" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="536" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A536" s="3">
         <v>836</v>
       </c>
@@ -17062,11 +15491,8 @@
       <c r="G536" s="3">
         <v>3303010200</v>
       </c>
-      <c r="H536" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="537" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="537" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A537" s="3">
         <v>836</v>
       </c>
@@ -17088,11 +15514,8 @@
       <c r="G537" s="3">
         <v>3303010200</v>
       </c>
-      <c r="H537" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="538" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="538" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A538" s="3"/>
       <c r="B538" s="3" t="s">
         <v>1171</v>
@@ -17108,11 +15531,8 @@
       <c r="G538" s="3">
         <v>3301110000</v>
       </c>
-      <c r="H538" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="539" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="539" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A539" s="3"/>
       <c r="B539" s="3" t="s">
         <v>1174</v>
@@ -17128,11 +15548,8 @@
       <c r="G539" s="3">
         <v>3301080000</v>
       </c>
-      <c r="H539" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="540" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="540" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A540" s="3"/>
       <c r="B540" s="3" t="s">
         <v>1177</v>
@@ -17148,11 +15565,8 @@
       <c r="G540" s="3">
         <v>3301080000</v>
       </c>
-      <c r="H540" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="541" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="541" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A541" s="3"/>
       <c r="B541" s="3" t="s">
         <v>1179</v>
@@ -17168,11 +15582,8 @@
       <c r="G541" s="3">
         <v>3301080000</v>
       </c>
-      <c r="H541" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="542" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="542" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A542" s="3"/>
       <c r="B542" s="3" t="s">
         <v>1181</v>
@@ -17188,11 +15599,8 @@
       <c r="G542" s="3">
         <v>3301080000</v>
       </c>
-      <c r="H542" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="543" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="543" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A543" s="3"/>
       <c r="B543" s="3" t="s">
         <v>1183</v>
@@ -17208,11 +15616,8 @@
       <c r="G543" s="3">
         <v>3302000000</v>
       </c>
-      <c r="H543" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="544" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="544" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A544" s="3"/>
       <c r="B544" s="3" t="s">
         <v>1185</v>
@@ -17228,11 +15633,8 @@
       <c r="G544" s="3">
         <v>3399000000</v>
       </c>
-      <c r="H544" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="545" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="545" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A545" s="3"/>
       <c r="B545" s="3" t="s">
         <v>1133</v>
@@ -17248,11 +15650,8 @@
       <c r="G545" s="3">
         <v>3301080000</v>
       </c>
-      <c r="H545" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="546" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="546" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A546" s="3">
         <v>995</v>
       </c>
@@ -17272,11 +15671,8 @@
       <c r="G546" s="3">
         <v>3306000000</v>
       </c>
-      <c r="H546" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="547" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="547" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A547" s="3">
         <v>848</v>
       </c>
@@ -17296,11 +15692,8 @@
       <c r="G547" s="3">
         <v>3306000000</v>
       </c>
-      <c r="H547" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="548" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="548" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A548" s="3">
         <v>848</v>
       </c>
@@ -17320,11 +15713,8 @@
       <c r="G548" s="3">
         <v>3306000000</v>
       </c>
-      <c r="H548" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="549" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="549" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A549" s="3">
         <v>847</v>
       </c>
@@ -17344,11 +15734,8 @@
       <c r="G549" s="3">
         <v>3306000000</v>
       </c>
-      <c r="H549" s="3" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="550" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="550" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A550" s="3">
         <v>125</v>
       </c>
@@ -17370,12 +15757,170 @@
       <c r="G550" s="3">
         <v>3301011501</v>
       </c>
-      <c r="H550" s="3" t="s">
-        <v>1204</v>
+    </row>
+    <row r="551" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A551">
+        <v>13</v>
+      </c>
+      <c r="B551" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C551" s="3" t="s">
+        <v>1206</v>
+      </c>
+      <c r="D551" s="3" t="s">
+        <v>1206</v>
+      </c>
+      <c r="E551" t="s">
+        <v>1212</v>
+      </c>
+      <c r="F551" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G551" s="3">
+        <v>3399000000</v>
+      </c>
+    </row>
+    <row r="552" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A552">
+        <v>593</v>
+      </c>
+      <c r="B552" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C552" s="3" t="s">
+        <v>1207</v>
+      </c>
+      <c r="D552" s="3" t="s">
+        <v>1207</v>
+      </c>
+      <c r="E552" t="s">
+        <v>1213</v>
+      </c>
+      <c r="F552" s="3" t="s">
+        <v>1173</v>
+      </c>
+      <c r="G552" s="3">
+        <v>3301110000</v>
+      </c>
+    </row>
+    <row r="553" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A553">
+        <v>910</v>
+      </c>
+      <c r="B553" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C553" s="3" t="s">
+        <v>1208</v>
+      </c>
+      <c r="D553" s="3" t="s">
+        <v>1208</v>
+      </c>
+      <c r="E553" t="s">
+        <v>1214</v>
+      </c>
+      <c r="F553" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G553" s="3">
+        <v>3302000000</v>
+      </c>
+    </row>
+    <row r="554" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A554">
+        <v>584</v>
+      </c>
+      <c r="B554" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C554" s="3" t="s">
+        <v>1209</v>
+      </c>
+      <c r="D554" s="3" t="s">
+        <v>1209</v>
+      </c>
+      <c r="E554" t="s">
+        <v>1215</v>
+      </c>
+      <c r="F554" s="3" t="s">
+        <v>1216</v>
+      </c>
+      <c r="G554" s="3">
+        <v>3399000000</v>
+      </c>
+    </row>
+    <row r="555" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A555">
+        <v>633</v>
+      </c>
+      <c r="B555" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C555" s="3" t="s">
+        <v>1210</v>
+      </c>
+      <c r="D555" s="3" t="s">
+        <v>1210</v>
+      </c>
+      <c r="E555" t="s">
+        <v>1217</v>
+      </c>
+      <c r="F555" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G555" s="3">
+        <v>3301220000</v>
+      </c>
+    </row>
+    <row r="556" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A556">
+        <v>13</v>
+      </c>
+      <c r="B556" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C556" s="3" t="s">
+        <v>1206</v>
+      </c>
+      <c r="D556" s="3" t="s">
+        <v>1206</v>
+      </c>
+      <c r="E556" t="s">
+        <v>1212</v>
+      </c>
+      <c r="F556" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G556" s="3">
+        <v>3399000000</v>
+      </c>
+    </row>
+    <row r="557" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A557">
+        <v>585</v>
+      </c>
+      <c r="B557" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C557" s="3" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D557" s="3" t="s">
+        <v>1211</v>
+      </c>
+      <c r="E557" t="s">
+        <v>1218</v>
+      </c>
+      <c r="F557" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G557" s="3">
+        <v>3399000000</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G550"/>
+  <autoFilter ref="A1:G557" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/tables/crop_classifications/DE_BRB_crop_classification_final.xlsx
+++ b/tables/crop_classifications/DE_BRB_crop_classification_final.xlsx
@@ -1,29 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\Europe-LAND\data\tables\crop_classifications\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\Europe-LAND\data\tables\Copy_classifications_corrected\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6222817-B7DA-4AE4-A608-8C0864E8E6AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-46188" yWindow="-108" windowWidth="38616" windowHeight="21216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28185" windowHeight="5670"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$557</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$550</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2345" uniqueCount="1219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2860" uniqueCount="1208">
   <si>
     <t>crop_code</t>
   </si>
@@ -3641,55 +3640,22 @@
     <t>tarragon</t>
   </si>
   <si>
+    <t>DE_BB</t>
+  </si>
+  <si>
     <t>other_mushrooms_energy_crops_genetically_modified_crops</t>
   </si>
   <si>
     <t>chard</t>
   </si>
   <si>
-    <t>Feldvogelinseln AUKM</t>
-  </si>
-  <si>
-    <t>Dauerkulturen aus der Erzeugung genommen</t>
-  </si>
-  <si>
-    <t>Wildäsungsfläche</t>
-  </si>
-  <si>
-    <t>Nicht lw. Fl., förderf. §11 (1) Nr. 3a/aa/cc GAPDZV Nat.2000</t>
-  </si>
-  <si>
-    <t>Sommerlauch (Speise-Zwiebel, Schalotte, Lauch, Knoblauch, Schnittlauch, Bärlauch)</t>
-  </si>
-  <si>
-    <t>Nicht lw. Fl., förderf. §11 (1) Nr. 3a/bb GAPDZV WasserRRL</t>
-  </si>
-  <si>
-    <t>Field bird islands AUKM</t>
-  </si>
-  <si>
-    <t>Permanent crops taken out of production</t>
-  </si>
-  <si>
-    <t>Game grazing area</t>
-  </si>
-  <si>
-    <t>Non-agric. areas</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> eligible for funding under §11 (1) No. 3a/aa/cc GAPDZV Nat.2000</t>
-  </si>
-  <si>
-    <t>Summer leeks(edible onione, shallots, leeks, garlic, chives, wild garlic)</t>
-  </si>
-  <si>
-    <t>Non-agric. areas, eligible for funding, §11 (1) No. 3a/bb GAPDZV Water Framework Directive</t>
+    <t>country_code</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3752,7 +3718,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -4051,20 +4017,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G557"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H550"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A524" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C561" sqref="C561"/>
+      <pane ySplit="1" topLeftCell="A161" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="7" width="30.33203125" customWidth="1"/>
+    <col min="1" max="7" width="30.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4086,8 +4052,11 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" s="1" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>144</v>
       </c>
@@ -4109,8 +4078,11 @@
       <c r="G2" s="3">
         <v>3301011502</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>145</v>
       </c>
@@ -4132,8 +4104,11 @@
       <c r="G3" s="3">
         <v>3301011502</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H3" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>710</v>
       </c>
@@ -4147,8 +4122,11 @@
       <c r="G4" s="3">
         <v>3399000000</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H4" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>0</v>
       </c>
@@ -4162,8 +4140,11 @@
       <c r="G5" s="3">
         <v>3399000000</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H5" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>996</v>
       </c>
@@ -4177,8 +4158,11 @@
       <c r="G6" s="3">
         <v>3399000000</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H6" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>994</v>
       </c>
@@ -4192,8 +4176,11 @@
       <c r="G7" s="3">
         <v>3399000000</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H7" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>140</v>
       </c>
@@ -4207,8 +4194,11 @@
       <c r="G8" s="3">
         <v>3399000000</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H8" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>155</v>
       </c>
@@ -4222,8 +4212,11 @@
       <c r="G9" s="3">
         <v>3399000000</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H9" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>559</v>
       </c>
@@ -4237,8 +4230,11 @@
       <c r="G10" s="3">
         <v>3399000000</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H10" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>591</v>
       </c>
@@ -4258,8 +4254,11 @@
       <c r="G11" s="3">
         <v>3308000000</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H11" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>992</v>
       </c>
@@ -4279,8 +4278,11 @@
       <c r="G12" s="3">
         <v>3308000000</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H12" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>220</v>
       </c>
@@ -4300,8 +4302,11 @@
       <c r="G13" s="3">
         <v>3301020100</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H13" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>220</v>
       </c>
@@ -4321,8 +4326,11 @@
       <c r="G14" s="3">
         <v>3301020100</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H14" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>220</v>
       </c>
@@ -4344,8 +4352,11 @@
       <c r="G15" s="3">
         <v>3301020100</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H15" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>424</v>
       </c>
@@ -4367,8 +4378,11 @@
       <c r="G16" s="3">
         <v>3302000000</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H16" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>999</v>
       </c>
@@ -4390,8 +4404,11 @@
       <c r="G17" s="3">
         <v>3301990000</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H17" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>999</v>
       </c>
@@ -4411,8 +4428,11 @@
       <c r="G18" s="3">
         <v>3301990000</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H18" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>999</v>
       </c>
@@ -4432,8 +4452,11 @@
       <c r="G19" s="3">
         <v>3301990000</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H19" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>591</v>
       </c>
@@ -4455,8 +4478,11 @@
       <c r="G20" s="3">
         <v>3308000000</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H20" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>591</v>
       </c>
@@ -4476,8 +4502,11 @@
       <c r="G21" s="3">
         <v>3308000000</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H21" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>12</v>
       </c>
@@ -4497,8 +4526,11 @@
       <c r="G22" s="3">
         <v>3399000000</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H22" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>836</v>
       </c>
@@ -4518,8 +4550,11 @@
       <c r="G23" s="3">
         <v>3303010200</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H23" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>827</v>
       </c>
@@ -4539,8 +4574,11 @@
       <c r="G24" s="3">
         <v>3303010200</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H24" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>827</v>
       </c>
@@ -4560,8 +4598,11 @@
       <c r="G25" s="3">
         <v>3303010200</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H25" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="3" t="s">
         <v>43</v>
@@ -4577,8 +4618,11 @@
       <c r="G26" s="3">
         <v>3399000000</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H26" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>459</v>
       </c>
@@ -4598,8 +4642,11 @@
       <c r="G27" s="3">
         <v>3399000000</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H27" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>990</v>
       </c>
@@ -4619,8 +4666,11 @@
       <c r="G28" s="3">
         <v>3399000000</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H28" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>990</v>
       </c>
@@ -4640,8 +4690,11 @@
       <c r="G29" s="3">
         <v>3399000000</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H29" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>990</v>
       </c>
@@ -4663,8 +4716,11 @@
       <c r="G30" s="3">
         <v>3399000000</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H30" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>429</v>
       </c>
@@ -4684,8 +4740,11 @@
       <c r="G31" s="3">
         <v>3301990000</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H31" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>190</v>
       </c>
@@ -4705,8 +4764,11 @@
       <c r="G32" s="3">
         <v>3301010000</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H32" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>690</v>
       </c>
@@ -4726,8 +4788,11 @@
       <c r="G33" s="3">
         <v>3301990000</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H33" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>790</v>
       </c>
@@ -4747,8 +4812,11 @@
       <c r="G34" s="3">
         <v>3301990000</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H34" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>290</v>
       </c>
@@ -4768,8 +4836,11 @@
       <c r="G35" s="3">
         <v>3301020000</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H35" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>636</v>
       </c>
@@ -4789,8 +4860,11 @@
       <c r="G36" s="3">
         <v>3301220000</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H36" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>633</v>
       </c>
@@ -4810,8 +4884,11 @@
       <c r="G37" s="3">
         <v>3301220000</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H37" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>633</v>
       </c>
@@ -4831,8 +4908,11 @@
       <c r="G38" s="3">
         <v>3301220000</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H38" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>186</v>
       </c>
@@ -4852,8 +4932,11 @@
       <c r="G39" s="3">
         <v>3301150100</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H39" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>186</v>
       </c>
@@ -4875,8 +4958,11 @@
       <c r="G40" s="3">
         <v>3301150100</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H40" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>632</v>
       </c>
@@ -4896,8 +4982,11 @@
       <c r="G41" s="3">
         <v>3301070000</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H41" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>632</v>
       </c>
@@ -4917,8 +5006,11 @@
       <c r="G42" s="3">
         <v>3301070000</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H42" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>390</v>
       </c>
@@ -4938,8 +5030,11 @@
       <c r="G43" s="3">
         <v>3301060800</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H43" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>651</v>
       </c>
@@ -4959,8 +5054,11 @@
       <c r="G44" s="3">
         <v>3301061200</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H44" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>491</v>
       </c>
@@ -4980,8 +5078,11 @@
       <c r="G45" s="3">
         <v>3302000000</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H45" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>649</v>
       </c>
@@ -5001,8 +5102,11 @@
       <c r="G46" s="3">
         <v>3301180000</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H46" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>999</v>
       </c>
@@ -5022,8 +5126,11 @@
       <c r="G47" s="3">
         <v>3308000000</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H47" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>556</v>
       </c>
@@ -5043,8 +5150,11 @@
       <c r="G48" s="3">
         <v>3306010000</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H48" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>2</v>
       </c>
@@ -5066,8 +5176,11 @@
       <c r="G49" s="3">
         <v>3306000000</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H49" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>839</v>
       </c>
@@ -5087,8 +5200,11 @@
       <c r="G50" s="3">
         <v>3303020000</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H50" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>830</v>
       </c>
@@ -5108,8 +5224,11 @@
       <c r="G51" s="3">
         <v>3303070000</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H51" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>838</v>
       </c>
@@ -5129,8 +5248,11 @@
       <c r="G52" s="3">
         <v>3303070000</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H52" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>838</v>
       </c>
@@ -5152,8 +5274,11 @@
       <c r="G53" s="3">
         <v>3303070000</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H53" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>831</v>
       </c>
@@ -5173,8 +5298,11 @@
       <c r="G54" s="3">
         <v>3303020000</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H54" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>839</v>
       </c>
@@ -5194,8 +5322,11 @@
       <c r="G55" s="3">
         <v>3303020000</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H55" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>827</v>
       </c>
@@ -5217,8 +5348,11 @@
       <c r="G56" s="3">
         <v>3303020000</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H56" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>817</v>
       </c>
@@ -5240,8 +5374,11 @@
       <c r="G57" s="3">
         <v>3303020000</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H57" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>817</v>
       </c>
@@ -5261,8 +5398,11 @@
       <c r="G58" s="3">
         <v>3303020000</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H58" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>842</v>
       </c>
@@ -5282,8 +5422,11 @@
       <c r="G59" s="3">
         <v>3303060000</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H59" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>492</v>
       </c>
@@ -5303,8 +5446,11 @@
       <c r="G60" s="3">
         <v>3302000000</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H60" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>492</v>
       </c>
@@ -5324,8 +5470,11 @@
       <c r="G61" s="3">
         <v>3302000000</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H61" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>492</v>
       </c>
@@ -5345,8 +5494,11 @@
       <c r="G62" s="3">
         <v>3302000000</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H62" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>930</v>
       </c>
@@ -5366,8 +5518,11 @@
       <c r="G63" s="3">
         <v>3399000000</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H63" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>924</v>
       </c>
@@ -5387,8 +5542,11 @@
       <c r="G64" s="3">
         <v>3399000000</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H64" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>823</v>
       </c>
@@ -5410,8 +5568,11 @@
       <c r="G65" s="3">
         <v>3303011200</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H65" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>813</v>
       </c>
@@ -5433,8 +5594,11 @@
       <c r="G66" s="3">
         <v>3303011200</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H66" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>732</v>
       </c>
@@ -5454,8 +5618,11 @@
       <c r="G67" s="3">
         <v>3301080000</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H67" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>732</v>
       </c>
@@ -5475,8 +5642,11 @@
       <c r="G68" s="3">
         <v>3301080000</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H68" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>722</v>
       </c>
@@ -5496,8 +5666,11 @@
       <c r="G69" s="3">
         <v>3301080000</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H69" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>712</v>
       </c>
@@ -5517,8 +5690,11 @@
       <c r="G70" s="3">
         <v>3301210204</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H70" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>426</v>
       </c>
@@ -5538,8 +5714,11 @@
       <c r="G71" s="3">
         <v>3301090303</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H71" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>590</v>
       </c>
@@ -5559,8 +5738,11 @@
       <c r="G72" s="3">
         <v>3301110000</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H72" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>590</v>
       </c>
@@ -5580,8 +5762,11 @@
       <c r="G73" s="3">
         <v>3301110000</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H73" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>590</v>
       </c>
@@ -5601,8 +5786,11 @@
       <c r="G74" s="3">
         <v>3301110000</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H74" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>62</v>
       </c>
@@ -5622,8 +5810,11 @@
       <c r="G75" s="3">
         <v>3301110000</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H75" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>62</v>
       </c>
@@ -5643,8 +5834,11 @@
       <c r="G76" s="3">
         <v>3301110000</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H76" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>614</v>
       </c>
@@ -5664,8 +5858,11 @@
       <c r="G77" s="3">
         <v>3301210100</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H77" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>614</v>
       </c>
@@ -5685,8 +5882,11 @@
       <c r="G78" s="3">
         <v>3301210100</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H78" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>614</v>
       </c>
@@ -5706,8 +5906,11 @@
       <c r="G79" s="3">
         <v>3301210100</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H79" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>182</v>
       </c>
@@ -5729,8 +5932,11 @@
       <c r="G80" s="3">
         <v>3301150200</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H80" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>9</v>
       </c>
@@ -5750,8 +5956,11 @@
       <c r="G81" s="3">
         <v>3399000000</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H81" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>852</v>
       </c>
@@ -5771,8 +5980,11 @@
       <c r="G82" s="3">
         <v>3301083000</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H82" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>896</v>
       </c>
@@ -5792,8 +6004,11 @@
       <c r="G83" s="3">
         <v>3301083000</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H83" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>852</v>
       </c>
@@ -5815,8 +6030,11 @@
       <c r="G84" s="3">
         <v>3301083000</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H84" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>172</v>
       </c>
@@ -5836,8 +6054,11 @@
       <c r="G85" s="3">
         <v>3301010600</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H85" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>444</v>
       </c>
@@ -5857,8 +6078,11 @@
       <c r="G86" s="3">
         <v>3301990000</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H86" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>444</v>
       </c>
@@ -5880,8 +6104,11 @@
       <c r="G87" s="3">
         <v>3301990000</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H87" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>592</v>
       </c>
@@ -5901,8 +6128,11 @@
       <c r="G88" s="3">
         <v>3302000000</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H88" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>492</v>
       </c>
@@ -5924,8 +6154,11 @@
       <c r="G89" s="3">
         <v>3302000000</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H89" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
         <v>592</v>
       </c>
@@ -5945,8 +6178,11 @@
       <c r="G90" s="3">
         <v>3302000000</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H90" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>592</v>
       </c>
@@ -5966,8 +6202,11 @@
       <c r="G91" s="3">
         <v>3302000000</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H91" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="3"/>
       <c r="B92" s="3" t="s">
         <v>174</v>
@@ -5983,8 +6222,11 @@
       <c r="G92" s="3">
         <v>3302000000</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H92" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
         <v>592</v>
       </c>
@@ -6004,8 +6246,11 @@
       <c r="G93" s="3">
         <v>3302000000</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H93" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <v>855</v>
       </c>
@@ -6025,8 +6270,11 @@
       <c r="G94" s="3">
         <v>3301990000</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H94" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <v>651</v>
       </c>
@@ -6048,8 +6296,11 @@
       <c r="G95" s="3">
         <v>3301061203</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H95" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>114</v>
       </c>
@@ -6069,8 +6320,11 @@
       <c r="G96" s="3">
         <v>3301011000</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H96" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>9</v>
       </c>
@@ -6090,8 +6344,11 @@
       <c r="G97" s="3">
         <v>3399000000</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H97" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
         <v>10</v>
       </c>
@@ -6111,8 +6368,11 @@
       <c r="G98" s="3">
         <v>3301080000</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H98" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
         <v>5</v>
       </c>
@@ -6132,8 +6392,11 @@
       <c r="G99" s="3">
         <v>3306000000</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H99" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
         <v>801</v>
       </c>
@@ -6153,8 +6416,11 @@
       <c r="G100" s="3">
         <v>3301990000</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H100" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
         <v>210</v>
       </c>
@@ -6174,8 +6440,11 @@
       <c r="G101" s="3">
         <v>3301020600</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H101" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
         <v>210</v>
       </c>
@@ -6197,8 +6466,11 @@
       <c r="G102" s="3">
         <v>3301020600</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H102" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
         <v>210</v>
       </c>
@@ -6218,8 +6490,11 @@
       <c r="G103" s="3">
         <v>3301020600</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H103" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
         <v>210</v>
       </c>
@@ -6239,8 +6514,11 @@
       <c r="G104" s="3">
         <v>3301020600</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H104" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
         <v>240</v>
       </c>
@@ -6262,8 +6540,11 @@
       <c r="G105" s="3">
         <v>3301020000</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H105" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
         <v>240</v>
       </c>
@@ -6283,8 +6564,11 @@
       <c r="G106" s="3">
         <v>3301020000</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H106" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
         <v>707</v>
       </c>
@@ -6306,8 +6590,11 @@
       <c r="G107" s="3">
         <v>3301130000</v>
       </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H107" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
         <v>723</v>
       </c>
@@ -6327,8 +6614,11 @@
       <c r="G108" s="3">
         <v>3301130000</v>
       </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H108" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
         <v>429</v>
       </c>
@@ -6350,8 +6640,11 @@
       <c r="G109" s="3">
         <v>3301020300</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H109" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
         <v>703</v>
       </c>
@@ -6371,8 +6664,11 @@
       <c r="G110" s="2">
         <v>3301082400</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H110" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
         <v>710</v>
       </c>
@@ -6392,8 +6688,11 @@
       <c r="G111" s="2">
         <v>3301061231</v>
       </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H111" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
         <v>342</v>
       </c>
@@ -6413,8 +6712,11 @@
       <c r="G112" s="3">
         <v>3301060700</v>
       </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H112" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
         <v>701</v>
       </c>
@@ -6434,8 +6736,11 @@
       <c r="G113" s="3">
         <v>3301061000</v>
       </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H113" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
         <v>3</v>
       </c>
@@ -6457,8 +6762,11 @@
       <c r="G114" s="3">
         <v>3306000000</v>
       </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H114" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
         <v>13</v>
       </c>
@@ -6480,8 +6788,11 @@
       <c r="G115" s="3">
         <v>3399000000</v>
       </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H115" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
         <v>58</v>
       </c>
@@ -6501,8 +6812,11 @@
       <c r="G116" s="3">
         <v>3302000000</v>
       </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H116" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
         <v>57</v>
       </c>
@@ -6522,8 +6836,11 @@
       <c r="G117" s="3">
         <v>3302000000</v>
       </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H117" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
         <v>58</v>
       </c>
@@ -6543,8 +6860,11 @@
       <c r="G118" s="3">
         <v>3399000000</v>
       </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H118" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
         <v>58</v>
       </c>
@@ -6564,8 +6884,11 @@
       <c r="G119" s="3">
         <v>3399000000</v>
       </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H119" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
         <v>636</v>
       </c>
@@ -6585,8 +6908,11 @@
       <c r="G120" s="3">
         <v>3301310000</v>
       </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H120" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
         <v>636</v>
       </c>
@@ -6606,8 +6932,11 @@
       <c r="G121" s="3">
         <v>3301310000</v>
       </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H121" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
         <v>12</v>
       </c>
@@ -6629,8 +6958,11 @@
       <c r="G122" s="3">
         <v>3399000000</v>
       </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H122" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
         <v>648</v>
       </c>
@@ -6650,8 +6982,11 @@
       <c r="G123" s="3">
         <v>3301170000</v>
       </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H123" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="3">
         <v>648</v>
       </c>
@@ -6673,8 +7008,11 @@
       <c r="G124" s="3">
         <v>3301170000</v>
       </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H124" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="3">
         <v>648</v>
       </c>
@@ -6694,8 +7032,11 @@
       <c r="G125" s="3">
         <v>3301170000</v>
       </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H125" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="3">
         <v>6</v>
       </c>
@@ -6715,8 +7056,11 @@
       <c r="G126" s="3">
         <v>3302000000</v>
       </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H126" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="3">
         <v>4</v>
       </c>
@@ -6738,8 +7082,11 @@
       <c r="G127" s="3">
         <v>3399000000</v>
       </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H127" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="3">
         <v>711</v>
       </c>
@@ -6759,8 +7106,11 @@
       <c r="G128" s="3">
         <v>3301020600</v>
       </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H128" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="3">
         <v>611</v>
       </c>
@@ -6780,8 +7130,11 @@
       <c r="G129" s="3">
         <v>3301030000</v>
       </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H129" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="3">
         <v>412</v>
       </c>
@@ -6801,8 +7154,11 @@
       <c r="G130" s="3">
         <v>3301030000</v>
       </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H130" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="3">
         <v>614</v>
       </c>
@@ -6822,8 +7178,11 @@
       <c r="G131" s="3">
         <v>3301030000</v>
       </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H131" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="3">
         <v>429</v>
       </c>
@@ -6843,8 +7202,11 @@
       <c r="G132" s="3">
         <v>3301990000</v>
       </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H132" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="3">
         <v>430</v>
       </c>
@@ -6864,8 +7226,11 @@
       <c r="G133" s="3">
         <v>3301990000</v>
       </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H133" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="3">
         <v>413</v>
       </c>
@@ -6885,8 +7250,11 @@
       <c r="G134" s="3">
         <v>3301290400</v>
       </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H134" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="3">
         <v>413</v>
       </c>
@@ -6908,8 +7276,11 @@
       <c r="G135" s="3">
         <v>3301290400</v>
       </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H135" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="3"/>
       <c r="B136" s="3" t="s">
         <v>277</v>
@@ -6925,8 +7296,11 @@
       <c r="G136" s="3">
         <v>3301083900</v>
       </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H136" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="3"/>
       <c r="B137" s="3" t="s">
         <v>280</v>
@@ -6942,8 +7316,11 @@
       <c r="G137" s="3">
         <v>3301061231</v>
       </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H137" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="3">
         <v>792</v>
       </c>
@@ -6963,8 +7340,11 @@
       <c r="G138" s="3">
         <v>3301990000</v>
       </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H138" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="3">
         <v>791</v>
       </c>
@@ -6984,8 +7364,11 @@
       <c r="G139" s="3">
         <v>3301080000</v>
       </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H139" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="3">
         <v>635</v>
       </c>
@@ -7007,8 +7390,11 @@
       <c r="G140" s="3">
         <v>3301020100</v>
       </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H140" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="3">
         <v>635</v>
       </c>
@@ -7028,8 +7414,11 @@
       <c r="G141" s="3">
         <v>3301020100</v>
       </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H141" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="3">
         <v>635</v>
       </c>
@@ -7049,8 +7438,11 @@
       <c r="G142" s="3">
         <v>3301020100</v>
       </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H142" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="3">
         <v>617</v>
       </c>
@@ -7072,8 +7464,11 @@
       <c r="G143" s="3">
         <v>3301210300</v>
       </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H143" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="3">
         <v>630</v>
       </c>
@@ -7093,8 +7488,11 @@
       <c r="G144" s="3">
         <v>3301140400</v>
       </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H144" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="3">
         <v>630</v>
       </c>
@@ -7116,8 +7514,11 @@
       <c r="G145" s="3">
         <v>3301140400</v>
       </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H145" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="3">
         <v>630</v>
       </c>
@@ -7137,8 +7538,11 @@
       <c r="G146" s="3">
         <v>3301140400</v>
       </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H146" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="3">
         <v>618</v>
       </c>
@@ -7158,8 +7562,11 @@
       <c r="G147" s="3">
         <v>3301290600</v>
       </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H147" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="3">
         <v>618</v>
       </c>
@@ -7179,8 +7586,11 @@
       <c r="G148" s="3">
         <v>3301290600</v>
       </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H148" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="3">
         <v>618</v>
       </c>
@@ -7200,8 +7610,11 @@
       <c r="G149" s="3">
         <v>3301290600</v>
       </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H149" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="3">
         <v>618</v>
       </c>
@@ -7223,8 +7636,11 @@
       <c r="G150" s="3">
         <v>3301290600</v>
       </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H150" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="3">
         <v>250</v>
       </c>
@@ -7244,8 +7660,11 @@
       <c r="G151" s="3">
         <v>3301020000</v>
       </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H151" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="3"/>
       <c r="B152" s="3" t="s">
         <v>316</v>
@@ -7261,8 +7680,11 @@
       <c r="G152" s="3">
         <v>3301020000</v>
       </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H152" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="3"/>
       <c r="B153" s="3" t="s">
         <v>318</v>
@@ -7278,8 +7700,11 @@
       <c r="G153" s="3">
         <v>3301020000</v>
       </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H153" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="3">
         <v>250</v>
       </c>
@@ -7299,8 +7724,11 @@
       <c r="G154" s="3">
         <v>3301020000</v>
       </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H154" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="3">
         <v>250</v>
       </c>
@@ -7320,8 +7748,11 @@
       <c r="G155" s="3">
         <v>3301020000</v>
       </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H155" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="3">
         <v>610</v>
       </c>
@@ -7341,8 +7772,11 @@
       <c r="G156" s="3">
         <v>3301070000</v>
       </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H156" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="3">
         <v>710</v>
       </c>
@@ -7362,8 +7796,11 @@
       <c r="G157" s="3">
         <v>3301070000</v>
       </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H157" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="3">
         <v>731</v>
       </c>
@@ -7378,13 +7815,16 @@
       </c>
       <c r="E158" s="3"/>
       <c r="F158" s="3" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="G158" s="3">
         <v>3304990000</v>
       </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H158" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" s="3">
         <v>611</v>
       </c>
@@ -7404,8 +7844,11 @@
       <c r="G159" s="3">
         <v>3301070000</v>
       </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H159" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="3">
         <v>626</v>
       </c>
@@ -7425,8 +7868,11 @@
       <c r="G160" s="3">
         <v>3301210200</v>
       </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H160" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="3">
         <v>621</v>
       </c>
@@ -7446,8 +7892,11 @@
       <c r="G161" s="3">
         <v>3301070000</v>
       </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H161" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="3">
         <v>211</v>
       </c>
@@ -7467,8 +7916,11 @@
       <c r="G162" s="3">
         <v>3301020600</v>
       </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H162" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="3">
         <v>613</v>
       </c>
@@ -7488,8 +7940,11 @@
       <c r="G163" s="3">
         <v>3301210200</v>
       </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H163" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="3">
         <v>613</v>
       </c>
@@ -7509,8 +7964,11 @@
       <c r="G164" s="3">
         <v>3301210200</v>
       </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H164" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="3">
         <v>612</v>
       </c>
@@ -7530,8 +7988,11 @@
       <c r="G165" s="2">
         <v>3301290800</v>
       </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H165" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" s="3">
         <v>649</v>
       </c>
@@ -7551,8 +8012,11 @@
       <c r="G166" s="2">
         <v>3301290800</v>
       </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H166" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="3">
         <v>610</v>
       </c>
@@ -7572,8 +8036,11 @@
       <c r="G167" s="3">
         <v>3301070000</v>
       </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H167" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" s="3">
         <v>611</v>
       </c>
@@ -7593,8 +8060,11 @@
       <c r="G168" s="3">
         <v>3301070000</v>
       </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H168" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" s="3">
         <v>626</v>
       </c>
@@ -7614,8 +8084,11 @@
       <c r="G169" s="3">
         <v>3301210200</v>
       </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H169" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" s="3">
         <v>621</v>
       </c>
@@ -7635,8 +8108,11 @@
       <c r="G170" s="3">
         <v>3301070000</v>
       </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H170" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" s="3">
         <v>211</v>
       </c>
@@ -7658,8 +8134,11 @@
       <c r="G171" s="3">
         <v>3301020600</v>
       </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H171" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" s="3">
         <v>613</v>
       </c>
@@ -7681,8 +8160,11 @@
       <c r="G172" s="3">
         <v>3301210200</v>
       </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H172" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="3">
         <v>613</v>
       </c>
@@ -7702,8 +8184,11 @@
       <c r="G173" s="3">
         <v>3301210200</v>
       </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H173" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="3"/>
       <c r="B174" s="3" t="s">
         <v>360</v>
@@ -7719,8 +8204,11 @@
       <c r="G174" s="3">
         <v>3301290800</v>
       </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H174" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" s="3">
         <v>649</v>
       </c>
@@ -7740,8 +8228,11 @@
       <c r="G175" s="3">
         <v>3301290800</v>
       </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H175" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="3">
         <v>1</v>
       </c>
@@ -7761,8 +8252,11 @@
       <c r="G176" s="3">
         <v>3399000000</v>
       </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H176" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" s="3">
         <v>190</v>
       </c>
@@ -7782,8 +8276,11 @@
       <c r="G177" s="3">
         <v>3301010000</v>
       </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H177" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" s="3">
         <v>651</v>
       </c>
@@ -7803,8 +8300,11 @@
       <c r="G178" s="3">
         <v>3301061200</v>
       </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H178" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" s="3"/>
       <c r="B179" s="3" t="s">
         <v>371</v>
@@ -7820,8 +8320,11 @@
       <c r="G179" s="3">
         <v>3399000000</v>
       </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H179" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" s="3"/>
       <c r="B180" s="3" t="s">
         <v>373</v>
@@ -7837,8 +8340,11 @@
       <c r="G180" s="3">
         <v>3301020000</v>
       </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H180" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" s="3">
         <v>912</v>
       </c>
@@ -7860,8 +8366,11 @@
       <c r="G181" s="3">
         <v>3302000000</v>
       </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H181" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" s="3">
         <v>941</v>
       </c>
@@ -7881,8 +8390,11 @@
       <c r="G182" s="2">
         <v>3399000000</v>
       </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H182" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" s="3">
         <v>941</v>
       </c>
@@ -7902,8 +8414,11 @@
       <c r="G183" s="2">
         <v>3399000000</v>
       </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H183" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" s="3">
         <v>941</v>
       </c>
@@ -7923,8 +8438,11 @@
       <c r="G184" s="2">
         <v>3399000000</v>
       </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H184" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" s="3">
         <v>923</v>
       </c>
@@ -7944,8 +8462,11 @@
       <c r="G185" s="3">
         <v>3302000000</v>
       </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H185" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" s="3">
         <v>923</v>
       </c>
@@ -7965,8 +8486,11 @@
       <c r="G186" s="2">
         <v>3399000000</v>
       </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H186" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" s="3"/>
       <c r="B187" s="3" t="s">
         <v>387</v>
@@ -7982,8 +8506,11 @@
       <c r="G187" s="3">
         <v>3399000000</v>
       </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H187" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" s="3">
         <v>941</v>
       </c>
@@ -8003,8 +8530,11 @@
       <c r="G188" s="3">
         <v>3399000000</v>
       </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H188" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" s="3">
         <v>941</v>
       </c>
@@ -8024,8 +8554,11 @@
       <c r="G189" s="3">
         <v>3399000000</v>
       </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H189" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" s="3">
         <v>459</v>
       </c>
@@ -8047,8 +8580,11 @@
       <c r="G190" s="3">
         <v>3302000000</v>
       </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H190" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" s="3">
         <v>627</v>
       </c>
@@ -8070,8 +8606,11 @@
       <c r="G191" s="3">
         <v>3301140100</v>
       </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H191" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" s="3">
         <v>140</v>
       </c>
@@ -8091,8 +8630,11 @@
       <c r="G192" s="3">
         <v>3301010500</v>
       </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H192" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" s="3">
         <v>793</v>
       </c>
@@ -8114,8 +8656,11 @@
       <c r="G193" s="3">
         <v>3301061000</v>
       </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H193" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" s="3">
         <v>701</v>
       </c>
@@ -8137,8 +8682,11 @@
       <c r="G194" s="3">
         <v>3301061000</v>
       </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H194" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" s="3">
         <v>113</v>
       </c>
@@ -8158,8 +8706,11 @@
       <c r="G195" s="3">
         <v>3301010200</v>
       </c>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H195" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" s="3">
         <v>824</v>
       </c>
@@ -8179,8 +8730,11 @@
       <c r="G196" s="3">
         <v>3303030200</v>
       </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H196" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" s="3">
         <v>833</v>
       </c>
@@ -8200,8 +8754,11 @@
       <c r="G197" s="3">
         <v>3303030200</v>
       </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H197" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" s="3">
         <v>833</v>
       </c>
@@ -8223,8 +8780,11 @@
       <c r="G198" s="3">
         <v>3303030200</v>
       </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H198" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" s="3">
         <v>1</v>
       </c>
@@ -8246,8 +8806,11 @@
       <c r="G199" s="3">
         <v>3399000000</v>
       </c>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H199" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" s="3">
         <v>770</v>
       </c>
@@ -8267,8 +8830,11 @@
       <c r="G200" s="3">
         <v>3301061200</v>
       </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H200" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" s="3">
         <v>181</v>
       </c>
@@ -8288,8 +8854,11 @@
       <c r="G201" s="3">
         <v>3301010900</v>
       </c>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H201" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" s="3">
         <v>181</v>
       </c>
@@ -8309,8 +8878,11 @@
       <c r="G202" s="3">
         <v>3301010900</v>
       </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H202" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" s="3">
         <v>991</v>
       </c>
@@ -8330,8 +8902,11 @@
       <c r="G203" s="3">
         <v>3399000000</v>
       </c>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H203" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" s="3">
         <v>594</v>
       </c>
@@ -8351,8 +8926,11 @@
       <c r="G204" s="2">
         <v>3301110000</v>
       </c>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H204" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" s="3">
         <v>595</v>
       </c>
@@ -8372,8 +8950,11 @@
       <c r="G205" s="2">
         <v>3301110000</v>
       </c>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H205" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" s="3">
         <v>595</v>
       </c>
@@ -8393,8 +8974,11 @@
       <c r="G206" s="2">
         <v>3301110000</v>
       </c>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H206" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" s="3">
         <v>594</v>
       </c>
@@ -8414,8 +8998,11 @@
       <c r="G207" s="2">
         <v>3301110000</v>
       </c>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H207" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" s="3">
         <v>427</v>
       </c>
@@ -8435,8 +9022,11 @@
       <c r="G208" s="3">
         <v>3301090303</v>
       </c>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H208" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" s="3">
         <v>290</v>
       </c>
@@ -8456,8 +9046,11 @@
       <c r="G209" s="3">
         <v>3301020000</v>
       </c>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H209" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" s="3">
         <v>454</v>
       </c>
@@ -8479,8 +9072,11 @@
       <c r="G210" s="3">
         <v>3302000000</v>
       </c>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H210" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" s="3">
         <v>512</v>
       </c>
@@ -8500,8 +9096,11 @@
       <c r="G211" s="3">
         <v>3301060800</v>
       </c>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H211" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" s="3">
         <v>613</v>
       </c>
@@ -8521,8 +9120,11 @@
       <c r="G212" s="3">
         <v>3301030000</v>
       </c>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H212" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" s="3">
         <v>613</v>
       </c>
@@ -8542,8 +9144,11 @@
       <c r="G213" s="3">
         <v>3301030000</v>
       </c>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H213" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" s="3">
         <v>841</v>
       </c>
@@ -8563,8 +9168,11 @@
       <c r="G214" s="2">
         <v>3399000000</v>
       </c>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H214" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" s="3">
         <v>841</v>
       </c>
@@ -8584,8 +9192,11 @@
       <c r="G215" s="2">
         <v>3399000000</v>
       </c>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H215" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" s="3"/>
       <c r="B216" s="3" t="s">
         <v>444</v>
@@ -8601,8 +9212,11 @@
       <c r="G216" s="3">
         <v>3303990000</v>
       </c>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H216" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" s="3">
         <v>677</v>
       </c>
@@ -8624,8 +9238,11 @@
       <c r="G217" s="3">
         <v>3301061213</v>
       </c>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H217" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" s="3">
         <v>704</v>
       </c>
@@ -8645,8 +9262,11 @@
       <c r="G218" s="3">
         <v>3301011400</v>
       </c>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H218" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" s="3">
         <v>602</v>
       </c>
@@ -8668,8 +9288,11 @@
       <c r="G219" s="3">
         <v>3301030000</v>
       </c>
-    </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H219" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" s="3">
         <v>5</v>
       </c>
@@ -8691,8 +9314,11 @@
       <c r="G220" s="3">
         <v>3399000000</v>
       </c>
-    </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H220" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" s="3">
         <v>0</v>
       </c>
@@ -8712,8 +9338,11 @@
       <c r="G221" s="3">
         <v>3399000000</v>
       </c>
-    </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H221" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" s="3">
         <v>815</v>
       </c>
@@ -8733,8 +9362,11 @@
       <c r="G222" s="3">
         <v>3303010000</v>
       </c>
-    </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H222" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" s="3"/>
       <c r="B223" s="3" t="s">
         <v>464</v>
@@ -8750,8 +9382,11 @@
       <c r="G223" s="3">
         <v>3303010000</v>
       </c>
-    </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H223" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" s="3">
         <v>825</v>
       </c>
@@ -8771,8 +9406,11 @@
       <c r="G224" s="3">
         <v>3303010000</v>
       </c>
-    </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H224" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" s="3">
         <v>645</v>
       </c>
@@ -8794,8 +9432,11 @@
       <c r="G225" s="3">
         <v>3301020200</v>
       </c>
-    </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H225" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" s="3">
         <v>822</v>
       </c>
@@ -8817,8 +9458,11 @@
       <c r="G226" s="3">
         <v>3303010400</v>
       </c>
-    </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H226" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" s="3">
         <v>831</v>
       </c>
@@ -8840,8 +9484,11 @@
       <c r="G227" s="3">
         <v>3303010400</v>
       </c>
-    </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H227" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" s="3">
         <v>421</v>
       </c>
@@ -8861,8 +9508,11 @@
       <c r="G228" s="3">
         <v>3301090303</v>
       </c>
-    </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H228" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" s="3">
         <v>421</v>
       </c>
@@ -8882,8 +9532,11 @@
       <c r="G229" s="3">
         <v>3301090303</v>
       </c>
-    </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H229" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" s="3">
         <v>421</v>
       </c>
@@ -8903,8 +9556,11 @@
       <c r="G230" s="3">
         <v>3301090303</v>
       </c>
-    </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H230" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" s="3">
         <v>426</v>
       </c>
@@ -8924,8 +9580,11 @@
       <c r="G231" s="3">
         <v>3301090303</v>
       </c>
-    </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H231" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" s="3">
         <v>421</v>
       </c>
@@ -8945,8 +9604,11 @@
       <c r="G232" s="3">
         <v>3301090303</v>
       </c>
-    </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H232" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" s="3">
         <v>913</v>
       </c>
@@ -8966,8 +9628,11 @@
       <c r="G233" s="3">
         <v>3301090303</v>
       </c>
-    </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H233" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" s="3">
         <v>425</v>
       </c>
@@ -8989,8 +9654,11 @@
       <c r="G234" s="3">
         <v>3301090303</v>
       </c>
-    </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H234" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" s="3">
         <v>421</v>
       </c>
@@ -9012,8 +9680,11 @@
       <c r="G235" s="3">
         <v>3301090303</v>
       </c>
-    </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H235" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" s="3">
         <v>422</v>
       </c>
@@ -9035,8 +9706,11 @@
       <c r="G236" s="3">
         <v>3301090303</v>
       </c>
-    </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H236" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" s="3">
         <v>432</v>
       </c>
@@ -9058,8 +9732,11 @@
       <c r="G237" s="3">
         <v>3301090303</v>
       </c>
-    </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H237" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" s="3">
         <v>171</v>
       </c>
@@ -9079,8 +9756,11 @@
       <c r="G238" s="3">
         <v>3301010600</v>
       </c>
-    </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H238" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" s="3">
         <v>171</v>
       </c>
@@ -9100,8 +9780,11 @@
       <c r="G239" s="3">
         <v>3301010600</v>
       </c>
-    </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H239" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" s="3">
         <v>183</v>
       </c>
@@ -9121,8 +9804,11 @@
       <c r="G240" s="3">
         <v>3301010900</v>
       </c>
-    </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H240" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" s="3">
         <v>414</v>
       </c>
@@ -9142,8 +9828,11 @@
       <c r="G241" s="3">
         <v>3301210500</v>
       </c>
-    </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H241" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" s="3">
         <v>414</v>
       </c>
@@ -9163,8 +9852,11 @@
       <c r="G242" s="3">
         <v>3301210500</v>
       </c>
-    </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H242" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" s="3">
         <v>184</v>
       </c>
@@ -9186,8 +9878,11 @@
       <c r="G243" s="3">
         <v>3301010900</v>
       </c>
-    </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H243" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" s="3">
         <v>845</v>
       </c>
@@ -9207,8 +9902,11 @@
       <c r="G244" s="2">
         <v>3306080000</v>
       </c>
-    </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H244" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" s="3"/>
       <c r="B245" s="3" t="s">
         <v>514</v>
@@ -9224,8 +9922,11 @@
       <c r="G245" s="3">
         <v>3301061215</v>
       </c>
-    </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H245" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" s="3"/>
       <c r="B246" s="3" t="s">
         <v>516</v>
@@ -9241,8 +9942,11 @@
       <c r="G246" s="3">
         <v>3301081000</v>
       </c>
-    </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H246" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" s="3">
         <v>655</v>
       </c>
@@ -9264,8 +9968,11 @@
       <c r="G247" s="3">
         <v>3301061200</v>
       </c>
-    </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H247" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" s="3">
         <v>655</v>
       </c>
@@ -9285,8 +9992,11 @@
       <c r="G248" s="3">
         <v>3301061200</v>
       </c>
-    </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H248" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" s="3">
         <v>771</v>
       </c>
@@ -9306,8 +10016,11 @@
       <c r="G249" s="3">
         <v>3301061200</v>
       </c>
-    </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H249" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" s="3">
         <v>650</v>
       </c>
@@ -9327,8 +10040,11 @@
       <c r="G250" s="3">
         <v>3301061200</v>
       </c>
-    </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H250" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" s="3">
         <v>654</v>
       </c>
@@ -9348,8 +10064,11 @@
       <c r="G251" s="3">
         <v>3301061200</v>
       </c>
-    </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H251" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" s="3">
         <v>650</v>
       </c>
@@ -9369,8 +10088,11 @@
       <c r="G252" s="3">
         <v>3301061200</v>
       </c>
-    </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H252" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" s="3">
         <v>650</v>
       </c>
@@ -9390,8 +10112,11 @@
       <c r="G253" s="3">
         <v>3301061200</v>
       </c>
-    </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H253" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" s="3">
         <v>654</v>
       </c>
@@ -9413,8 +10138,11 @@
       <c r="G254" s="3">
         <v>3301061211</v>
       </c>
-    </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H254" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" s="3">
         <v>654</v>
       </c>
@@ -9434,8 +10162,11 @@
       <c r="G255" s="3">
         <v>3301061211</v>
       </c>
-    </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H255" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" s="3">
         <v>637</v>
       </c>
@@ -9457,8 +10188,11 @@
       <c r="G256" s="3">
         <v>3301310000</v>
       </c>
-    </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H256" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" s="3">
         <v>637</v>
       </c>
@@ -9478,8 +10212,11 @@
       <c r="G257" s="3">
         <v>3301310000</v>
       </c>
-    </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H257" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" s="3">
         <v>637</v>
       </c>
@@ -9499,8 +10236,11 @@
       <c r="G258" s="3">
         <v>3301310000</v>
       </c>
-    </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H258" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" s="3">
         <v>633</v>
       </c>
@@ -9522,8 +10262,11 @@
       <c r="G259" s="3">
         <v>3301220000</v>
       </c>
-    </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H259" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" s="3"/>
       <c r="B260" s="3" t="s">
         <v>548</v>
@@ -9539,8 +10282,11 @@
       <c r="G260" s="3">
         <v>3301061219</v>
       </c>
-    </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H260" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" s="3">
         <v>913</v>
       </c>
@@ -9560,8 +10306,11 @@
       <c r="G261" s="3">
         <v>3301020000</v>
       </c>
-    </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H261" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" s="3">
         <v>341</v>
       </c>
@@ -9581,8 +10330,11 @@
       <c r="G262" s="4">
         <v>3301060701</v>
       </c>
-    </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H262" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" s="3">
         <v>341</v>
       </c>
@@ -9604,8 +10356,11 @@
       <c r="G263" s="4">
         <v>3301060701</v>
       </c>
-    </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H263" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" s="3">
         <v>393</v>
       </c>
@@ -9627,8 +10382,11 @@
       <c r="G264" s="3">
         <v>3301061500</v>
       </c>
-    </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H264" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" s="3">
         <v>292</v>
       </c>
@@ -9650,8 +10408,11 @@
       <c r="G265" s="3">
         <v>3301020500</v>
       </c>
-    </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H265" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" s="3">
         <v>292</v>
       </c>
@@ -9671,8 +10432,11 @@
       <c r="G266" s="3">
         <v>3301020500</v>
       </c>
-    </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H266" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267" s="3">
         <v>230</v>
       </c>
@@ -9692,8 +10456,11 @@
       <c r="G267" s="3">
         <v>3301020700</v>
       </c>
-    </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H267" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268" s="3">
         <v>230</v>
       </c>
@@ -9713,8 +10480,11 @@
       <c r="G268" s="3">
         <v>3301020700</v>
       </c>
-    </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H268" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269" s="3">
         <v>230</v>
       </c>
@@ -9736,8 +10506,11 @@
       <c r="G269" s="3">
         <v>3301020700</v>
       </c>
-    </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H269" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270" s="3">
         <v>230</v>
       </c>
@@ -9757,8 +10530,11 @@
       <c r="G270" s="3">
         <v>3301020700</v>
       </c>
-    </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H270" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271" s="3">
         <v>423</v>
       </c>
@@ -9778,8 +10554,11 @@
       <c r="G271" s="3">
         <v>3301090301</v>
       </c>
-    </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H271" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272" s="3">
         <v>423</v>
       </c>
@@ -9801,8 +10580,11 @@
       <c r="G272" s="3">
         <v>3301090301</v>
       </c>
-    </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H272" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273" s="3">
         <v>433</v>
       </c>
@@ -9824,8 +10606,11 @@
       <c r="G273" s="3">
         <v>3301090301</v>
       </c>
-    </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H273" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274" s="3">
         <v>452</v>
       </c>
@@ -9845,8 +10630,11 @@
       <c r="G274" s="3">
         <v>3302000000</v>
       </c>
-    </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H274" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275" s="3">
         <v>172</v>
       </c>
@@ -9866,8 +10654,11 @@
       <c r="G275" s="3">
         <v>3301010600</v>
       </c>
-    </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H275" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" s="3">
         <v>171</v>
       </c>
@@ -9889,8 +10680,11 @@
       <c r="G276" s="3">
         <v>3301010600</v>
       </c>
-    </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H276" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277" s="3">
         <v>172</v>
       </c>
@@ -9910,8 +10704,11 @@
       <c r="G277" s="3">
         <v>3301010600</v>
       </c>
-    </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H277" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278" s="3">
         <v>177</v>
       </c>
@@ -9931,8 +10728,11 @@
       <c r="G278" s="3">
         <v>3301010600</v>
       </c>
-    </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H278" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279" s="3">
         <v>176</v>
       </c>
@@ -9952,8 +10752,11 @@
       <c r="G279" s="3">
         <v>3301010600</v>
       </c>
-    </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H279" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280" s="3">
         <v>177</v>
       </c>
@@ -9973,8 +10776,11 @@
       <c r="G280" s="3">
         <v>3301010600</v>
       </c>
-    </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H280" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281" s="3">
         <v>177</v>
       </c>
@@ -9994,8 +10800,11 @@
       <c r="G281" s="3">
         <v>3301010600</v>
       </c>
-    </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H281" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282" s="3">
         <v>639</v>
       </c>
@@ -10015,8 +10824,11 @@
       <c r="G282" s="3">
         <v>3301290200</v>
       </c>
-    </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H282" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283" s="3">
         <v>639</v>
       </c>
@@ -10033,13 +10845,16 @@
         <v>602</v>
       </c>
       <c r="F283" s="3" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="G283" s="3">
         <v>3301310100</v>
       </c>
-    </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H283" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284" s="3">
         <v>646</v>
       </c>
@@ -10059,8 +10874,11 @@
       <c r="G284" s="3">
         <v>3301210400</v>
       </c>
-    </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H284" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285" s="3">
         <v>646</v>
       </c>
@@ -10082,8 +10900,11 @@
       <c r="G285" s="3">
         <v>3301210400</v>
       </c>
-    </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H285" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286" s="3">
         <v>11</v>
       </c>
@@ -10103,8 +10924,11 @@
       <c r="G286" s="3">
         <v>3303000000</v>
       </c>
-    </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H286" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287" s="3">
         <v>631</v>
       </c>
@@ -10124,8 +10948,11 @@
       <c r="G287" s="3">
         <v>3301140500</v>
       </c>
-    </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H287" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288" s="3">
         <v>631</v>
       </c>
@@ -10147,8 +10974,11 @@
       <c r="G288" s="3">
         <v>3301140500</v>
       </c>
-    </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H288" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289" s="3">
         <v>175</v>
       </c>
@@ -10168,8 +10998,11 @@
       <c r="G289" s="3">
         <v>3301990000</v>
       </c>
-    </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H289" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290" s="3"/>
       <c r="B290" s="3" t="s">
         <v>618</v>
@@ -10185,8 +11018,11 @@
       <c r="G290" s="3">
         <v>3301990000</v>
       </c>
-    </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H290" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A291" s="3">
         <v>51</v>
       </c>
@@ -10206,8 +11042,11 @@
       <c r="G291" s="3">
         <v>3301990000</v>
       </c>
-    </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H291" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292" s="3">
         <v>51</v>
       </c>
@@ -10227,8 +11066,11 @@
       <c r="G292" s="3">
         <v>3301990000</v>
       </c>
-    </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H292" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293" s="3">
         <v>50</v>
       </c>
@@ -10248,8 +11090,11 @@
       <c r="G293" s="3">
         <v>3301990000</v>
       </c>
-    </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H293" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A294" s="3">
         <v>50</v>
       </c>
@@ -10269,8 +11114,11 @@
       <c r="G294" s="3">
         <v>3301990000</v>
       </c>
-    </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H294" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295" s="3">
         <v>634</v>
       </c>
@@ -10290,8 +11138,11 @@
       <c r="G295" s="3">
         <v>3301290300</v>
       </c>
-    </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H295" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A296" s="3">
         <v>706</v>
       </c>
@@ -10313,8 +11164,11 @@
       <c r="G296" s="3">
         <v>3301060600</v>
       </c>
-    </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H296" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A297" s="3">
         <v>183</v>
       </c>
@@ -10336,8 +11190,11 @@
       <c r="G297" s="3">
         <v>3301010900</v>
       </c>
-    </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H297" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A298" s="3">
         <v>183</v>
       </c>
@@ -10357,8 +11214,11 @@
       <c r="G298" s="3">
         <v>3301010900</v>
       </c>
-    </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H298" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299" s="3">
         <v>452</v>
       </c>
@@ -10380,8 +11240,11 @@
       <c r="G299" s="3">
         <v>3302000000</v>
       </c>
-    </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H299" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A300" s="3">
         <v>634</v>
       </c>
@@ -10403,8 +11266,11 @@
       <c r="G300" s="3">
         <v>3301290300</v>
       </c>
-    </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H300" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A301" s="3">
         <v>563</v>
       </c>
@@ -10424,8 +11290,11 @@
       <c r="G301" s="3">
         <v>3308000000</v>
       </c>
-    </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H301" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A302" s="3">
         <v>564</v>
       </c>
@@ -10445,8 +11314,11 @@
       <c r="G302" s="3">
         <v>3306010000</v>
       </c>
-    </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H302" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A303" s="3"/>
       <c r="B303" s="3" t="s">
         <v>645</v>
@@ -10462,8 +11334,11 @@
       <c r="G303" s="3">
         <v>3301083500</v>
       </c>
-    </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H303" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A304" s="3">
         <v>583</v>
       </c>
@@ -10483,8 +11358,11 @@
       <c r="G304" s="3">
         <v>3399000000</v>
       </c>
-    </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H304" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A305" s="3">
         <v>11</v>
       </c>
@@ -10506,8 +11384,11 @@
       <c r="G305" s="3">
         <v>3399000000</v>
       </c>
-    </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H305" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A306" s="3">
         <v>4</v>
       </c>
@@ -10527,8 +11408,11 @@
       <c r="G306" s="3">
         <v>3399000000</v>
       </c>
-    </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H306" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A307" s="3">
         <v>992</v>
       </c>
@@ -10548,8 +11432,11 @@
       <c r="G307" s="3">
         <v>3399000000</v>
       </c>
-    </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H307" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A308" s="3"/>
       <c r="B308" s="3" t="s">
         <v>656</v>
@@ -10565,8 +11452,11 @@
       <c r="G308" s="3">
         <v>3399000000</v>
       </c>
-    </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H308" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A309" s="3">
         <v>583</v>
       </c>
@@ -10586,8 +11476,11 @@
       <c r="G309" s="3">
         <v>3399000000</v>
       </c>
-    </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H309" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A310" s="3">
         <v>583</v>
       </c>
@@ -10607,8 +11500,11 @@
       <c r="G310" s="3">
         <v>3399000000</v>
       </c>
-    </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H310" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A311" s="3">
         <v>583</v>
       </c>
@@ -10628,8 +11524,11 @@
       <c r="G311" s="3">
         <v>3399000000</v>
       </c>
-    </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H311" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A312" s="3">
         <v>583</v>
       </c>
@@ -10649,8 +11548,11 @@
       <c r="G312" s="3">
         <v>3399000000</v>
       </c>
-    </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H312" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A313" s="3"/>
       <c r="B313" s="3" t="s">
         <v>666</v>
@@ -10666,8 +11568,11 @@
       <c r="G313" s="3">
         <v>3399000000</v>
       </c>
-    </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H313" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A314" s="3"/>
       <c r="B314" s="3" t="s">
         <v>668</v>
@@ -10683,8 +11588,11 @@
       <c r="G314" s="3">
         <v>3399000000</v>
       </c>
-    </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H314" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A315" s="3">
         <v>390</v>
       </c>
@@ -10704,8 +11612,11 @@
       <c r="G315" s="3">
         <v>3301060800</v>
       </c>
-    </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H315" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A316" s="3">
         <v>341</v>
       </c>
@@ -10725,8 +11636,11 @@
       <c r="G316" s="3">
         <v>3301060702</v>
       </c>
-    </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H316" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A317" s="3">
         <v>341</v>
       </c>
@@ -10746,8 +11660,11 @@
       <c r="G317" s="3">
         <v>3301060702</v>
       </c>
-    </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H317" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A318" s="3">
         <v>891</v>
       </c>
@@ -10767,8 +11684,11 @@
       <c r="G318" s="3">
         <v>3306000000</v>
       </c>
-    </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H318" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A319" s="3">
         <v>624</v>
       </c>
@@ -10790,8 +11710,11 @@
       <c r="G319" s="3">
         <v>3301300000</v>
       </c>
-    </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H319" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A320" s="3">
         <v>7</v>
       </c>
@@ -10813,8 +11736,11 @@
       <c r="G320" s="3">
         <v>3399000000</v>
       </c>
-    </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H320" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A321" s="3">
         <v>643</v>
       </c>
@@ -10834,8 +11760,11 @@
       <c r="G321" s="3">
         <v>3301290500</v>
       </c>
-    </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H321" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A322" s="3">
         <v>659</v>
       </c>
@@ -10857,8 +11786,11 @@
       <c r="G322" s="3">
         <v>3301061227</v>
       </c>
-    </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H322" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A323" s="3">
         <v>659</v>
       </c>
@@ -10878,8 +11810,11 @@
       <c r="G323" s="3">
         <v>3301061227</v>
       </c>
-    </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H323" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A324" s="3">
         <v>830</v>
       </c>
@@ -10899,8 +11834,11 @@
       <c r="G324" s="3">
         <v>3303010000</v>
       </c>
-    </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H324" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A325" s="3">
         <v>830</v>
       </c>
@@ -10922,8 +11860,11 @@
       <c r="G325" s="3">
         <v>3303010000</v>
       </c>
-    </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H325" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A326" s="3">
         <v>821</v>
       </c>
@@ -10945,8 +11886,11 @@
       <c r="G326" s="3">
         <v>3303010000</v>
       </c>
-    </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H326" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A327" s="3">
         <v>866</v>
       </c>
@@ -10968,8 +11912,11 @@
       <c r="G327" s="3">
         <v>3301061000</v>
       </c>
-    </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H327" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A328" s="3">
         <v>615</v>
       </c>
@@ -10991,8 +11938,11 @@
       <c r="G328" s="3">
         <v>3301030000</v>
       </c>
-    </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H328" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A329" s="3">
         <v>606</v>
       </c>
@@ -11014,8 +11964,11 @@
       <c r="G329" s="3">
         <v>3301030000</v>
       </c>
-    </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H329" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A330" s="3">
         <v>6</v>
       </c>
@@ -11037,8 +11990,11 @@
       <c r="G330" s="3">
         <v>3301030000</v>
       </c>
-    </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H330" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A331" s="3">
         <v>832</v>
       </c>
@@ -11060,8 +12016,11 @@
       <c r="G331" s="3">
         <v>3303011300</v>
       </c>
-    </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H331" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A332" s="3">
         <v>823</v>
       </c>
@@ -11083,8 +12042,11 @@
       <c r="G332" s="3">
         <v>3303011300</v>
       </c>
-    </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H332" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A333" s="3">
         <v>777</v>
       </c>
@@ -11106,8 +12068,11 @@
       <c r="G333" s="3">
         <v>3301061400</v>
       </c>
-    </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H333" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A334" s="3">
         <v>733</v>
       </c>
@@ -11127,8 +12092,11 @@
       <c r="G334" s="3">
         <v>3304000000</v>
       </c>
-    </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H334" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A335" s="3">
         <v>981</v>
       </c>
@@ -11148,8 +12116,11 @@
       <c r="G335" s="3">
         <v>3304000000</v>
       </c>
-    </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H335" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A336" s="3">
         <v>212</v>
       </c>
@@ -11171,8 +12142,11 @@
       <c r="G336" s="3">
         <v>3301020600</v>
       </c>
-    </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H336" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A337" s="3">
         <v>57</v>
       </c>
@@ -11192,8 +12166,11 @@
       <c r="G337" s="3">
         <v>3302000000</v>
       </c>
-    </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H337" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A338" s="3">
         <v>56</v>
       </c>
@@ -11213,8 +12190,11 @@
       <c r="G338" s="3">
         <v>3302000000</v>
       </c>
-    </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H338" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A339" s="3">
         <v>57</v>
       </c>
@@ -11234,8 +12214,11 @@
       <c r="G339" s="3">
         <v>3302000000</v>
       </c>
-    </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H339" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A340" s="3">
         <v>57</v>
       </c>
@@ -11255,8 +12238,11 @@
       <c r="G340" s="3">
         <v>3302000000</v>
       </c>
-    </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H340" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A341" s="3">
         <v>56</v>
       </c>
@@ -11276,8 +12262,11 @@
       <c r="G341" s="3">
         <v>3302000000</v>
       </c>
-    </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H341" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A342" s="3">
         <v>187</v>
       </c>
@@ -11299,8 +12288,11 @@
       <c r="G342" s="3">
         <v>3301150300</v>
       </c>
-    </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H342" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A343" s="3">
         <v>842</v>
       </c>
@@ -11322,8 +12314,11 @@
       <c r="G343" s="3">
         <v>3303060000</v>
       </c>
-    </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H343" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A344" s="3">
         <v>850</v>
       </c>
@@ -11345,8 +12340,11 @@
       <c r="G344" s="3">
         <v>3303060000</v>
       </c>
-    </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H344" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A345" s="3">
         <v>892</v>
       </c>
@@ -11368,8 +12366,11 @@
       <c r="G345" s="3">
         <v>3301230000</v>
       </c>
-    </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H345" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A346" s="3">
         <v>851</v>
       </c>
@@ -11391,8 +12392,11 @@
       <c r="G346" s="3">
         <v>3301230000</v>
       </c>
-    </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H346" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A347" s="3">
         <v>629</v>
       </c>
@@ -11412,8 +12416,11 @@
       <c r="G347" s="3">
         <v>3301140400</v>
       </c>
-    </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H347" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A348" s="3">
         <v>629</v>
       </c>
@@ -11435,8 +12442,11 @@
       <c r="G348" s="3">
         <v>3301140400</v>
       </c>
-    </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H348" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A349" s="3">
         <v>629</v>
       </c>
@@ -11456,8 +12466,11 @@
       <c r="G349" s="3">
         <v>3301140400</v>
       </c>
-    </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H349" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A350" s="3">
         <v>853</v>
       </c>
@@ -11477,8 +12490,11 @@
       <c r="G350" s="3">
         <v>3301090200</v>
       </c>
-    </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H350" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A351" s="3">
         <v>853</v>
       </c>
@@ -11500,8 +12516,11 @@
       <c r="G351" s="3">
         <v>3301090200</v>
       </c>
-    </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H351" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A352" s="3">
         <v>181</v>
       </c>
@@ -11523,8 +12542,11 @@
       <c r="G352" s="3">
         <v>3301010900</v>
       </c>
-    </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H352" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A353" s="3">
         <v>181</v>
       </c>
@@ -11544,8 +12566,11 @@
       <c r="G353" s="3">
         <v>3301010900</v>
       </c>
-    </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H353" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A354" s="3">
         <v>181</v>
       </c>
@@ -11565,8 +12590,11 @@
       <c r="G354" s="3">
         <v>3301010900</v>
       </c>
-    </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H354" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A355" s="3">
         <v>120</v>
       </c>
@@ -11586,8 +12614,11 @@
       <c r="G355" s="3">
         <v>3301090207</v>
       </c>
-    </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H355" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A356" s="3">
         <v>854</v>
       </c>
@@ -11607,8 +12638,11 @@
       <c r="G356" s="3">
         <v>3301011400</v>
       </c>
-    </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H356" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A357" s="3">
         <v>794</v>
       </c>
@@ -11628,8 +12662,11 @@
       <c r="G357" s="3">
         <v>3301090207</v>
       </c>
-    </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H357" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A358" s="3">
         <v>702</v>
       </c>
@@ -11649,8 +12686,11 @@
       <c r="G358" s="3">
         <v>3301090207</v>
       </c>
-    </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H358" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A359" s="3">
         <v>702</v>
       </c>
@@ -11672,8 +12712,11 @@
       <c r="G359" s="3">
         <v>3301090207</v>
       </c>
-    </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H359" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A360" s="3">
         <v>863</v>
       </c>
@@ -11693,8 +12736,11 @@
       <c r="G360" s="3">
         <v>3301083700</v>
       </c>
-    </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H360" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A361" s="3">
         <v>413</v>
       </c>
@@ -11714,8 +12760,11 @@
       <c r="G361" s="2">
         <v>3301290400</v>
       </c>
-    </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H361" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A362" s="3">
         <v>806</v>
       </c>
@@ -11737,8 +12786,11 @@
       <c r="G362" s="3">
         <v>3301090208</v>
       </c>
-    </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H362" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A363" s="3">
         <v>627</v>
       </c>
@@ -11758,8 +12810,11 @@
       <c r="G363" s="3">
         <v>3301140100</v>
       </c>
-    </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H363" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A364" s="3"/>
       <c r="B364" s="3" t="s">
         <v>770</v>
@@ -11775,8 +12830,11 @@
       <c r="G364" s="3">
         <v>3301190000</v>
       </c>
-    </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H364" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A365" s="3">
         <v>828</v>
       </c>
@@ -11798,8 +12856,11 @@
       <c r="G365" s="3">
         <v>3303020800</v>
       </c>
-    </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H365" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A366" s="3">
         <v>818</v>
       </c>
@@ -11821,8 +12882,11 @@
       <c r="G366" s="3">
         <v>3303020800</v>
       </c>
-    </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H366" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A367" s="3"/>
       <c r="B367" s="3" t="s">
         <v>776</v>
@@ -11838,8 +12902,11 @@
       <c r="G367" s="3">
         <v>3301061239</v>
       </c>
-    </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H367" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="368" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A368" s="3">
         <v>641</v>
       </c>
@@ -11861,8 +12928,11 @@
       <c r="G368" s="3">
         <v>3301250000</v>
       </c>
-    </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H368" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A369" s="3">
         <v>641</v>
       </c>
@@ -11882,8 +12952,11 @@
       <c r="G369" s="3">
         <v>3301250000</v>
       </c>
-    </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H369" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A370" s="3">
         <v>641</v>
       </c>
@@ -11903,8 +12976,11 @@
       <c r="G370" s="3">
         <v>3301250000</v>
       </c>
-    </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H370" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A371" s="3">
         <v>616</v>
       </c>
@@ -11924,8 +13000,11 @@
       <c r="G371" s="3">
         <v>3301210100</v>
       </c>
-    </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H371" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A372" s="3">
         <v>430</v>
       </c>
@@ -11947,8 +13026,11 @@
       <c r="G372" s="3">
         <v>3301084200</v>
       </c>
-    </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H372" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A373" s="3">
         <v>411</v>
       </c>
@@ -11968,8 +13050,11 @@
       <c r="G373" s="3">
         <v>3301090400</v>
       </c>
-    </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H373" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A374" s="3">
         <v>411</v>
       </c>
@@ -11991,8 +13076,11 @@
       <c r="G374" s="3">
         <v>3301090400</v>
       </c>
-    </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H374" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A375" s="3">
         <v>802</v>
       </c>
@@ -12014,8 +13102,11 @@
       <c r="G375" s="3">
         <v>3301084400</v>
       </c>
-    </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H375" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A376" s="3">
         <v>330</v>
       </c>
@@ -12037,8 +13128,11 @@
       <c r="G376" s="3">
         <v>3301160000</v>
       </c>
-    </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H376" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A377" s="3">
         <v>330</v>
       </c>
@@ -12058,8 +13152,11 @@
       <c r="G377" s="3">
         <v>3301160000</v>
       </c>
-    </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H377" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A378" s="3">
         <v>120</v>
       </c>
@@ -12081,8 +13178,11 @@
       <c r="G378" s="3">
         <v>3301011002</v>
       </c>
-    </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H378" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A379" s="3">
         <v>119</v>
       </c>
@@ -12104,8 +13204,11 @@
       <c r="G379" s="3">
         <v>3301011202</v>
       </c>
-    </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H379" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A380" s="3"/>
       <c r="B380" s="3" t="s">
         <v>820</v>
@@ -12121,8 +13224,11 @@
       <c r="G380" s="3">
         <v>3301010202</v>
       </c>
-    </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H380" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A381" s="3">
         <v>132</v>
       </c>
@@ -12144,8 +13250,11 @@
       <c r="G381" s="3">
         <v>3301010402</v>
       </c>
-    </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H381" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A382" s="3">
         <v>143</v>
       </c>
@@ -12167,8 +13276,11 @@
       <c r="G382" s="3">
         <v>3301010502</v>
       </c>
-    </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H382" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="383" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A383" s="3">
         <v>113</v>
       </c>
@@ -12188,8 +13300,11 @@
       <c r="G383" s="3">
         <v>3301010201</v>
       </c>
-    </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H383" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A384" s="3">
         <v>312</v>
       </c>
@@ -12211,8 +13326,11 @@
       <c r="G384" s="3">
         <v>3301060403</v>
       </c>
-    </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H384" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="385" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A385" s="3">
         <v>312</v>
       </c>
@@ -12232,8 +13350,11 @@
       <c r="G385" s="3">
         <v>3301060403</v>
       </c>
-    </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H385" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A386" s="3">
         <v>122</v>
       </c>
@@ -12253,8 +13374,11 @@
       <c r="G386" s="3">
         <v>3301010302</v>
       </c>
-    </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H386" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A387" s="3">
         <v>122</v>
       </c>
@@ -12276,8 +13400,11 @@
       <c r="G387" s="3">
         <v>3301010302</v>
       </c>
-    </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H387" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A388" s="3">
         <v>316</v>
       </c>
@@ -12297,8 +13424,11 @@
       <c r="G388" s="3">
         <v>3301290800</v>
       </c>
-    </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H388" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A389" s="3">
         <v>316</v>
       </c>
@@ -12318,8 +13448,11 @@
       <c r="G389" s="3">
         <v>3301290800</v>
       </c>
-    </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H389" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A390" s="3">
         <v>316</v>
       </c>
@@ -12339,8 +13472,11 @@
       <c r="G390" s="3">
         <v>3301290800</v>
       </c>
-    </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H390" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A391" s="3">
         <v>157</v>
       </c>
@@ -12362,8 +13498,11 @@
       <c r="G391" s="3">
         <v>3301010802</v>
       </c>
-    </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H391" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A392" s="3">
         <v>116</v>
       </c>
@@ -12385,8 +13524,11 @@
       <c r="G392" s="3">
         <v>3301010102</v>
       </c>
-    </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H392" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A393" s="3">
         <v>116</v>
       </c>
@@ -12406,8 +13548,11 @@
       <c r="G393" s="3">
         <v>3301010102</v>
       </c>
-    </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H393" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="394" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A394" s="3">
         <v>116</v>
       </c>
@@ -12427,8 +13572,11 @@
       <c r="G394" s="3">
         <v>3301010102</v>
       </c>
-    </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H394" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="395" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A395" s="3">
         <v>320</v>
       </c>
@@ -12450,8 +13598,11 @@
       <c r="G395" s="3">
         <v>3301060500</v>
       </c>
-    </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H395" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="396" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A396" s="3">
         <v>320</v>
       </c>
@@ -12471,8 +13622,11 @@
       <c r="G396" s="3">
         <v>3301060500</v>
       </c>
-    </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H396" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="397" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A397" s="3">
         <v>814</v>
       </c>
@@ -12492,8 +13646,11 @@
       <c r="G397" s="3">
         <v>3303010000</v>
       </c>
-    </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H397" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="398" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A398" s="3">
         <v>814</v>
       </c>
@@ -12513,8 +13670,11 @@
       <c r="G398" s="3">
         <v>3303010000</v>
       </c>
-    </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H398" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="399" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A399" s="3">
         <v>828</v>
       </c>
@@ -12534,8 +13694,11 @@
       <c r="G399" s="3">
         <v>3303010000</v>
       </c>
-    </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H399" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="400" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A400" s="3">
         <v>890</v>
       </c>
@@ -12557,8 +13720,11 @@
       <c r="G400" s="3">
         <v>3303990000</v>
       </c>
-    </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H400" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="401" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A401" s="3">
         <v>850</v>
       </c>
@@ -12580,8 +13746,11 @@
       <c r="G401" s="3">
         <v>3303990000</v>
       </c>
-    </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H401" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A402" s="3">
         <v>982</v>
       </c>
@@ -12603,8 +13772,11 @@
       <c r="G402" s="3">
         <v>3303990000</v>
       </c>
-    </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H402" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A403" s="3">
         <v>619</v>
       </c>
@@ -12624,8 +13796,11 @@
       <c r="G403" s="3">
         <v>3301030000</v>
       </c>
-    </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H403" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="404" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A404" s="3">
         <v>819</v>
       </c>
@@ -12645,8 +13820,11 @@
       <c r="G404" s="3">
         <v>3303010000</v>
       </c>
-    </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H404" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="405" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A405" s="3">
         <v>612</v>
       </c>
@@ -12666,8 +13844,11 @@
       <c r="G405" s="3">
         <v>3301030000</v>
       </c>
-    </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H405" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="406" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A406" s="3">
         <v>183</v>
       </c>
@@ -12687,8 +13868,11 @@
       <c r="G406" s="3">
         <v>3301010900</v>
       </c>
-    </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H406" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="407" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A407" s="3">
         <v>624</v>
       </c>
@@ -12708,8 +13892,11 @@
       <c r="G407" s="3">
         <v>3301300000</v>
       </c>
-    </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H407" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="408" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A408" s="3">
         <v>715</v>
       </c>
@@ -12731,8 +13918,11 @@
       <c r="G408" s="3">
         <v>3301200000</v>
       </c>
-    </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H408" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="409" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A409" s="3">
         <v>860</v>
       </c>
@@ -12754,8 +13944,11 @@
       <c r="G409" s="3">
         <v>3301200000</v>
       </c>
-    </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H409" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="410" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A410" s="3">
         <v>8</v>
       </c>
@@ -12777,8 +13970,11 @@
       <c r="G410" s="3">
         <v>3305000000</v>
       </c>
-    </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H410" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="411" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A411" s="3">
         <v>8</v>
       </c>
@@ -12800,8 +13996,11 @@
       <c r="G411" s="3">
         <v>3305000000</v>
       </c>
-    </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H411" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="412" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A412" s="3">
         <v>602</v>
       </c>
@@ -12821,8 +14020,11 @@
       <c r="G412" s="3">
         <v>3301030000</v>
       </c>
-    </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H412" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="413" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A413" s="3">
         <v>638</v>
       </c>
@@ -12842,8 +14044,11 @@
       <c r="G413" s="3">
         <v>3301310800</v>
       </c>
-    </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H413" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="414" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A414" s="3">
         <v>601</v>
       </c>
@@ -12863,8 +14068,11 @@
       <c r="G414" s="3">
         <v>3301030000</v>
       </c>
-    </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H414" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="415" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A415" s="3">
         <v>641</v>
       </c>
@@ -12884,8 +14092,11 @@
       <c r="G415" s="3">
         <v>3301030000</v>
       </c>
-    </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H415" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="416" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A416" s="3">
         <v>640</v>
       </c>
@@ -12905,8 +14116,11 @@
       <c r="G416" s="3">
         <v>3301030000</v>
       </c>
-    </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H416" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="417" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A417" s="3">
         <v>616</v>
       </c>
@@ -12926,8 +14140,11 @@
       <c r="G417" s="3">
         <v>3301030000</v>
       </c>
-    </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H417" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="418" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A418" s="3">
         <v>642</v>
       </c>
@@ -12947,8 +14164,11 @@
       <c r="G418" s="3">
         <v>3301030000</v>
       </c>
-    </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H418" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="419" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A419" s="3">
         <v>641</v>
       </c>
@@ -12968,8 +14188,11 @@
       <c r="G419" s="3">
         <v>3301030000</v>
       </c>
-    </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H419" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="420" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A420" s="3">
         <v>620</v>
       </c>
@@ -12989,8 +14212,11 @@
       <c r="G420" s="3">
         <v>3301210500</v>
       </c>
-    </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H420" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="421" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A421" s="3">
         <v>620</v>
       </c>
@@ -13010,8 +14236,11 @@
       <c r="G421" s="3">
         <v>3301210500</v>
       </c>
-    </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H421" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="422" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A422" s="3">
         <v>620</v>
       </c>
@@ -13033,8 +14262,11 @@
       <c r="G422" s="3">
         <v>3301210500</v>
       </c>
-    </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H422" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="423" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A423" s="3">
         <v>431</v>
       </c>
@@ -13056,8 +14288,11 @@
       <c r="G423" s="3">
         <v>3301090303</v>
       </c>
-    </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H423" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="424" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A424" s="3">
         <v>816</v>
       </c>
@@ -13079,8 +14314,11 @@
       <c r="G424" s="3">
         <v>3303010000</v>
       </c>
-    </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H424" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="425" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A425" s="3">
         <v>826</v>
       </c>
@@ -13102,8 +14340,11 @@
       <c r="G425" s="3">
         <v>3303010000</v>
       </c>
-    </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H425" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="426" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A426" s="3">
         <v>516</v>
       </c>
@@ -13123,8 +14364,11 @@
       <c r="G426" s="3">
         <v>3308000000</v>
       </c>
-    </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H426" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="427" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A427" s="3">
         <v>517</v>
       </c>
@@ -13144,8 +14388,11 @@
       <c r="G427" s="3">
         <v>3308000000</v>
       </c>
-    </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H427" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="428" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A428" s="3">
         <v>545</v>
       </c>
@@ -13165,8 +14412,11 @@
       <c r="G428" s="3">
         <v>3308000000</v>
       </c>
-    </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H428" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="429" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A429" s="3">
         <v>545</v>
       </c>
@@ -13188,8 +14438,11 @@
       <c r="G429" s="3">
         <v>3308000000</v>
       </c>
-    </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H429" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="430" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A430" s="3">
         <v>511</v>
       </c>
@@ -13209,8 +14462,11 @@
       <c r="G430" s="3">
         <v>3308000000</v>
       </c>
-    </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H430" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="431" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A431" s="3">
         <v>54</v>
       </c>
@@ -13230,8 +14486,11 @@
       <c r="G431" s="3">
         <v>3399000000</v>
       </c>
-    </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H431" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="432" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A432" s="3">
         <v>54</v>
       </c>
@@ -13251,8 +14510,11 @@
       <c r="G432" s="3">
         <v>3399000000</v>
       </c>
-    </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H432" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="433" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A433" s="3">
         <v>54</v>
       </c>
@@ -13272,8 +14534,11 @@
       <c r="G433" s="3">
         <v>3399000000</v>
       </c>
-    </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H433" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="434" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A434" s="3">
         <v>812</v>
       </c>
@@ -13295,8 +14560,11 @@
       <c r="G434" s="3">
         <v>3303010000</v>
       </c>
-    </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H434" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="435" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A435" s="3">
         <v>822</v>
       </c>
@@ -13318,8 +14586,11 @@
       <c r="G435" s="3">
         <v>3303010000</v>
       </c>
-    </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H435" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="436" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A436" s="3">
         <v>480</v>
       </c>
@@ -13339,8 +14610,11 @@
       <c r="G436" s="3">
         <v>3303010000</v>
       </c>
-    </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H436" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="437" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A437" s="3">
         <v>480</v>
       </c>
@@ -13362,8 +14636,11 @@
       <c r="G437" s="3">
         <v>3303010000</v>
       </c>
-    </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H437" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="438" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A438" s="3">
         <v>458</v>
       </c>
@@ -13385,8 +14662,11 @@
       <c r="G438" s="3">
         <v>3302000000</v>
       </c>
-    </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H438" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="439" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A439" s="3">
         <v>601</v>
       </c>
@@ -13408,8 +14688,11 @@
       <c r="G439" s="3">
         <v>3301030000</v>
       </c>
-    </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H439" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="440" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A440" s="3">
         <v>980</v>
       </c>
@@ -13431,8 +14714,11 @@
       <c r="G440" s="3">
         <v>3301090200</v>
       </c>
-    </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H440" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="441" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A441" s="3">
         <v>803</v>
       </c>
@@ -13454,8 +14740,11 @@
       <c r="G441" s="3">
         <v>3301090200</v>
       </c>
-    </row>
-    <row r="442" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H441" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="442" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A442" s="3">
         <v>980</v>
       </c>
@@ -13475,8 +14764,11 @@
       <c r="G442" s="3">
         <v>3301090200</v>
       </c>
-    </row>
-    <row r="443" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H442" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="443" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A443" s="3">
         <v>605</v>
       </c>
@@ -13496,8 +14788,11 @@
       <c r="G443" s="3">
         <v>3301040000</v>
       </c>
-    </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H443" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="444" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A444" s="3">
         <v>230</v>
       </c>
@@ -13517,8 +14812,11 @@
       <c r="G444" s="3">
         <v>3301020700</v>
       </c>
-    </row>
-    <row r="445" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H444" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="445" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A445" s="3">
         <v>605</v>
       </c>
@@ -13540,8 +14838,11 @@
       <c r="G445" s="3">
         <v>3301040000</v>
       </c>
-    </row>
-    <row r="446" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H445" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="446" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A446" s="3">
         <v>605</v>
       </c>
@@ -13561,8 +14862,11 @@
       <c r="G446" s="3">
         <v>3301040000</v>
       </c>
-    </row>
-    <row r="447" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H446" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="447" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A447" s="3">
         <v>760</v>
       </c>
@@ -13582,8 +14886,11 @@
       <c r="G447" s="3">
         <v>3301060100</v>
       </c>
-    </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H447" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="448" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A448" s="3"/>
       <c r="B448" s="3" t="s">
         <v>968</v>
@@ -13599,8 +14906,11 @@
       <c r="G448" s="3">
         <v>3301084700</v>
       </c>
-    </row>
-    <row r="449" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H448" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="449" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A449" s="3"/>
       <c r="B449" s="3" t="s">
         <v>971</v>
@@ -13616,8 +14926,11 @@
       <c r="G449" s="3">
         <v>3301061237</v>
       </c>
-    </row>
-    <row r="450" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H449" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="450" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A450" s="3">
         <v>622</v>
       </c>
@@ -13639,8 +14952,11 @@
       <c r="G450" s="3">
         <v>3301280000</v>
       </c>
-    </row>
-    <row r="451" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H450" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="451" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A451" s="3">
         <v>713</v>
       </c>
@@ -13660,8 +14976,11 @@
       <c r="G451" s="3">
         <v>3301280000</v>
       </c>
-    </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H451" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="452" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A452" s="3">
         <v>630</v>
       </c>
@@ -13683,8 +15002,11 @@
       <c r="G452" s="3">
         <v>3301180000</v>
       </c>
-    </row>
-    <row r="453" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H452" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="453" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A453" s="3">
         <v>604</v>
       </c>
@@ -13706,8 +15028,11 @@
       <c r="G453" s="3">
         <v>3301180000</v>
       </c>
-    </row>
-    <row r="454" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H453" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="454" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A454" s="3">
         <v>155</v>
       </c>
@@ -13727,8 +15052,11 @@
       <c r="G454" s="3">
         <v>3301010800</v>
       </c>
-    </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H454" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="455" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A455" s="3">
         <v>55</v>
       </c>
@@ -13748,8 +15076,11 @@
       <c r="G455" s="3">
         <v>3399000000</v>
       </c>
-    </row>
-    <row r="456" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H455" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="456" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A456" s="3">
         <v>55</v>
       </c>
@@ -13769,8 +15100,11 @@
       <c r="G456" s="3">
         <v>3399000000</v>
       </c>
-    </row>
-    <row r="457" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H456" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="457" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A457" s="3">
         <v>55</v>
       </c>
@@ -13790,8 +15124,11 @@
       <c r="G457" s="3">
         <v>3399000000</v>
       </c>
-    </row>
-    <row r="458" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H457" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="458" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A458" s="3">
         <v>996</v>
       </c>
@@ -13813,8 +15150,11 @@
       <c r="G458" s="3">
         <v>3399000000</v>
       </c>
-    </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H458" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="459" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A459" s="3">
         <v>994</v>
       </c>
@@ -13836,8 +15176,11 @@
       <c r="G459" s="3">
         <v>3302000000</v>
       </c>
-    </row>
-    <row r="460" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H459" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="460" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A460" s="3">
         <v>996</v>
       </c>
@@ -13857,8 +15200,11 @@
       <c r="G460" s="3">
         <v>3399000000</v>
       </c>
-    </row>
-    <row r="461" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H460" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="461" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A461" s="3">
         <v>994</v>
       </c>
@@ -13878,8 +15224,11 @@
       <c r="G461" s="3">
         <v>3302000000</v>
       </c>
-    </row>
-    <row r="462" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H461" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="462" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A462" s="3">
         <v>994</v>
       </c>
@@ -13899,8 +15248,11 @@
       <c r="G462" s="3">
         <v>3302000000</v>
       </c>
-    </row>
-    <row r="463" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H462" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="463" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A463" s="3">
         <v>996</v>
       </c>
@@ -13920,8 +15272,11 @@
       <c r="G463" s="3">
         <v>3399000000</v>
       </c>
-    </row>
-    <row r="464" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H463" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="464" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A464" s="3">
         <v>994</v>
       </c>
@@ -13941,8 +15296,11 @@
       <c r="G464" s="3">
         <v>3302000000</v>
       </c>
-    </row>
-    <row r="465" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H464" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="465" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A465" s="3">
         <v>966</v>
       </c>
@@ -13962,8 +15320,11 @@
       <c r="G465" s="3">
         <v>3308000000</v>
       </c>
-    </row>
-    <row r="466" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H465" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="466" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A466" s="3">
         <v>966</v>
       </c>
@@ -13985,8 +15346,11 @@
       <c r="G466" s="3">
         <v>3308000000</v>
       </c>
-    </row>
-    <row r="467" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H466" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="467" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A467" s="3">
         <v>914</v>
       </c>
@@ -14006,8 +15370,11 @@
       <c r="G467" s="3">
         <v>3301990000</v>
       </c>
-    </row>
-    <row r="468" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H467" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="468" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A468" s="3">
         <v>914</v>
       </c>
@@ -14029,8 +15396,11 @@
       <c r="G468" s="3">
         <v>3301990000</v>
       </c>
-    </row>
-    <row r="469" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H468" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="469" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A469" s="3">
         <v>804</v>
       </c>
@@ -14052,8 +15422,11 @@
       <c r="G469" s="3">
         <v>3304030000</v>
       </c>
-    </row>
-    <row r="470" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H469" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="470" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A470" s="3">
         <v>705</v>
       </c>
@@ -14075,8 +15448,11 @@
       <c r="G470" s="3">
         <v>3301060100</v>
       </c>
-    </row>
-    <row r="471" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H470" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="471" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A471" s="3">
         <v>825</v>
       </c>
@@ -14096,8 +15472,11 @@
       <c r="G471" s="3">
         <v>3303030600</v>
       </c>
-    </row>
-    <row r="472" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H471" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="472" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A472" s="3">
         <v>834</v>
       </c>
@@ -14117,8 +15496,11 @@
       <c r="G472" s="3">
         <v>3303030600</v>
       </c>
-    </row>
-    <row r="473" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H472" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="473" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A473" s="3">
         <v>834</v>
       </c>
@@ -14140,8 +15522,11 @@
       <c r="G473" s="3">
         <v>3303030600</v>
       </c>
-    </row>
-    <row r="474" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H473" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="474" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A474" s="3">
         <v>453</v>
       </c>
@@ -14161,8 +15546,11 @@
       <c r="G474" s="3">
         <v>3302000000</v>
       </c>
-    </row>
-    <row r="475" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H474" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="475" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A475" s="3">
         <v>453</v>
       </c>
@@ -14184,8 +15572,11 @@
       <c r="G475" s="3">
         <v>3302000000</v>
       </c>
-    </row>
-    <row r="476" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H475" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="476" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A476" s="3">
         <v>846</v>
       </c>
@@ -14205,8 +15596,11 @@
       <c r="G476" s="3">
         <v>3306000000</v>
       </c>
-    </row>
-    <row r="477" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H476" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="477" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A477" s="3">
         <v>983</v>
       </c>
@@ -14226,8 +15620,11 @@
       <c r="G477" s="3">
         <v>3306000000</v>
       </c>
-    </row>
-    <row r="478" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H477" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="478" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A478" s="3">
         <v>983</v>
       </c>
@@ -14249,8 +15646,11 @@
       <c r="G478" s="3">
         <v>3306000000</v>
       </c>
-    </row>
-    <row r="479" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H478" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="479" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A479" s="3">
         <v>619</v>
       </c>
@@ -14270,8 +15670,11 @@
       <c r="G479" s="3">
         <v>3301210100</v>
       </c>
-    </row>
-    <row r="480" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H479" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="480" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A480" s="3">
         <v>619</v>
       </c>
@@ -14291,8 +15694,11 @@
       <c r="G480" s="3">
         <v>3301210100</v>
       </c>
-    </row>
-    <row r="481" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H480" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="481" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A481" s="3">
         <v>619</v>
       </c>
@@ -14314,8 +15720,11 @@
       <c r="G481" s="3">
         <v>3301210100</v>
       </c>
-    </row>
-    <row r="482" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H481" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="482" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A482" s="3">
         <v>673</v>
       </c>
@@ -14335,8 +15744,11 @@
       <c r="G482" s="3">
         <v>3301061236</v>
       </c>
-    </row>
-    <row r="483" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H482" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="483" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A483" s="3">
         <v>673</v>
       </c>
@@ -14356,8 +15768,11 @@
       <c r="G483" s="3">
         <v>3301061236</v>
       </c>
-    </row>
-    <row r="484" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H483" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="484" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A484" s="3">
         <v>221</v>
       </c>
@@ -14379,8 +15794,11 @@
       <c r="G484" s="3">
         <v>3301090305</v>
       </c>
-    </row>
-    <row r="485" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H484" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="485" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A485" s="3">
         <v>221</v>
       </c>
@@ -14400,8 +15818,11 @@
       <c r="G485" s="3">
         <v>3301090305</v>
       </c>
-    </row>
-    <row r="486" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H485" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="486" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A486" s="3">
         <v>291</v>
       </c>
@@ -14421,8 +15842,11 @@
       <c r="G486" s="3">
         <v>3301090305</v>
       </c>
-    </row>
-    <row r="487" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H486" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="487" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A487" s="3">
         <v>451</v>
       </c>
@@ -14444,8 +15868,11 @@
       <c r="G487" s="3">
         <v>3302000000</v>
       </c>
-    </row>
-    <row r="488" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H487" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="488" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A488" s="3">
         <v>441</v>
       </c>
@@ -14465,8 +15892,11 @@
       <c r="G488" s="3">
         <v>3302000000</v>
       </c>
-    </row>
-    <row r="489" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H488" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="489" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A489" s="3">
         <v>441</v>
       </c>
@@ -14486,8 +15916,11 @@
       <c r="G489" s="3">
         <v>3302000000</v>
       </c>
-    </row>
-    <row r="490" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H489" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="490" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A490" s="3">
         <v>441</v>
       </c>
@@ -14509,8 +15942,11 @@
       <c r="G490" s="3">
         <v>3302000000</v>
       </c>
-    </row>
-    <row r="491" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H490" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="491" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A491" s="3">
         <v>114</v>
       </c>
@@ -14532,8 +15968,11 @@
       <c r="G491" s="3">
         <v>3301011001</v>
       </c>
-    </row>
-    <row r="492" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H491" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="492" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A492" s="3">
         <v>118</v>
       </c>
@@ -14553,8 +15992,11 @@
       <c r="G492" s="3">
         <v>3301011201</v>
       </c>
-    </row>
-    <row r="493" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H492" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="493" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A493" s="3">
         <v>118</v>
       </c>
@@ -14576,8 +16018,11 @@
       <c r="G493" s="3">
         <v>3301011201</v>
       </c>
-    </row>
-    <row r="494" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H493" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="494" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A494" s="3"/>
       <c r="B494" s="3" t="s">
         <v>1065</v>
@@ -14593,8 +16038,11 @@
       <c r="G494" s="3">
         <v>3301010201</v>
       </c>
-    </row>
-    <row r="495" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H494" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="495" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A495" s="3">
         <v>131</v>
       </c>
@@ -14616,8 +16064,11 @@
       <c r="G495" s="3">
         <v>3301010401</v>
       </c>
-    </row>
-    <row r="496" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H495" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="496" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A496" s="3">
         <v>142</v>
       </c>
@@ -14639,8 +16090,11 @@
       <c r="G496" s="3">
         <v>3301010501</v>
       </c>
-    </row>
-    <row r="497" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H496" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="497" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A497" s="3">
         <v>112</v>
       </c>
@@ -14660,8 +16114,11 @@
       <c r="G497" s="3">
         <v>3301010201</v>
       </c>
-    </row>
-    <row r="498" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H497" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="498" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A498" s="3">
         <v>311</v>
       </c>
@@ -14683,8 +16140,11 @@
       <c r="G498" s="3">
         <v>3301060401</v>
       </c>
-    </row>
-    <row r="499" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H498" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="499" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A499" s="3">
         <v>311</v>
       </c>
@@ -14704,8 +16164,11 @@
       <c r="G499" s="3">
         <v>3301060401</v>
       </c>
-    </row>
-    <row r="500" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H499" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="500" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A500" s="3">
         <v>121</v>
       </c>
@@ -14725,8 +16188,11 @@
       <c r="G500" s="3">
         <v>3301010301</v>
       </c>
-    </row>
-    <row r="501" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H500" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="501" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A501" s="3">
         <v>121</v>
       </c>
@@ -14748,8 +16214,11 @@
       <c r="G501" s="3">
         <v>3301010301</v>
       </c>
-    </row>
-    <row r="502" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H501" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="502" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A502" s="3">
         <v>315</v>
       </c>
@@ -14769,8 +16238,11 @@
       <c r="G502" s="3">
         <v>3301060401</v>
       </c>
-    </row>
-    <row r="503" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H502" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="503" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A503" s="3">
         <v>315</v>
       </c>
@@ -14790,8 +16262,11 @@
       <c r="G503" s="3">
         <v>3301060401</v>
       </c>
-    </row>
-    <row r="504" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H503" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="504" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A504" s="3">
         <v>315</v>
       </c>
@@ -14813,8 +16288,11 @@
       <c r="G504" s="3">
         <v>3301060401</v>
       </c>
-    </row>
-    <row r="505" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H504" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="505" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A505" s="3">
         <v>156</v>
       </c>
@@ -14836,8 +16314,11 @@
       <c r="G505" s="3">
         <v>3301010801</v>
       </c>
-    </row>
-    <row r="506" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H505" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="506" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A506" s="3">
         <v>115</v>
       </c>
@@ -14859,8 +16340,11 @@
       <c r="G506" s="3">
         <v>3301010101</v>
       </c>
-    </row>
-    <row r="507" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H506" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="507" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A507" s="3">
         <v>115</v>
       </c>
@@ -14880,8 +16364,11 @@
       <c r="G507" s="3">
         <v>3301010101</v>
       </c>
-    </row>
-    <row r="508" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H507" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="508" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A508" s="3">
         <v>115</v>
       </c>
@@ -14901,8 +16388,11 @@
       <c r="G508" s="3">
         <v>3301010101</v>
       </c>
-    </row>
-    <row r="509" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H508" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="509" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A509" s="3">
         <v>644</v>
       </c>
@@ -14922,8 +16412,11 @@
       <c r="G509" s="3">
         <v>3301310200</v>
       </c>
-    </row>
-    <row r="510" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H509" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="510" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A510" s="3">
         <v>644</v>
       </c>
@@ -14943,8 +16436,11 @@
       <c r="G510" s="3">
         <v>3301310200</v>
       </c>
-    </row>
-    <row r="511" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H510" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="511" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A511" s="3">
         <v>644</v>
       </c>
@@ -14966,8 +16462,11 @@
       <c r="G511" s="3">
         <v>3301310200</v>
       </c>
-    </row>
-    <row r="512" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H511" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="512" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A512" s="3">
         <v>720</v>
       </c>
@@ -14987,8 +16486,11 @@
       <c r="G512" s="3">
         <v>3301080000</v>
       </c>
-    </row>
-    <row r="513" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H512" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="513" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A513" s="3">
         <v>174</v>
       </c>
@@ -15008,8 +16510,11 @@
       <c r="G513" s="3">
         <v>3301010600</v>
       </c>
-    </row>
-    <row r="514" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H513" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="514" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A514" s="3">
         <v>620</v>
       </c>
@@ -15029,8 +16534,11 @@
       <c r="G514" s="3">
         <v>3301290700</v>
       </c>
-    </row>
-    <row r="515" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H514" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="515" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A515" s="3">
         <v>603</v>
       </c>
@@ -15050,8 +16558,11 @@
       <c r="G515" s="3">
         <v>3301290700</v>
       </c>
-    </row>
-    <row r="516" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H515" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="516" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A516" s="3">
         <v>603</v>
       </c>
@@ -15073,8 +16584,11 @@
       <c r="G516" s="3">
         <v>3301290700</v>
       </c>
-    </row>
-    <row r="517" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H516" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="517" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A517" s="3">
         <v>940</v>
       </c>
@@ -15094,8 +16608,11 @@
       <c r="G517" s="3">
         <v>3399000000</v>
       </c>
-    </row>
-    <row r="518" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H517" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="518" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A518" s="3">
         <v>459</v>
       </c>
@@ -15115,8 +16632,11 @@
       <c r="G518" s="3">
         <v>3302000000</v>
       </c>
-    </row>
-    <row r="519" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H518" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="519" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A519" s="3">
         <v>459</v>
       </c>
@@ -15136,8 +16656,11 @@
       <c r="G519" s="3">
         <v>3302000000</v>
       </c>
-    </row>
-    <row r="520" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H519" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="520" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A520" s="3">
         <v>790</v>
       </c>
@@ -15157,8 +16680,11 @@
       <c r="G520" s="3">
         <v>3399000000</v>
       </c>
-    </row>
-    <row r="521" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H520" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="521" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A521" s="3"/>
       <c r="B521" s="3" t="s">
         <v>1135</v>
@@ -15174,8 +16700,11 @@
       <c r="G521" s="3">
         <v>3301070000</v>
       </c>
-    </row>
-    <row r="522" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H521" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="522" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A522" s="3"/>
       <c r="B522" s="3" t="s">
         <v>1138</v>
@@ -15191,8 +16720,11 @@
       <c r="G522" s="3">
         <v>3301061200</v>
       </c>
-    </row>
-    <row r="523" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H522" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="523" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A523" s="3">
         <v>564</v>
       </c>
@@ -15212,8 +16744,11 @@
       <c r="G523" s="3">
         <v>3306010000</v>
       </c>
-    </row>
-    <row r="524" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H523" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="524" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A524" s="3">
         <v>564</v>
       </c>
@@ -15233,8 +16768,11 @@
       <c r="G524" s="3">
         <v>3306010000</v>
       </c>
-    </row>
-    <row r="525" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H524" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="525" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A525" s="3">
         <v>564</v>
       </c>
@@ -15256,8 +16794,11 @@
       <c r="G525" s="3">
         <v>3306010000</v>
       </c>
-    </row>
-    <row r="526" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H525" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="526" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A526" s="3">
         <v>0</v>
       </c>
@@ -15277,8 +16818,11 @@
       <c r="G526" s="3">
         <v>3399000000</v>
       </c>
-    </row>
-    <row r="527" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H526" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="527" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A527" s="3">
         <v>145</v>
       </c>
@@ -15298,8 +16842,11 @@
       <c r="G527" s="3">
         <v>3399000000</v>
       </c>
-    </row>
-    <row r="528" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H527" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="528" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A528" s="3">
         <v>829</v>
       </c>
@@ -15319,8 +16866,11 @@
       <c r="G528" s="3">
         <v>3399000000</v>
       </c>
-    </row>
-    <row r="529" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H528" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="529" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A529" s="3">
         <v>824</v>
       </c>
@@ -15342,8 +16892,11 @@
       <c r="G529" s="3">
         <v>3303010000</v>
       </c>
-    </row>
-    <row r="530" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H529" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="530" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A530" s="3">
         <v>824</v>
       </c>
@@ -15363,8 +16916,11 @@
       <c r="G530" s="3">
         <v>3303010000</v>
       </c>
-    </row>
-    <row r="531" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H530" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="531" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A531" s="3">
         <v>824</v>
       </c>
@@ -15384,8 +16940,11 @@
       <c r="G531" s="3">
         <v>3303010000</v>
       </c>
-    </row>
-    <row r="532" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H531" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="532" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A532" s="3">
         <v>837</v>
       </c>
@@ -15405,8 +16964,11 @@
       <c r="G532" s="3">
         <v>3303010000</v>
       </c>
-    </row>
-    <row r="533" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H532" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="533" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A533" s="3">
         <v>837</v>
       </c>
@@ -15428,8 +16990,11 @@
       <c r="G533" s="3">
         <v>3303010000</v>
       </c>
-    </row>
-    <row r="534" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H533" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="534" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A534" s="3">
         <v>996</v>
       </c>
@@ -15449,8 +17014,11 @@
       <c r="G534" s="3">
         <v>3399000000</v>
       </c>
-    </row>
-    <row r="535" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H534" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="535" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A535" s="3">
         <v>994</v>
       </c>
@@ -15470,8 +17038,11 @@
       <c r="G535" s="3">
         <v>3302000000</v>
       </c>
-    </row>
-    <row r="536" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H535" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="536" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A536" s="3">
         <v>836</v>
       </c>
@@ -15491,8 +17062,11 @@
       <c r="G536" s="3">
         <v>3303010200</v>
       </c>
-    </row>
-    <row r="537" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H536" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="537" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A537" s="3">
         <v>836</v>
       </c>
@@ -15514,8 +17088,11 @@
       <c r="G537" s="3">
         <v>3303010200</v>
       </c>
-    </row>
-    <row r="538" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H537" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="538" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A538" s="3"/>
       <c r="B538" s="3" t="s">
         <v>1171</v>
@@ -15531,8 +17108,11 @@
       <c r="G538" s="3">
         <v>3301110000</v>
       </c>
-    </row>
-    <row r="539" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H538" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="539" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A539" s="3"/>
       <c r="B539" s="3" t="s">
         <v>1174</v>
@@ -15548,8 +17128,11 @@
       <c r="G539" s="3">
         <v>3301080000</v>
       </c>
-    </row>
-    <row r="540" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H539" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="540" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A540" s="3"/>
       <c r="B540" s="3" t="s">
         <v>1177</v>
@@ -15565,8 +17148,11 @@
       <c r="G540" s="3">
         <v>3301080000</v>
       </c>
-    </row>
-    <row r="541" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H540" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="541" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A541" s="3"/>
       <c r="B541" s="3" t="s">
         <v>1179</v>
@@ -15582,8 +17168,11 @@
       <c r="G541" s="3">
         <v>3301080000</v>
       </c>
-    </row>
-    <row r="542" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H541" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="542" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A542" s="3"/>
       <c r="B542" s="3" t="s">
         <v>1181</v>
@@ -15599,8 +17188,11 @@
       <c r="G542" s="3">
         <v>3301080000</v>
       </c>
-    </row>
-    <row r="543" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H542" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="543" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A543" s="3"/>
       <c r="B543" s="3" t="s">
         <v>1183</v>
@@ -15616,8 +17208,11 @@
       <c r="G543" s="3">
         <v>3302000000</v>
       </c>
-    </row>
-    <row r="544" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H543" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="544" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A544" s="3"/>
       <c r="B544" s="3" t="s">
         <v>1185</v>
@@ -15633,8 +17228,11 @@
       <c r="G544" s="3">
         <v>3399000000</v>
       </c>
-    </row>
-    <row r="545" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H544" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="545" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A545" s="3"/>
       <c r="B545" s="3" t="s">
         <v>1133</v>
@@ -15650,8 +17248,11 @@
       <c r="G545" s="3">
         <v>3301080000</v>
       </c>
-    </row>
-    <row r="546" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H545" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="546" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A546" s="3">
         <v>995</v>
       </c>
@@ -15671,8 +17272,11 @@
       <c r="G546" s="3">
         <v>3306000000</v>
       </c>
-    </row>
-    <row r="547" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H546" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="547" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A547" s="3">
         <v>848</v>
       </c>
@@ -15692,8 +17296,11 @@
       <c r="G547" s="3">
         <v>3306000000</v>
       </c>
-    </row>
-    <row r="548" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H547" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="548" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A548" s="3">
         <v>848</v>
       </c>
@@ -15713,8 +17320,11 @@
       <c r="G548" s="3">
         <v>3306000000</v>
       </c>
-    </row>
-    <row r="549" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H548" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="549" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A549" s="3">
         <v>847</v>
       </c>
@@ -15734,8 +17344,11 @@
       <c r="G549" s="3">
         <v>3306000000</v>
       </c>
-    </row>
-    <row r="550" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H549" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="550" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A550" s="3">
         <v>125</v>
       </c>
@@ -15757,170 +17370,12 @@
       <c r="G550" s="3">
         <v>3301011501</v>
       </c>
-    </row>
-    <row r="551" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A551">
-        <v>13</v>
-      </c>
-      <c r="B551" t="s">
-        <v>1206</v>
-      </c>
-      <c r="C551" s="3" t="s">
-        <v>1206</v>
-      </c>
-      <c r="D551" s="3" t="s">
-        <v>1206</v>
-      </c>
-      <c r="E551" t="s">
-        <v>1212</v>
-      </c>
-      <c r="F551" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G551" s="3">
-        <v>3399000000</v>
-      </c>
-    </row>
-    <row r="552" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A552">
-        <v>593</v>
-      </c>
-      <c r="B552" t="s">
-        <v>1207</v>
-      </c>
-      <c r="C552" s="3" t="s">
-        <v>1207</v>
-      </c>
-      <c r="D552" s="3" t="s">
-        <v>1207</v>
-      </c>
-      <c r="E552" t="s">
-        <v>1213</v>
-      </c>
-      <c r="F552" s="3" t="s">
-        <v>1173</v>
-      </c>
-      <c r="G552" s="3">
-        <v>3301110000</v>
-      </c>
-    </row>
-    <row r="553" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A553">
-        <v>910</v>
-      </c>
-      <c r="B553" t="s">
-        <v>1208</v>
-      </c>
-      <c r="C553" s="3" t="s">
-        <v>1208</v>
-      </c>
-      <c r="D553" s="3" t="s">
-        <v>1208</v>
-      </c>
-      <c r="E553" t="s">
-        <v>1214</v>
-      </c>
-      <c r="F553" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G553" s="3">
-        <v>3302000000</v>
-      </c>
-    </row>
-    <row r="554" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A554">
-        <v>584</v>
-      </c>
-      <c r="B554" t="s">
-        <v>1209</v>
-      </c>
-      <c r="C554" s="3" t="s">
-        <v>1209</v>
-      </c>
-      <c r="D554" s="3" t="s">
-        <v>1209</v>
-      </c>
-      <c r="E554" t="s">
-        <v>1215</v>
-      </c>
-      <c r="F554" s="3" t="s">
-        <v>1216</v>
-      </c>
-      <c r="G554" s="3">
-        <v>3399000000</v>
-      </c>
-    </row>
-    <row r="555" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A555">
-        <v>633</v>
-      </c>
-      <c r="B555" t="s">
-        <v>1210</v>
-      </c>
-      <c r="C555" s="3" t="s">
-        <v>1210</v>
-      </c>
-      <c r="D555" s="3" t="s">
-        <v>1210</v>
-      </c>
-      <c r="E555" t="s">
-        <v>1217</v>
-      </c>
-      <c r="F555" s="3" t="s">
-        <v>547</v>
-      </c>
-      <c r="G555" s="3">
-        <v>3301220000</v>
-      </c>
-    </row>
-    <row r="556" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A556">
-        <v>13</v>
-      </c>
-      <c r="B556" t="s">
-        <v>1206</v>
-      </c>
-      <c r="C556" s="3" t="s">
-        <v>1206</v>
-      </c>
-      <c r="D556" s="3" t="s">
-        <v>1206</v>
-      </c>
-      <c r="E556" t="s">
-        <v>1212</v>
-      </c>
-      <c r="F556" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G556" s="3">
-        <v>3399000000</v>
-      </c>
-    </row>
-    <row r="557" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A557">
-        <v>585</v>
-      </c>
-      <c r="B557" t="s">
-        <v>1211</v>
-      </c>
-      <c r="C557" s="3" t="s">
-        <v>1211</v>
-      </c>
-      <c r="D557" s="3" t="s">
-        <v>1211</v>
-      </c>
-      <c r="E557" t="s">
-        <v>1218</v>
-      </c>
-      <c r="F557" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G557" s="3">
-        <v>3399000000</v>
+      <c r="H550" s="3" t="s">
+        <v>1204</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G557" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:G550"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>